--- a/Alex-Stevens.xlsx
+++ b/Alex-Stevens.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agaskins\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alex/Desktop/Stevens/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97833A90-8050-422B-84C1-12E3FCF9D573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B9B721-CA3C-BB47-865D-7255C0030E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E04E897A-1522-45CD-BA08-DB652B3D3E2A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{E04E897A-1522-45CD-BA08-DB652B3D3E2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Alex" sheetId="1" r:id="rId1"/>
@@ -417,7 +417,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -829,31 +829,215 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="12" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="12" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="12" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="12" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="12" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="12" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="12" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="12" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -865,566 +1049,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="12" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="12" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="12" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="12" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="12" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="12" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="12" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="12" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="55">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1917,37 +1547,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35A90BD-4739-4B1D-9A53-29DA0BA70D0C}">
   <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S40" sqref="S40"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="84" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" customWidth="1"/>
-    <col min="8" max="8" width="42.28515625" customWidth="1"/>
+    <col min="1" max="1" width="39.83203125" customWidth="1"/>
+    <col min="8" max="8" width="42.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="14" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="78"/>
-    </row>
-    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="16"/>
+    </row>
+    <row r="2" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1966,7 +1596,7 @@
       <c r="F2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="78"/>
+      <c r="G2" s="16"/>
       <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1985,10 +1615,10 @@
       <c r="M2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="78"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="N2" s="16"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2003,12 +1633,12 @@
       <c r="E3" s="3">
         <v>2.67</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="7">
         <f>(E3/16)*C3</f>
         <v>0.50062499999999999</v>
       </c>
-      <c r="G3" s="78"/>
-      <c r="H3" s="8" t="s">
+      <c r="G3" s="16"/>
+      <c r="H3" s="6" t="s">
         <v>76</v>
       </c>
       <c r="I3" s="3" t="s">
@@ -2023,14 +1653,14 @@
       <c r="L3" s="3">
         <v>4</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="7">
         <f>L3*J3</f>
         <v>16</v>
       </c>
-      <c r="N3" s="78"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="N3" s="16"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2045,12 +1675,12 @@
       <c r="E4" s="2">
         <v>3.33</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="9">
         <f t="shared" ref="F4:F11" si="0">(E4/16)*C4</f>
         <v>0.208125</v>
       </c>
-      <c r="G4" s="78"/>
-      <c r="H4" s="10" t="s">
+      <c r="G4" s="16"/>
+      <c r="H4" s="8" t="s">
         <v>78</v>
       </c>
       <c r="I4" s="2" t="s">
@@ -2065,14 +1695,14 @@
       <c r="L4" s="2">
         <v>4</v>
       </c>
-      <c r="M4" s="9">
-        <f t="shared" ref="M4:M9" si="1">L4*J4</f>
+      <c r="M4" s="7">
+        <f t="shared" ref="M4:M8" si="1">L4*J4</f>
         <v>12</v>
       </c>
-      <c r="N4" s="78"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="N4" s="16"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2087,12 +1717,12 @@
       <c r="E5" s="2">
         <v>2</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="9">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="G5" s="78"/>
-      <c r="H5" s="10" t="s">
+      <c r="G5" s="16"/>
+      <c r="H5" s="8" t="s">
         <v>80</v>
       </c>
       <c r="I5" s="2" t="s">
@@ -2107,14 +1737,14 @@
       <c r="L5" s="2">
         <v>4</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="7">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="N5" s="78"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="N5" s="16"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2129,12 +1759,12 @@
       <c r="E6" s="2">
         <v>4</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="9">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="G6" s="78"/>
-      <c r="H6" s="10" t="s">
+      <c r="G6" s="16"/>
+      <c r="H6" s="8" t="s">
         <v>82</v>
       </c>
       <c r="I6" s="2" t="s">
@@ -2149,14 +1779,14 @@
       <c r="L6" s="2">
         <v>4</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="7">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="N6" s="78"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="N6" s="16"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2171,12 +1801,12 @@
       <c r="E7" s="2">
         <v>4</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="9">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="G7" s="78"/>
-      <c r="H7" s="10" t="s">
+      <c r="G7" s="16"/>
+      <c r="H7" s="8" t="s">
         <v>84</v>
       </c>
       <c r="I7" s="2" t="s">
@@ -2191,14 +1821,14 @@
       <c r="L7" s="2">
         <v>4</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="7">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="N7" s="78"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="N7" s="16"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2213,12 +1843,12 @@
       <c r="E8" s="2">
         <v>4</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="9">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="G8" s="78"/>
-      <c r="H8" s="10" t="s">
+      <c r="G8" s="16"/>
+      <c r="H8" s="8" t="s">
         <v>85</v>
       </c>
       <c r="I8" s="2" t="s">
@@ -2233,14 +1863,14 @@
       <c r="L8" s="2">
         <v>3.67</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="7">
         <f t="shared" si="1"/>
         <v>11.01</v>
       </c>
-      <c r="N8" s="78"/>
-    </row>
-    <row r="9" spans="1:14" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="N8" s="16"/>
+    </row>
+    <row r="9" spans="1:14" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -2255,12 +1885,12 @@
       <c r="E9" s="2">
         <v>3</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="9">
         <f t="shared" si="0"/>
         <v>0.375</v>
       </c>
-      <c r="G9" s="78"/>
-      <c r="H9" s="10" t="s">
+      <c r="G9" s="16"/>
+      <c r="H9" s="8" t="s">
         <v>86</v>
       </c>
       <c r="I9" s="2" t="s">
@@ -2275,13 +1905,13 @@
       <c r="L9" s="2">
         <v>2</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="7">
         <v>0</v>
       </c>
-      <c r="N9" s="78"/>
-    </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="N9" s="16"/>
+    </row>
+    <row r="10" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -2296,29 +1926,29 @@
       <c r="E10" s="2">
         <v>2.67</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="9">
         <f t="shared" si="0"/>
         <v>0.33374999999999999</v>
       </c>
-      <c r="G10" s="78"/>
-      <c r="H10" s="5" t="s">
+      <c r="G10" s="16"/>
+      <c r="H10" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="7">
+      <c r="I10" s="36"/>
+      <c r="J10" s="5">
         <f>SUM(J3:J9)</f>
         <v>19</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="37">
         <f>(SUM(M3:M8))/(J10-1)</f>
         <v>3.9450000000000003</v>
       </c>
-      <c r="L10" s="18"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="78"/>
-    </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="L10" s="38"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="16"/>
+    </row>
+    <row r="11" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -2333,52 +1963,52 @@
       <c r="E11" s="4">
         <v>3.33</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="11">
         <f t="shared" si="0"/>
         <v>0.62437500000000001</v>
       </c>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="78"/>
-      <c r="N11" s="78"/>
-    </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+    </row>
+    <row r="12" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7">
+      <c r="B12" s="36"/>
+      <c r="C12" s="5">
         <v>17</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="37">
         <f>F3+F4+F6+F7+F8+F9+F10+F11</f>
         <v>3.2918750000000006</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="14" t="s">
+      <c r="E12" s="38"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="76" t="s">
         <v>107</v>
       </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="78"/>
-    </row>
-    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="78"/>
-      <c r="B13" s="78"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="77"/>
+      <c r="L12" s="77"/>
+      <c r="M12" s="78"/>
+      <c r="N12" s="16"/>
+    </row>
+    <row r="13" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
       <c r="H13" s="1" t="s">
         <v>13</v>
       </c>
@@ -2397,19 +2027,19 @@
       <c r="M13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N13" s="78"/>
-    </row>
-    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
+      <c r="N13" s="16"/>
+    </row>
+    <row r="14" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="8" t="s">
+      <c r="B14" s="77"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="6" t="s">
         <v>90</v>
       </c>
       <c r="I14" s="3" t="s">
@@ -2421,14 +2051,16 @@
       <c r="K14" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="L14" s="3"/>
-      <c r="M14" s="9">
+      <c r="L14" s="3">
+        <v>4</v>
+      </c>
+      <c r="M14" s="7">
         <f>L14*J14</f>
-        <v>0</v>
-      </c>
-      <c r="N14" s="78"/>
-    </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="N14" s="16"/>
+    </row>
+    <row r="15" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -2447,8 +2079,8 @@
       <c r="F15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="78"/>
-      <c r="H15" s="10" t="s">
+      <c r="G15" s="16"/>
+      <c r="H15" s="8" t="s">
         <v>93</v>
       </c>
       <c r="I15" s="2" t="s">
@@ -2460,15 +2092,17 @@
       <c r="K15" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="L15" s="2"/>
-      <c r="M15" s="9">
+      <c r="L15" s="2">
+        <v>3.33</v>
+      </c>
+      <c r="M15" s="7">
         <f t="shared" ref="M15:M19" si="2">L15*J15</f>
-        <v>0</v>
-      </c>
-      <c r="N15" s="78"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+        <v>9.99</v>
+      </c>
+      <c r="N15" s="16"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -2483,12 +2117,12 @@
       <c r="E16" s="3">
         <v>3.33</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="7">
         <f>C16*E16</f>
         <v>9.99</v>
       </c>
-      <c r="G16" s="78"/>
-      <c r="H16" s="10" t="s">
+      <c r="G16" s="16"/>
+      <c r="H16" s="8" t="s">
         <v>95</v>
       </c>
       <c r="I16" s="2" t="s">
@@ -2500,15 +2134,17 @@
       <c r="K16" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="L16" s="2"/>
-      <c r="M16" s="9">
+      <c r="L16" s="2">
+        <v>4</v>
+      </c>
+      <c r="M16" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N16" s="78"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N16" s="16"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -2523,12 +2159,12 @@
       <c r="E17" s="2">
         <v>3.33</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="7">
         <f t="shared" ref="F17:F23" si="3">C17*E17</f>
         <v>3.33</v>
       </c>
-      <c r="G17" s="78"/>
-      <c r="H17" s="10" t="s">
+      <c r="G17" s="16"/>
+      <c r="H17" s="8" t="s">
         <v>97</v>
       </c>
       <c r="I17" s="2" t="s">
@@ -2540,15 +2176,17 @@
       <c r="K17" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="L17" s="2"/>
-      <c r="M17" s="9">
+      <c r="L17" s="2">
+        <v>3.33</v>
+      </c>
+      <c r="M17" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N17" s="78"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+        <v>13.32</v>
+      </c>
+      <c r="N17" s="16"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
         <v>36</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -2563,12 +2201,12 @@
       <c r="E18" s="2">
         <v>4</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="7">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="G18" s="78"/>
-      <c r="H18" s="10" t="s">
+      <c r="G18" s="16"/>
+      <c r="H18" s="8" t="s">
         <v>99</v>
       </c>
       <c r="I18" s="2" t="s">
@@ -2580,15 +2218,17 @@
       <c r="K18" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="L18" s="2"/>
-      <c r="M18" s="9">
+      <c r="L18" s="2">
+        <v>3.67</v>
+      </c>
+      <c r="M18" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N18" s="78"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+        <v>11.01</v>
+      </c>
+      <c r="N18" s="16"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
         <v>38</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -2603,12 +2243,12 @@
       <c r="E19" s="2">
         <v>2.67</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="7">
         <f t="shared" si="3"/>
         <v>5.34</v>
       </c>
-      <c r="G19" s="78"/>
-      <c r="H19" s="10" t="s">
+      <c r="G19" s="16"/>
+      <c r="H19" s="8" t="s">
         <v>101</v>
       </c>
       <c r="I19" s="2" t="s">
@@ -2620,15 +2260,17 @@
       <c r="K19" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="L19" s="2"/>
-      <c r="M19" s="9">
+      <c r="L19" s="2">
+        <v>4</v>
+      </c>
+      <c r="M19" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N19" s="78"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N19" s="16"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
         <v>40</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -2643,12 +2285,12 @@
       <c r="E20" s="2">
         <v>4</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="7">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="G20" s="78"/>
-      <c r="H20" s="10" t="s">
+      <c r="G20" s="16"/>
+      <c r="H20" s="8" t="s">
         <v>103</v>
       </c>
       <c r="I20" s="2" t="s">
@@ -2660,14 +2302,16 @@
       <c r="K20" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="L20" s="2"/>
-      <c r="M20" s="9">
+      <c r="L20" s="2">
+        <v>2</v>
+      </c>
+      <c r="M20" s="7">
         <v>0</v>
       </c>
-      <c r="N20" s="78"/>
-    </row>
-    <row r="21" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
+      <c r="N20" s="16"/>
+    </row>
+    <row r="21" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>42</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -2682,12 +2326,12 @@
       <c r="E21" s="2">
         <v>4</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="7">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="G21" s="78"/>
-      <c r="H21" s="10" t="s">
+      <c r="G21" s="16"/>
+      <c r="H21" s="8" t="s">
         <v>105</v>
       </c>
       <c r="I21" s="2" t="s">
@@ -2702,13 +2346,13 @@
       <c r="L21" s="2">
         <v>2</v>
       </c>
-      <c r="M21" s="9">
+      <c r="M21" s="7">
         <v>0</v>
       </c>
-      <c r="N21" s="78"/>
-    </row>
-    <row r="22" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
+      <c r="N21" s="16"/>
+    </row>
+    <row r="22" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
         <v>44</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -2723,29 +2367,29 @@
       <c r="E22" s="2">
         <v>3.67</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="7">
         <f t="shared" si="3"/>
         <v>11.01</v>
       </c>
-      <c r="G22" s="78"/>
-      <c r="H22" s="5" t="s">
+      <c r="G22" s="16"/>
+      <c r="H22" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="7">
+      <c r="I22" s="36"/>
+      <c r="J22" s="5">
         <f>SUM(J14:J21)</f>
         <v>20</v>
       </c>
-      <c r="K22" s="17">
-        <f>(SUM(M14:M21))/J22</f>
-        <v>0</v>
-      </c>
-      <c r="L22" s="18"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="78"/>
-    </row>
-    <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
+      <c r="K22" s="37">
+        <f>(SUM(M14:M19))/(J22-2)</f>
+        <v>3.684444444444444</v>
+      </c>
+      <c r="L22" s="38"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="16"/>
+    </row>
+    <row r="23" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
         <v>47</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -2760,53 +2404,53 @@
       <c r="E23" s="2">
         <v>4</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="7">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="G23" s="78"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="78"/>
-    </row>
-    <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+      <c r="G23" s="16"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="16"/>
+    </row>
+    <row r="24" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="7">
+      <c r="B24" s="36"/>
+      <c r="C24" s="5">
         <f>SUM(C16:C23)</f>
         <v>18</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="37">
         <f>(SUM(F16:F23))/C24</f>
         <v>3.6483333333333325</v>
       </c>
-      <c r="E24" s="18"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="14" t="s">
+      <c r="E24" s="38"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="76" t="s">
         <v>117</v>
       </c>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="78"/>
-    </row>
-    <row r="25" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="78"/>
-      <c r="B25" s="78"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="78"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="77"/>
+      <c r="K24" s="77"/>
+      <c r="L24" s="77"/>
+      <c r="M24" s="78"/>
+      <c r="N24" s="16"/>
+    </row>
+    <row r="25" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
       <c r="H25" s="1" t="s">
         <v>13</v>
       </c>
@@ -2825,19 +2469,19 @@
       <c r="M25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N25" s="78"/>
-    </row>
-    <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="14" t="s">
+      <c r="N25" s="16"/>
+    </row>
+    <row r="26" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="8" t="s">
+      <c r="B26" s="77"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="6" t="s">
         <v>108</v>
       </c>
       <c r="I26" s="3" t="s">
@@ -2848,13 +2492,13 @@
       </c>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
-      <c r="M26" s="9">
+      <c r="M26" s="7">
         <f>L26*J26</f>
         <v>0</v>
       </c>
-      <c r="N26" s="78"/>
-    </row>
-    <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N26" s="16"/>
+    </row>
+    <row r="27" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>13</v>
       </c>
@@ -2873,8 +2517,8 @@
       <c r="F27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G27" s="78"/>
-      <c r="H27" s="10" t="s">
+      <c r="G27" s="16"/>
+      <c r="H27" s="8" t="s">
         <v>110</v>
       </c>
       <c r="I27" s="2" t="s">
@@ -2885,14 +2529,14 @@
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
-      <c r="M27" s="9">
+      <c r="M27" s="7">
         <f t="shared" ref="M27:M31" si="4">L27*J27</f>
         <v>0</v>
       </c>
-      <c r="N27" s="78"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+      <c r="N27" s="16"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -2907,12 +2551,12 @@
       <c r="E28" s="3">
         <v>3.67</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="7">
         <f>C28*E28</f>
         <v>14.68</v>
       </c>
-      <c r="G28" s="78"/>
-      <c r="H28" s="10" t="s">
+      <c r="G28" s="16"/>
+      <c r="H28" s="8" t="s">
         <v>112</v>
       </c>
       <c r="I28" s="2" t="s">
@@ -2923,14 +2567,14 @@
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
-      <c r="M28" s="9">
+      <c r="M28" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N28" s="78"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+      <c r="N28" s="16"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -2945,28 +2589,28 @@
       <c r="E29" s="2">
         <v>4</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="7">
         <f t="shared" ref="F29:F33" si="5">C29*E29</f>
         <v>8</v>
       </c>
-      <c r="G29" s="78"/>
-      <c r="H29" s="21" t="s">
+      <c r="G29" s="16"/>
+      <c r="H29" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22">
+      <c r="I29" s="14"/>
+      <c r="J29" s="14">
         <v>3</v>
       </c>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="23">
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N29" s="78"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
+      <c r="N29" s="16"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
         <v>54</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -2981,28 +2625,28 @@
       <c r="E30" s="2">
         <v>4</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="7">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="G30" s="78"/>
-      <c r="H30" s="21" t="s">
+      <c r="G30" s="16"/>
+      <c r="H30" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22">
+      <c r="I30" s="14"/>
+      <c r="J30" s="14">
         <v>3</v>
       </c>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="23">
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N30" s="78"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+      <c r="N30" s="16"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
         <v>56</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -3017,28 +2661,28 @@
       <c r="E31" s="2">
         <v>3.33</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="7">
         <f t="shared" si="5"/>
         <v>13.32</v>
       </c>
-      <c r="G31" s="78"/>
-      <c r="H31" s="21" t="s">
+      <c r="G31" s="16"/>
+      <c r="H31" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22">
+      <c r="I31" s="14"/>
+      <c r="J31" s="14">
         <v>3</v>
       </c>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="23">
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N31" s="78"/>
-    </row>
-    <row r="32" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
+      <c r="N31" s="16"/>
+    </row>
+    <row r="32" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
         <v>58</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -3053,12 +2697,12 @@
       <c r="E32" s="2">
         <v>4</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="7">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="G32" s="78"/>
-      <c r="H32" s="10" t="s">
+      <c r="G32" s="16"/>
+      <c r="H32" s="8" t="s">
         <v>116</v>
       </c>
       <c r="I32" s="2"/>
@@ -3071,13 +2715,13 @@
       <c r="L32" s="2">
         <v>2</v>
       </c>
-      <c r="M32" s="9">
+      <c r="M32" s="7">
         <v>0</v>
       </c>
-      <c r="N32" s="78"/>
-    </row>
-    <row r="33" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
+      <c r="N32" s="16"/>
+    </row>
+    <row r="33" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
         <v>60</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -3092,73 +2736,73 @@
       <c r="E33" s="2">
         <v>4</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="7">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="G33" s="78"/>
-      <c r="H33" s="5" t="s">
+      <c r="G33" s="16"/>
+      <c r="H33" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="I33" s="6"/>
-      <c r="J33" s="7">
+      <c r="I33" s="36"/>
+      <c r="J33" s="5">
         <f>SUM(J26:J32)</f>
         <v>17</v>
       </c>
-      <c r="K33" s="17">
+      <c r="K33" s="37">
         <f>(SUM(M26:M31))/(J33-1)</f>
         <v>0</v>
       </c>
-      <c r="L33" s="18"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="78"/>
-    </row>
-    <row r="34" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
+      <c r="L33" s="38"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="16"/>
+    </row>
+    <row r="34" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="7">
+      <c r="B34" s="36"/>
+      <c r="C34" s="5">
         <f>SUM(C28:C33)</f>
         <v>19</v>
       </c>
-      <c r="D34" s="17">
+      <c r="D34" s="37">
         <f>(SUM(F28:F33))/C34</f>
         <v>3.7894736842105261</v>
       </c>
-      <c r="E34" s="18"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="78"/>
-      <c r="N34" s="78"/>
-    </row>
-    <row r="35" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="78"/>
-      <c r="B35" s="78"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="78"/>
-      <c r="E35" s="78"/>
-      <c r="F35" s="78"/>
-      <c r="G35" s="78"/>
-      <c r="H35" s="14" t="s">
+      <c r="E34" s="38"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="16"/>
+      <c r="N34" s="16"/>
+    </row>
+    <row r="35" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="76" t="s">
         <v>117</v>
       </c>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="78"/>
-    </row>
-    <row r="36" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="14" t="s">
+      <c r="I35" s="77"/>
+      <c r="J35" s="77"/>
+      <c r="K35" s="77"/>
+      <c r="L35" s="77"/>
+      <c r="M35" s="78"/>
+      <c r="N35" s="16"/>
+    </row>
+    <row r="36" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="78"/>
+      <c r="B36" s="77"/>
+      <c r="C36" s="77"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="77"/>
+      <c r="F36" s="78"/>
+      <c r="G36" s="16"/>
       <c r="H36" s="1" t="s">
         <v>13</v>
       </c>
@@ -3177,9 +2821,9 @@
       <c r="M36" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N36" s="78"/>
-    </row>
-    <row r="37" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N36" s="16"/>
+    </row>
+    <row r="37" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>13</v>
       </c>
@@ -3198,8 +2842,8 @@
       <c r="F37" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G37" s="78"/>
-      <c r="H37" s="8" t="s">
+      <c r="G37" s="16"/>
+      <c r="H37" s="6" t="s">
         <v>118</v>
       </c>
       <c r="I37" s="3" t="s">
@@ -3210,14 +2854,14 @@
       </c>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
-      <c r="M37" s="9">
+      <c r="M37" s="7">
         <f>L37*J37</f>
         <v>0</v>
       </c>
-      <c r="N37" s="78"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
+      <c r="N37" s="16"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
         <v>63</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -3232,28 +2876,28 @@
       <c r="E38" s="3">
         <v>4</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F38" s="7">
         <f>C38*E38</f>
         <v>12</v>
       </c>
-      <c r="G38" s="78"/>
-      <c r="H38" s="21" t="s">
+      <c r="G38" s="16"/>
+      <c r="H38" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22">
+      <c r="I38" s="14"/>
+      <c r="J38" s="14">
         <v>3</v>
       </c>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="23">
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="15">
         <f t="shared" ref="M38:M42" si="6">L38*J38</f>
         <v>0</v>
       </c>
-      <c r="N38" s="78"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
+      <c r="N38" s="16"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="8" t="s">
         <v>65</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -3268,28 +2912,28 @@
       <c r="E39" s="2">
         <v>4</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F39" s="7">
         <f t="shared" ref="F39:F43" si="7">C39*E39</f>
         <v>16</v>
       </c>
-      <c r="G39" s="78"/>
-      <c r="H39" s="21" t="s">
+      <c r="G39" s="16"/>
+      <c r="H39" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22">
+      <c r="I39" s="14"/>
+      <c r="J39" s="14">
         <v>3</v>
       </c>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="23">
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="15">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N39" s="78"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
+      <c r="N39" s="16"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="8" t="s">
         <v>67</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -3304,28 +2948,28 @@
       <c r="E40" s="2">
         <v>4</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F40" s="7">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="G40" s="78"/>
-      <c r="H40" s="21" t="s">
+      <c r="G40" s="16"/>
+      <c r="H40" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22">
+      <c r="I40" s="14"/>
+      <c r="J40" s="14">
         <v>3</v>
       </c>
-      <c r="K40" s="22"/>
-      <c r="L40" s="22"/>
-      <c r="M40" s="23">
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="15">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N40" s="78"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
+      <c r="N40" s="16"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="8" t="s">
         <v>71</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -3340,28 +2984,28 @@
       <c r="E41" s="2">
         <v>3</v>
       </c>
-      <c r="F41" s="9">
+      <c r="F41" s="7">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="G41" s="78"/>
-      <c r="H41" s="21" t="s">
+      <c r="G41" s="16"/>
+      <c r="H41" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22">
+      <c r="I41" s="14"/>
+      <c r="J41" s="14">
         <v>3</v>
       </c>
-      <c r="K41" s="22"/>
-      <c r="L41" s="22"/>
-      <c r="M41" s="23">
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="15">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N41" s="78"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
+      <c r="N41" s="16"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="8" t="s">
         <v>69</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -3376,12 +3020,12 @@
       <c r="E42" s="2">
         <v>3.33</v>
       </c>
-      <c r="F42" s="9">
+      <c r="F42" s="7">
         <f t="shared" si="7"/>
         <v>9.99</v>
       </c>
-      <c r="G42" s="78"/>
-      <c r="H42" s="10" t="s">
+      <c r="G42" s="16"/>
+      <c r="H42" s="8" t="s">
         <v>120</v>
       </c>
       <c r="I42" s="2" t="s">
@@ -3392,14 +3036,14 @@
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
-      <c r="M42" s="9">
+      <c r="M42" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N42" s="78"/>
-    </row>
-    <row r="43" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="10" t="s">
+      <c r="N42" s="16"/>
+    </row>
+    <row r="43" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
         <v>73</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -3414,12 +3058,12 @@
       <c r="E43" s="2">
         <v>4</v>
       </c>
-      <c r="F43" s="9">
+      <c r="F43" s="7">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="G43" s="78"/>
-      <c r="H43" s="10" t="s">
+      <c r="G43" s="16"/>
+      <c r="H43" s="8" t="s">
         <v>116</v>
       </c>
       <c r="I43" s="2"/>
@@ -3432,284 +3076,306 @@
       <c r="L43" s="2">
         <v>2</v>
       </c>
-      <c r="M43" s="9">
+      <c r="M43" s="7">
         <v>0</v>
       </c>
-      <c r="N43" s="78"/>
-    </row>
-    <row r="44" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
+      <c r="N43" s="16"/>
+    </row>
+    <row r="44" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="7">
+      <c r="B44" s="36"/>
+      <c r="C44" s="5">
         <f>SUM(C38:C43)</f>
         <v>19</v>
       </c>
-      <c r="D44" s="17">
+      <c r="D44" s="37">
         <f>(SUM(F38:F43))/C44</f>
         <v>3.7363157894736845</v>
       </c>
-      <c r="E44" s="18"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="78"/>
-      <c r="H44" s="5" t="s">
+      <c r="E44" s="38"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="I44" s="6"/>
-      <c r="J44" s="7">
+      <c r="I44" s="36"/>
+      <c r="J44" s="5">
         <f>SUM(J37:J43)</f>
         <v>17</v>
       </c>
-      <c r="K44" s="17">
+      <c r="K44" s="37">
         <f>(SUM(M37:M42))/(J44-1)</f>
         <v>0</v>
       </c>
-      <c r="L44" s="18"/>
-      <c r="M44" s="19"/>
-      <c r="N44" s="78"/>
-    </row>
-    <row r="45" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="78"/>
-      <c r="B45" s="78"/>
-      <c r="C45" s="78"/>
-      <c r="D45" s="78"/>
-      <c r="E45" s="78"/>
-      <c r="F45" s="78"/>
-      <c r="G45" s="78"/>
-      <c r="H45" s="78"/>
-      <c r="I45" s="78"/>
-      <c r="J45" s="78"/>
-      <c r="K45" s="78"/>
-      <c r="L45" s="78"/>
-      <c r="M45" s="78"/>
-      <c r="N45" s="78"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="24" t="s">
+      <c r="L44" s="38"/>
+      <c r="M44" s="39"/>
+      <c r="N44" s="16"/>
+    </row>
+    <row r="45" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="16"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="33">
-        <f>(((D12*C12)+(D24*C24)+(D34*C34)+(D44*C44)+(K10*J10))/(SUM(C12,C24,C34,C44,J10)))+0.002</f>
-        <v>3.6930529891304342</v>
-      </c>
-      <c r="I46" s="34"/>
-      <c r="J46" s="34"/>
-      <c r="K46" s="34"/>
-      <c r="L46" s="34"/>
-      <c r="M46" s="35"/>
-      <c r="N46" s="78"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="27"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="36"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="37"/>
-      <c r="K47" s="37"/>
-      <c r="L47" s="37"/>
-      <c r="M47" s="38"/>
-      <c r="N47" s="78"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="27"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="36"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="37"/>
-      <c r="K48" s="37"/>
-      <c r="L48" s="37"/>
-      <c r="M48" s="38"/>
-      <c r="N48" s="78"/>
-    </row>
-    <row r="49" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="30"/>
-      <c r="B49" s="31"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="39"/>
-      <c r="I49" s="40"/>
-      <c r="J49" s="40"/>
-      <c r="K49" s="40"/>
-      <c r="L49" s="40"/>
-      <c r="M49" s="41"/>
-      <c r="N49" s="78"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="42" t="s">
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="49">
+        <f>(((D12*C12)+(D24*C24)+(D34*C34)+(D44*C44)+(K10*J10)+(K22*J22))/(SUM(C12,C24,C34,C44,J10,J22)))+0.002</f>
+        <v>3.6918728918650787</v>
+      </c>
+      <c r="I46" s="50"/>
+      <c r="J46" s="50"/>
+      <c r="K46" s="50"/>
+      <c r="L46" s="50"/>
+      <c r="M46" s="51"/>
+      <c r="N46" s="16"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" s="43"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="53"/>
+      <c r="J47" s="53"/>
+      <c r="K47" s="53"/>
+      <c r="L47" s="53"/>
+      <c r="M47" s="54"/>
+      <c r="N47" s="16"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" s="43"/>
+      <c r="B48" s="44"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="44"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="52"/>
+      <c r="I48" s="53"/>
+      <c r="J48" s="53"/>
+      <c r="K48" s="53"/>
+      <c r="L48" s="53"/>
+      <c r="M48" s="54"/>
+      <c r="N48" s="16"/>
+    </row>
+    <row r="49" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="46"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="47"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="56"/>
+      <c r="J49" s="56"/>
+      <c r="K49" s="56"/>
+      <c r="L49" s="56"/>
+      <c r="M49" s="57"/>
+      <c r="N49" s="16"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="B50" s="43"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="43"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="44"/>
-      <c r="H50" s="60">
+      <c r="B50" s="59"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="60"/>
+      <c r="H50" s="67">
         <f>SUM(C12,C24,C34,C44,J10,J22)</f>
         <v>112</v>
       </c>
-      <c r="I50" s="61"/>
-      <c r="J50" s="61"/>
-      <c r="K50" s="61"/>
-      <c r="L50" s="61"/>
-      <c r="M50" s="62"/>
-      <c r="N50" s="78"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="45"/>
-      <c r="B51" s="46"/>
-      <c r="C51" s="46"/>
-      <c r="D51" s="46"/>
-      <c r="E51" s="46"/>
-      <c r="F51" s="46"/>
-      <c r="G51" s="47"/>
-      <c r="H51" s="63"/>
-      <c r="I51" s="64"/>
-      <c r="J51" s="64"/>
-      <c r="K51" s="64"/>
-      <c r="L51" s="64"/>
-      <c r="M51" s="65"/>
-      <c r="N51" s="78"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="45"/>
-      <c r="B52" s="46"/>
-      <c r="C52" s="46"/>
-      <c r="D52" s="46"/>
-      <c r="E52" s="46"/>
-      <c r="F52" s="46"/>
-      <c r="G52" s="47"/>
-      <c r="H52" s="63"/>
-      <c r="I52" s="64"/>
-      <c r="J52" s="64"/>
-      <c r="K52" s="64"/>
-      <c r="L52" s="64"/>
-      <c r="M52" s="65"/>
-      <c r="N52" s="78"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="48"/>
-      <c r="B53" s="49"/>
-      <c r="C53" s="49"/>
-      <c r="D53" s="49"/>
-      <c r="E53" s="49"/>
-      <c r="F53" s="49"/>
-      <c r="G53" s="50"/>
-      <c r="H53" s="66"/>
-      <c r="I53" s="67"/>
-      <c r="J53" s="67"/>
-      <c r="K53" s="67"/>
-      <c r="L53" s="67"/>
-      <c r="M53" s="68"/>
-      <c r="N53" s="78"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="51" t="s">
+      <c r="I50" s="68"/>
+      <c r="J50" s="68"/>
+      <c r="K50" s="68"/>
+      <c r="L50" s="68"/>
+      <c r="M50" s="69"/>
+      <c r="N50" s="16"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" s="61"/>
+      <c r="B51" s="62"/>
+      <c r="C51" s="62"/>
+      <c r="D51" s="62"/>
+      <c r="E51" s="62"/>
+      <c r="F51" s="62"/>
+      <c r="G51" s="63"/>
+      <c r="H51" s="70"/>
+      <c r="I51" s="71"/>
+      <c r="J51" s="71"/>
+      <c r="K51" s="71"/>
+      <c r="L51" s="71"/>
+      <c r="M51" s="72"/>
+      <c r="N51" s="16"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" s="61"/>
+      <c r="B52" s="62"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="62"/>
+      <c r="E52" s="62"/>
+      <c r="F52" s="62"/>
+      <c r="G52" s="63"/>
+      <c r="H52" s="70"/>
+      <c r="I52" s="71"/>
+      <c r="J52" s="71"/>
+      <c r="K52" s="71"/>
+      <c r="L52" s="71"/>
+      <c r="M52" s="72"/>
+      <c r="N52" s="16"/>
+    </row>
+    <row r="53" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="64"/>
+      <c r="B53" s="65"/>
+      <c r="C53" s="65"/>
+      <c r="D53" s="65"/>
+      <c r="E53" s="65"/>
+      <c r="F53" s="65"/>
+      <c r="G53" s="66"/>
+      <c r="H53" s="73"/>
+      <c r="I53" s="74"/>
+      <c r="J53" s="74"/>
+      <c r="K53" s="74"/>
+      <c r="L53" s="74"/>
+      <c r="M53" s="75"/>
+      <c r="N53" s="16"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="B54" s="52"/>
-      <c r="C54" s="52"/>
-      <c r="D54" s="52"/>
-      <c r="E54" s="52"/>
-      <c r="F54" s="52"/>
-      <c r="G54" s="53"/>
-      <c r="H54" s="69">
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="26">
         <f>H50/(SUM(C12,C24,C34,C44,J10,J22,J33,J44))</f>
         <v>0.76712328767123283</v>
       </c>
-      <c r="I54" s="70"/>
-      <c r="J54" s="70"/>
-      <c r="K54" s="70"/>
-      <c r="L54" s="70"/>
-      <c r="M54" s="71"/>
-      <c r="N54" s="78"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="54"/>
-      <c r="B55" s="55"/>
-      <c r="C55" s="55"/>
-      <c r="D55" s="55"/>
-      <c r="E55" s="55"/>
-      <c r="F55" s="55"/>
-      <c r="G55" s="56"/>
-      <c r="H55" s="72"/>
-      <c r="I55" s="73"/>
-      <c r="J55" s="73"/>
-      <c r="K55" s="73"/>
-      <c r="L55" s="73"/>
-      <c r="M55" s="74"/>
-      <c r="N55" s="78"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="54"/>
-      <c r="B56" s="55"/>
-      <c r="C56" s="55"/>
-      <c r="D56" s="55"/>
-      <c r="E56" s="55"/>
-      <c r="F56" s="55"/>
-      <c r="G56" s="56"/>
-      <c r="H56" s="72"/>
-      <c r="I56" s="73"/>
-      <c r="J56" s="73"/>
-      <c r="K56" s="73"/>
-      <c r="L56" s="73"/>
-      <c r="M56" s="74"/>
-      <c r="N56" s="78"/>
-    </row>
-    <row r="57" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="57"/>
-      <c r="B57" s="58"/>
-      <c r="C57" s="58"/>
-      <c r="D57" s="58"/>
-      <c r="E57" s="58"/>
-      <c r="F57" s="58"/>
-      <c r="G57" s="59"/>
-      <c r="H57" s="75"/>
-      <c r="I57" s="76"/>
-      <c r="J57" s="76"/>
-      <c r="K57" s="76"/>
-      <c r="L57" s="76"/>
-      <c r="M57" s="77"/>
-      <c r="N57" s="78"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="78"/>
-      <c r="B58" s="78"/>
-      <c r="C58" s="78"/>
-      <c r="D58" s="78"/>
-      <c r="E58" s="78"/>
-      <c r="F58" s="78"/>
-      <c r="G58" s="78"/>
-      <c r="H58" s="78"/>
-      <c r="I58" s="78"/>
-      <c r="J58" s="78"/>
-      <c r="K58" s="78"/>
-      <c r="L58" s="78"/>
-      <c r="M58" s="78"/>
-      <c r="N58" s="78"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="27"/>
+      <c r="K54" s="27"/>
+      <c r="L54" s="27"/>
+      <c r="M54" s="28"/>
+      <c r="N54" s="16"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" s="20"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="30"/>
+      <c r="J55" s="30"/>
+      <c r="K55" s="30"/>
+      <c r="L55" s="30"/>
+      <c r="M55" s="31"/>
+      <c r="N55" s="16"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56" s="20"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="29"/>
+      <c r="I56" s="30"/>
+      <c r="J56" s="30"/>
+      <c r="K56" s="30"/>
+      <c r="L56" s="30"/>
+      <c r="M56" s="31"/>
+      <c r="N56" s="16"/>
+    </row>
+    <row r="57" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="23"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="33"/>
+      <c r="J57" s="33"/>
+      <c r="K57" s="33"/>
+      <c r="L57" s="33"/>
+      <c r="M57" s="34"/>
+      <c r="N57" s="16"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58" s="16"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="16"/>
+      <c r="M58" s="16"/>
+      <c r="N58" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="H35:M35"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="K33:M33"/>
     <mergeCell ref="A54:G57"/>
     <mergeCell ref="H54:M57"/>
     <mergeCell ref="H44:I44"/>
@@ -3718,98 +3384,76 @@
     <mergeCell ref="H46:M49"/>
     <mergeCell ref="A50:G53"/>
     <mergeCell ref="H50:M53"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D24:F24"/>
   </mergeCells>
   <conditionalFormatting sqref="D12:F12">
-    <cfRule type="cellIs" dxfId="34" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="greaterThan">
       <formula>3.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="lessThan">
       <formula>3.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:F24">
-    <cfRule type="cellIs" dxfId="32" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="17" operator="greaterThan">
       <formula>3.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="18" operator="lessThan">
       <formula>3.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:F34">
-    <cfRule type="cellIs" dxfId="30" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="greaterThan">
       <formula>3.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="lessThan">
       <formula>3.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:F44">
-    <cfRule type="cellIs" dxfId="28" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="greaterThan">
       <formula>3.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="lessThan">
       <formula>3.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10:M10">
-    <cfRule type="cellIs" dxfId="26" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="greaterThan">
       <formula>3.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="lessThan">
       <formula>3.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22:M22">
-    <cfRule type="cellIs" dxfId="24" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="greaterThan">
       <formula>3.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="lessThan">
       <formula>3.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:M33">
-    <cfRule type="cellIs" dxfId="22" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="greaterThan">
       <formula>3.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="lessThan">
       <formula>3.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K44:M44">
-    <cfRule type="cellIs" dxfId="20" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
       <formula>3.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
       <formula>3.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46:M49">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>3.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>3.5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Alex-Stevens.xlsx
+++ b/Alex-Stevens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alex/Desktop/Stevens/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B9B721-CA3C-BB47-865D-7255C0030E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6BC056-25FC-B14D-864A-402D86E1054F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{E04E897A-1522-45CD-BA08-DB652B3D3E2A}"/>
   </bookViews>
@@ -863,60 +863,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="12" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="12" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="12" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="12" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="12" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="12" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="12" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="12" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -930,114 +876,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1048,6 +886,168 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="12" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="12" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="12" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="12" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="12" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="12" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="12" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="12" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1547,8 +1547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35A90BD-4739-4B1D-9A53-29DA0BA70D0C}">
   <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="84" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:F12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="84" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1558,23 +1558,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="78"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="24"/>
       <c r="G1" s="16"/>
-      <c r="H1" s="76" t="s">
+      <c r="H1" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="78"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="24"/>
       <c r="N1" s="16"/>
     </row>
     <row r="2" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -1931,20 +1931,20 @@
         <v>0.33374999999999999</v>
       </c>
       <c r="G10" s="16"/>
-      <c r="H10" s="35" t="s">
+      <c r="H10" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="36"/>
+      <c r="I10" s="18"/>
       <c r="J10" s="5">
         <f>SUM(J3:J9)</f>
         <v>19</v>
       </c>
-      <c r="K10" s="37">
+      <c r="K10" s="19">
         <f>(SUM(M3:M8))/(J10-1)</f>
         <v>3.9450000000000003</v>
       </c>
-      <c r="L10" s="38"/>
-      <c r="M10" s="39"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="21"/>
       <c r="N10" s="16"/>
     </row>
     <row r="11" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -1977,28 +1977,28 @@
       <c r="N11" s="16"/>
     </row>
     <row r="12" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="36"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="5">
         <v>17</v>
       </c>
-      <c r="D12" s="37">
+      <c r="D12" s="19">
         <f>F3+F4+F6+F7+F8+F9+F10+F11</f>
         <v>3.2918750000000006</v>
       </c>
-      <c r="E12" s="38"/>
-      <c r="F12" s="39"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="21"/>
       <c r="G12" s="16"/>
-      <c r="H12" s="76" t="s">
+      <c r="H12" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="I12" s="77"/>
-      <c r="J12" s="77"/>
-      <c r="K12" s="77"/>
-      <c r="L12" s="77"/>
-      <c r="M12" s="78"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="24"/>
       <c r="N12" s="16"/>
     </row>
     <row r="13" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -2030,14 +2030,14 @@
       <c r="N13" s="16"/>
     </row>
     <row r="14" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="76" t="s">
+      <c r="A14" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="77"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="78"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="24"/>
       <c r="G14" s="16"/>
       <c r="H14" s="6" t="s">
         <v>90</v>
@@ -2093,11 +2093,11 @@
         <v>92</v>
       </c>
       <c r="L15" s="2">
-        <v>3.33</v>
+        <v>3</v>
       </c>
       <c r="M15" s="7">
         <f t="shared" ref="M15:M19" si="2">L15*J15</f>
-        <v>9.99</v>
+        <v>9</v>
       </c>
       <c r="N15" s="16"/>
     </row>
@@ -2177,11 +2177,11 @@
         <v>92</v>
       </c>
       <c r="L17" s="2">
-        <v>3.33</v>
+        <v>3</v>
       </c>
       <c r="M17" s="7">
         <f t="shared" si="2"/>
-        <v>13.32</v>
+        <v>12</v>
       </c>
       <c r="N17" s="16"/>
     </row>
@@ -2219,11 +2219,11 @@
         <v>92</v>
       </c>
       <c r="L18" s="2">
-        <v>3.67</v>
+        <v>4</v>
       </c>
       <c r="M18" s="7">
         <f t="shared" si="2"/>
-        <v>11.01</v>
+        <v>12</v>
       </c>
       <c r="N18" s="16"/>
     </row>
@@ -2303,10 +2303,11 @@
         <v>92</v>
       </c>
       <c r="L20" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M20" s="7">
-        <v>0</v>
+        <f>J20*L20</f>
+        <v>4</v>
       </c>
       <c r="N20" s="16"/>
     </row>
@@ -2372,20 +2373,20 @@
         <v>11.01</v>
       </c>
       <c r="G22" s="16"/>
-      <c r="H22" s="35" t="s">
+      <c r="H22" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="I22" s="36"/>
+      <c r="I22" s="18"/>
       <c r="J22" s="5">
         <f>SUM(J14:J21)</f>
         <v>20</v>
       </c>
-      <c r="K22" s="37">
-        <f>(SUM(M14:M19))/(J22-2)</f>
-        <v>3.684444444444444</v>
-      </c>
-      <c r="L22" s="38"/>
-      <c r="M22" s="39"/>
+      <c r="K22" s="19">
+        <f>(SUM(M14:M20))/(J22-2)</f>
+        <v>3.8333333333333335</v>
+      </c>
+      <c r="L22" s="20"/>
+      <c r="M22" s="21"/>
       <c r="N22" s="16"/>
     </row>
     <row r="23" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -2418,29 +2419,29 @@
       <c r="N23" s="16"/>
     </row>
     <row r="24" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="36"/>
+      <c r="B24" s="18"/>
       <c r="C24" s="5">
         <f>SUM(C16:C23)</f>
         <v>18</v>
       </c>
-      <c r="D24" s="37">
+      <c r="D24" s="19">
         <f>(SUM(F16:F23))/C24</f>
         <v>3.6483333333333325</v>
       </c>
-      <c r="E24" s="38"/>
-      <c r="F24" s="39"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="21"/>
       <c r="G24" s="16"/>
-      <c r="H24" s="76" t="s">
+      <c r="H24" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="I24" s="77"/>
-      <c r="J24" s="77"/>
-      <c r="K24" s="77"/>
-      <c r="L24" s="77"/>
-      <c r="M24" s="78"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="24"/>
       <c r="N24" s="16"/>
     </row>
     <row r="25" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -2472,14 +2473,14 @@
       <c r="N25" s="16"/>
     </row>
     <row r="26" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="76" t="s">
+      <c r="A26" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="77"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="78"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="24"/>
       <c r="G26" s="16"/>
       <c r="H26" s="6" t="s">
         <v>108</v>
@@ -2707,7 +2708,7 @@
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>23</v>
@@ -2741,37 +2742,37 @@
         <v>12</v>
       </c>
       <c r="G33" s="16"/>
-      <c r="H33" s="35" t="s">
+      <c r="H33" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="I33" s="36"/>
+      <c r="I33" s="18"/>
       <c r="J33" s="5">
         <f>SUM(J26:J32)</f>
-        <v>17</v>
-      </c>
-      <c r="K33" s="37">
+        <v>16</v>
+      </c>
+      <c r="K33" s="19">
         <f>(SUM(M26:M31))/(J33-1)</f>
         <v>0</v>
       </c>
-      <c r="L33" s="38"/>
-      <c r="M33" s="39"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="21"/>
       <c r="N33" s="16"/>
     </row>
     <row r="34" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="35" t="s">
+      <c r="A34" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="36"/>
+      <c r="B34" s="18"/>
       <c r="C34" s="5">
         <f>SUM(C28:C33)</f>
         <v>19</v>
       </c>
-      <c r="D34" s="37">
+      <c r="D34" s="19">
         <f>(SUM(F28:F33))/C34</f>
         <v>3.7894736842105261</v>
       </c>
-      <c r="E34" s="38"/>
-      <c r="F34" s="39"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="21"/>
       <c r="G34" s="16"/>
       <c r="N34" s="16"/>
     </row>
@@ -2783,25 +2784,25 @@
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
-      <c r="H35" s="76" t="s">
+      <c r="H35" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="I35" s="77"/>
-      <c r="J35" s="77"/>
-      <c r="K35" s="77"/>
-      <c r="L35" s="77"/>
-      <c r="M35" s="78"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="24"/>
       <c r="N35" s="16"/>
     </row>
     <row r="36" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="76" t="s">
+      <c r="A36" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="B36" s="77"/>
-      <c r="C36" s="77"/>
-      <c r="D36" s="77"/>
-      <c r="E36" s="77"/>
-      <c r="F36" s="78"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="24"/>
       <c r="G36" s="16"/>
       <c r="H36" s="1" t="s">
         <v>13</v>
@@ -3068,7 +3069,7 @@
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>23</v>
@@ -3082,35 +3083,35 @@
       <c r="N43" s="16"/>
     </row>
     <row r="44" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="35" t="s">
+      <c r="A44" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="36"/>
+      <c r="B44" s="18"/>
       <c r="C44" s="5">
         <f>SUM(C38:C43)</f>
         <v>19</v>
       </c>
-      <c r="D44" s="37">
+      <c r="D44" s="19">
         <f>(SUM(F38:F43))/C44</f>
         <v>3.7363157894736845</v>
       </c>
-      <c r="E44" s="38"/>
-      <c r="F44" s="39"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="21"/>
       <c r="G44" s="16"/>
-      <c r="H44" s="35" t="s">
+      <c r="H44" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="I44" s="36"/>
+      <c r="I44" s="18"/>
       <c r="J44" s="5">
         <f>SUM(J37:J43)</f>
-        <v>17</v>
-      </c>
-      <c r="K44" s="37">
+        <v>16</v>
+      </c>
+      <c r="K44" s="19">
         <f>(SUM(M37:M42))/(J44-1)</f>
         <v>0</v>
       </c>
-      <c r="L44" s="38"/>
-      <c r="M44" s="39"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="21"/>
       <c r="N44" s="16"/>
     </row>
     <row r="45" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -3130,210 +3131,210 @@
       <c r="N45" s="16"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="40" t="s">
+      <c r="A46" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="B46" s="41"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="49">
+      <c r="B46" s="44"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="52">
         <f>(((D12*C12)+(D24*C24)+(D34*C34)+(D44*C44)+(K10*J10)+(K22*J22))/(SUM(C12,C24,C34,C44,J10,J22)))+0.002</f>
-        <v>3.6918728918650787</v>
-      </c>
-      <c r="I46" s="50"/>
-      <c r="J46" s="50"/>
-      <c r="K46" s="50"/>
-      <c r="L46" s="50"/>
-      <c r="M46" s="51"/>
+        <v>3.7184601934523807</v>
+      </c>
+      <c r="I46" s="53"/>
+      <c r="J46" s="53"/>
+      <c r="K46" s="53"/>
+      <c r="L46" s="53"/>
+      <c r="M46" s="54"/>
       <c r="N46" s="16"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="43"/>
-      <c r="B47" s="44"/>
-      <c r="C47" s="44"/>
-      <c r="D47" s="44"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="45"/>
-      <c r="H47" s="52"/>
-      <c r="I47" s="53"/>
-      <c r="J47" s="53"/>
-      <c r="K47" s="53"/>
-      <c r="L47" s="53"/>
-      <c r="M47" s="54"/>
+      <c r="A47" s="46"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="56"/>
+      <c r="J47" s="56"/>
+      <c r="K47" s="56"/>
+      <c r="L47" s="56"/>
+      <c r="M47" s="57"/>
       <c r="N47" s="16"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="43"/>
-      <c r="B48" s="44"/>
-      <c r="C48" s="44"/>
-      <c r="D48" s="44"/>
-      <c r="E48" s="44"/>
-      <c r="F48" s="44"/>
-      <c r="G48" s="45"/>
-      <c r="H48" s="52"/>
-      <c r="I48" s="53"/>
-      <c r="J48" s="53"/>
-      <c r="K48" s="53"/>
-      <c r="L48" s="53"/>
-      <c r="M48" s="54"/>
+      <c r="A48" s="46"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="56"/>
+      <c r="J48" s="56"/>
+      <c r="K48" s="56"/>
+      <c r="L48" s="56"/>
+      <c r="M48" s="57"/>
       <c r="N48" s="16"/>
     </row>
     <row r="49" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="46"/>
-      <c r="B49" s="47"/>
-      <c r="C49" s="47"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="47"/>
-      <c r="G49" s="48"/>
-      <c r="H49" s="55"/>
-      <c r="I49" s="56"/>
-      <c r="J49" s="56"/>
-      <c r="K49" s="56"/>
-      <c r="L49" s="56"/>
-      <c r="M49" s="57"/>
+      <c r="A49" s="49"/>
+      <c r="B49" s="50"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="51"/>
+      <c r="H49" s="58"/>
+      <c r="I49" s="59"/>
+      <c r="J49" s="59"/>
+      <c r="K49" s="59"/>
+      <c r="L49" s="59"/>
+      <c r="M49" s="60"/>
       <c r="N49" s="16"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" s="58" t="s">
+      <c r="A50" s="61" t="s">
         <v>123</v>
       </c>
-      <c r="B50" s="59"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="59"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="59"/>
-      <c r="G50" s="60"/>
-      <c r="H50" s="67">
+      <c r="B50" s="62"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="62"/>
+      <c r="E50" s="62"/>
+      <c r="F50" s="62"/>
+      <c r="G50" s="63"/>
+      <c r="H50" s="70">
         <f>SUM(C12,C24,C34,C44,J10,J22)</f>
         <v>112</v>
       </c>
-      <c r="I50" s="68"/>
-      <c r="J50" s="68"/>
-      <c r="K50" s="68"/>
-      <c r="L50" s="68"/>
-      <c r="M50" s="69"/>
+      <c r="I50" s="71"/>
+      <c r="J50" s="71"/>
+      <c r="K50" s="71"/>
+      <c r="L50" s="71"/>
+      <c r="M50" s="72"/>
       <c r="N50" s="16"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51" s="61"/>
-      <c r="B51" s="62"/>
-      <c r="C51" s="62"/>
-      <c r="D51" s="62"/>
-      <c r="E51" s="62"/>
-      <c r="F51" s="62"/>
-      <c r="G51" s="63"/>
-      <c r="H51" s="70"/>
-      <c r="I51" s="71"/>
-      <c r="J51" s="71"/>
-      <c r="K51" s="71"/>
-      <c r="L51" s="71"/>
-      <c r="M51" s="72"/>
+      <c r="A51" s="64"/>
+      <c r="B51" s="65"/>
+      <c r="C51" s="65"/>
+      <c r="D51" s="65"/>
+      <c r="E51" s="65"/>
+      <c r="F51" s="65"/>
+      <c r="G51" s="66"/>
+      <c r="H51" s="73"/>
+      <c r="I51" s="74"/>
+      <c r="J51" s="74"/>
+      <c r="K51" s="74"/>
+      <c r="L51" s="74"/>
+      <c r="M51" s="75"/>
       <c r="N51" s="16"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="61"/>
-      <c r="B52" s="62"/>
-      <c r="C52" s="62"/>
-      <c r="D52" s="62"/>
-      <c r="E52" s="62"/>
-      <c r="F52" s="62"/>
-      <c r="G52" s="63"/>
-      <c r="H52" s="70"/>
-      <c r="I52" s="71"/>
-      <c r="J52" s="71"/>
-      <c r="K52" s="71"/>
-      <c r="L52" s="71"/>
-      <c r="M52" s="72"/>
+      <c r="A52" s="64"/>
+      <c r="B52" s="65"/>
+      <c r="C52" s="65"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="65"/>
+      <c r="F52" s="65"/>
+      <c r="G52" s="66"/>
+      <c r="H52" s="73"/>
+      <c r="I52" s="74"/>
+      <c r="J52" s="74"/>
+      <c r="K52" s="74"/>
+      <c r="L52" s="74"/>
+      <c r="M52" s="75"/>
       <c r="N52" s="16"/>
     </row>
     <row r="53" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="64"/>
-      <c r="B53" s="65"/>
-      <c r="C53" s="65"/>
-      <c r="D53" s="65"/>
-      <c r="E53" s="65"/>
-      <c r="F53" s="65"/>
-      <c r="G53" s="66"/>
-      <c r="H53" s="73"/>
-      <c r="I53" s="74"/>
-      <c r="J53" s="74"/>
-      <c r="K53" s="74"/>
-      <c r="L53" s="74"/>
-      <c r="M53" s="75"/>
+      <c r="A53" s="67"/>
+      <c r="B53" s="68"/>
+      <c r="C53" s="68"/>
+      <c r="D53" s="68"/>
+      <c r="E53" s="68"/>
+      <c r="F53" s="68"/>
+      <c r="G53" s="69"/>
+      <c r="H53" s="76"/>
+      <c r="I53" s="77"/>
+      <c r="J53" s="77"/>
+      <c r="K53" s="77"/>
+      <c r="L53" s="77"/>
+      <c r="M53" s="78"/>
       <c r="N53" s="16"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54" s="17" t="s">
+      <c r="A54" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="26">
+      <c r="B54" s="26"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="34">
         <f>H50/(SUM(C12,C24,C34,C44,J10,J22,J33,J44))</f>
-        <v>0.76712328767123283</v>
-      </c>
-      <c r="I54" s="27"/>
-      <c r="J54" s="27"/>
-      <c r="K54" s="27"/>
-      <c r="L54" s="27"/>
-      <c r="M54" s="28"/>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="I54" s="35"/>
+      <c r="J54" s="35"/>
+      <c r="K54" s="35"/>
+      <c r="L54" s="35"/>
+      <c r="M54" s="36"/>
       <c r="N54" s="16"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A55" s="20"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="29"/>
-      <c r="I55" s="30"/>
-      <c r="J55" s="30"/>
-      <c r="K55" s="30"/>
-      <c r="L55" s="30"/>
-      <c r="M55" s="31"/>
+      <c r="A55" s="28"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="37"/>
+      <c r="I55" s="38"/>
+      <c r="J55" s="38"/>
+      <c r="K55" s="38"/>
+      <c r="L55" s="38"/>
+      <c r="M55" s="39"/>
       <c r="N55" s="16"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A56" s="20"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="29"/>
-      <c r="I56" s="30"/>
-      <c r="J56" s="30"/>
-      <c r="K56" s="30"/>
-      <c r="L56" s="30"/>
-      <c r="M56" s="31"/>
+      <c r="A56" s="28"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="38"/>
+      <c r="J56" s="38"/>
+      <c r="K56" s="38"/>
+      <c r="L56" s="38"/>
+      <c r="M56" s="39"/>
       <c r="N56" s="16"/>
     </row>
     <row r="57" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="23"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="32"/>
-      <c r="I57" s="33"/>
-      <c r="J57" s="33"/>
-      <c r="K57" s="33"/>
-      <c r="L57" s="33"/>
-      <c r="M57" s="34"/>
+      <c r="A57" s="31"/>
+      <c r="B57" s="32"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="40"/>
+      <c r="I57" s="41"/>
+      <c r="J57" s="41"/>
+      <c r="K57" s="41"/>
+      <c r="L57" s="41"/>
+      <c r="M57" s="42"/>
       <c r="N57" s="16"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
@@ -3354,18 +3355,14 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="A54:G57"/>
+    <mergeCell ref="H54:M57"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="A46:G49"/>
+    <mergeCell ref="H46:M49"/>
+    <mergeCell ref="A50:G53"/>
+    <mergeCell ref="H50:M53"/>
     <mergeCell ref="H35:M35"/>
     <mergeCell ref="H1:M1"/>
     <mergeCell ref="H10:I10"/>
@@ -3376,14 +3373,18 @@
     <mergeCell ref="H24:M24"/>
     <mergeCell ref="H33:I33"/>
     <mergeCell ref="K33:M33"/>
-    <mergeCell ref="A54:G57"/>
-    <mergeCell ref="H54:M57"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="A46:G49"/>
-    <mergeCell ref="H46:M49"/>
-    <mergeCell ref="A50:G53"/>
-    <mergeCell ref="H50:M53"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D24:F24"/>
   </mergeCells>
   <conditionalFormatting sqref="D12:F12">
     <cfRule type="cellIs" dxfId="17" priority="19" operator="greaterThan">

--- a/Alex-Stevens.xlsx
+++ b/Alex-Stevens.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alex/Desktop/Stevens/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6BC056-25FC-B14D-864A-402D86E1054F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADF2556-689B-5644-A971-B0B44089EEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{E04E897A-1522-45CD-BA08-DB652B3D3E2A}"/>
+    <workbookView xWindow="12000" yWindow="500" windowWidth="16800" windowHeight="16440" xr2:uid="{E04E897A-1522-45CD-BA08-DB652B3D3E2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Alex" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="139">
   <si>
     <t>General Chemistry I</t>
   </si>
@@ -379,12 +379,6 @@
     <t>IDE-401</t>
   </si>
   <si>
-    <t>HUMANIES</t>
-  </si>
-  <si>
-    <t>TECHNICAL ELECTIVE</t>
-  </si>
-  <si>
     <t>PE</t>
   </si>
   <si>
@@ -410,6 +404,54 @@
   </si>
   <si>
     <t>Percent Completion</t>
+  </si>
+  <si>
+    <t>Music History 1</t>
+  </si>
+  <si>
+    <t>HMU-101</t>
+  </si>
+  <si>
+    <t>Introduction to Control Theory</t>
+  </si>
+  <si>
+    <t>Engineering Programming: C++</t>
+  </si>
+  <si>
+    <t>EE-575</t>
+  </si>
+  <si>
+    <t>EE-553</t>
+  </si>
+  <si>
+    <t>Golf</t>
+  </si>
+  <si>
+    <t>PE-199</t>
+  </si>
+  <si>
+    <t>Introduction to Autonomous Robots</t>
+  </si>
+  <si>
+    <t>EE-359</t>
+  </si>
+  <si>
+    <t>International Experience</t>
+  </si>
+  <si>
+    <t>SA-425</t>
+  </si>
+  <si>
+    <t>Music Appreciation I</t>
+  </si>
+  <si>
+    <t>HMU-192</t>
+  </si>
+  <si>
+    <t>CPE-521</t>
+  </si>
+  <si>
+    <t>Electronic Circuits</t>
   </si>
 </sst>
 </file>
@@ -506,12 +548,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="3" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -546,6 +582,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="22">
     <border>
@@ -815,7 +857,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -853,16 +895,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -876,6 +963,114 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -887,166 +1082,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="12" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="12" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="12" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="12" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="12" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="12" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="12" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="12" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1547,8 +1586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35A90BD-4739-4B1D-9A53-29DA0BA70D0C}">
   <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="84" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1558,24 +1597,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="22" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="16"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="13"/>
     </row>
     <row r="2" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1596,7 +1635,7 @@
       <c r="F2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="16"/>
+      <c r="G2" s="13"/>
       <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1615,7 +1654,7 @@
       <c r="M2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="16"/>
+      <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
@@ -1637,7 +1676,7 @@
         <f>(E3/16)*C3</f>
         <v>0.50062499999999999</v>
       </c>
-      <c r="G3" s="16"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="6" t="s">
         <v>76</v>
       </c>
@@ -1657,7 +1696,7 @@
         <f>L3*J3</f>
         <v>16</v>
       </c>
-      <c r="N3" s="16"/>
+      <c r="N3" s="13"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
@@ -1679,7 +1718,7 @@
         <f t="shared" ref="F4:F11" si="0">(E4/16)*C4</f>
         <v>0.208125</v>
       </c>
-      <c r="G4" s="16"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="8" t="s">
         <v>78</v>
       </c>
@@ -1699,7 +1738,7 @@
         <f t="shared" ref="M4:M8" si="1">L4*J4</f>
         <v>12</v>
       </c>
-      <c r="N4" s="16"/>
+      <c r="N4" s="13"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
@@ -1721,7 +1760,7 @@
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="G5" s="16"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="8" t="s">
         <v>80</v>
       </c>
@@ -1741,7 +1780,7 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="N5" s="16"/>
+      <c r="N5" s="13"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
@@ -1763,7 +1802,7 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="G6" s="16"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="8" t="s">
         <v>82</v>
       </c>
@@ -1783,7 +1822,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="N6" s="16"/>
+      <c r="N6" s="13"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
@@ -1805,7 +1844,7 @@
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="G7" s="16"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="8" t="s">
         <v>84</v>
       </c>
@@ -1825,7 +1864,7 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="N7" s="16"/>
+      <c r="N7" s="13"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
@@ -1847,7 +1886,7 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="G8" s="16"/>
+      <c r="G8" s="13"/>
       <c r="H8" s="8" t="s">
         <v>85</v>
       </c>
@@ -1867,7 +1906,7 @@
         <f t="shared" si="1"/>
         <v>11.01</v>
       </c>
-      <c r="N8" s="16"/>
+      <c r="N8" s="13"/>
     </row>
     <row r="9" spans="1:14" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
@@ -1889,7 +1928,7 @@
         <f t="shared" si="0"/>
         <v>0.375</v>
       </c>
-      <c r="G9" s="16"/>
+      <c r="G9" s="13"/>
       <c r="H9" s="8" t="s">
         <v>86</v>
       </c>
@@ -1908,7 +1947,7 @@
       <c r="M9" s="7">
         <v>0</v>
       </c>
-      <c r="N9" s="16"/>
+      <c r="N9" s="13"/>
     </row>
     <row r="10" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
@@ -1930,22 +1969,22 @@
         <f t="shared" si="0"/>
         <v>0.33374999999999999</v>
       </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="17" t="s">
+      <c r="G10" s="13"/>
+      <c r="H10" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="18"/>
+      <c r="I10" s="33"/>
       <c r="J10" s="5">
         <f>SUM(J3:J9)</f>
         <v>19</v>
       </c>
-      <c r="K10" s="19">
+      <c r="K10" s="34">
         <f>(SUM(M3:M8))/(J10-1)</f>
         <v>3.9450000000000003</v>
       </c>
-      <c r="L10" s="20"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="16"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="13"/>
     </row>
     <row r="11" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
@@ -1967,48 +2006,48 @@
         <f t="shared" si="0"/>
         <v>0.62437500000000001</v>
       </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
     </row>
     <row r="12" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="18"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="5">
         <v>17</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="34">
         <f>F3+F4+F6+F7+F8+F9+F10+F11</f>
         <v>3.2918750000000006</v>
       </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="22" t="s">
+      <c r="E12" s="35"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="16"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="75"/>
+      <c r="N12" s="13"/>
     </row>
     <row r="13" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
       <c r="H13" s="1" t="s">
         <v>13</v>
       </c>
@@ -2027,18 +2066,18 @@
       <c r="M13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N13" s="16"/>
+      <c r="N13" s="13"/>
     </row>
     <row r="14" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="16"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="13"/>
       <c r="H14" s="6" t="s">
         <v>90</v>
       </c>
@@ -2058,7 +2097,7 @@
         <f>L14*J14</f>
         <v>8</v>
       </c>
-      <c r="N14" s="16"/>
+      <c r="N14" s="13"/>
     </row>
     <row r="15" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -2079,7 +2118,7 @@
       <c r="F15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="16"/>
+      <c r="G15" s="13"/>
       <c r="H15" s="8" t="s">
         <v>93</v>
       </c>
@@ -2093,13 +2132,13 @@
         <v>92</v>
       </c>
       <c r="L15" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M15" s="7">
         <f t="shared" ref="M15:M19" si="2">L15*J15</f>
-        <v>9</v>
-      </c>
-      <c r="N15" s="16"/>
+        <v>12</v>
+      </c>
+      <c r="N15" s="13"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
@@ -2121,7 +2160,7 @@
         <f>C16*E16</f>
         <v>9.99</v>
       </c>
-      <c r="G16" s="16"/>
+      <c r="G16" s="13"/>
       <c r="H16" s="8" t="s">
         <v>95</v>
       </c>
@@ -2141,7 +2180,7 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="N16" s="16"/>
+      <c r="N16" s="13"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
@@ -2163,7 +2202,7 @@
         <f t="shared" ref="F17:F23" si="3">C17*E17</f>
         <v>3.33</v>
       </c>
-      <c r="G17" s="16"/>
+      <c r="G17" s="13"/>
       <c r="H17" s="8" t="s">
         <v>97</v>
       </c>
@@ -2177,13 +2216,13 @@
         <v>92</v>
       </c>
       <c r="L17" s="2">
-        <v>3</v>
+        <v>3.33</v>
       </c>
       <c r="M17" s="7">
         <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="N17" s="16"/>
+        <v>13.32</v>
+      </c>
+      <c r="N17" s="13"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
@@ -2205,7 +2244,7 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="G18" s="16"/>
+      <c r="G18" s="13"/>
       <c r="H18" s="8" t="s">
         <v>99</v>
       </c>
@@ -2225,7 +2264,7 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="N18" s="16"/>
+      <c r="N18" s="13"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
@@ -2247,7 +2286,7 @@
         <f t="shared" si="3"/>
         <v>5.34</v>
       </c>
-      <c r="G19" s="16"/>
+      <c r="G19" s="13"/>
       <c r="H19" s="8" t="s">
         <v>101</v>
       </c>
@@ -2267,7 +2306,7 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="N19" s="16"/>
+      <c r="N19" s="13"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
@@ -2289,7 +2328,7 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="G20" s="16"/>
+      <c r="G20" s="13"/>
       <c r="H20" s="8" t="s">
         <v>103</v>
       </c>
@@ -2309,7 +2348,7 @@
         <f>J20*L20</f>
         <v>4</v>
       </c>
-      <c r="N20" s="16"/>
+      <c r="N20" s="13"/>
     </row>
     <row r="21" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
@@ -2331,7 +2370,7 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="G21" s="16"/>
+      <c r="G21" s="13"/>
       <c r="H21" s="8" t="s">
         <v>105</v>
       </c>
@@ -2350,7 +2389,7 @@
       <c r="M21" s="7">
         <v>0</v>
       </c>
-      <c r="N21" s="16"/>
+      <c r="N21" s="13"/>
     </row>
     <row r="22" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
@@ -2372,22 +2411,22 @@
         <f t="shared" si="3"/>
         <v>11.01</v>
       </c>
-      <c r="G22" s="16"/>
-      <c r="H22" s="17" t="s">
+      <c r="G22" s="13"/>
+      <c r="H22" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="I22" s="18"/>
+      <c r="I22" s="33"/>
       <c r="J22" s="5">
         <f>SUM(J14:J21)</f>
         <v>20</v>
       </c>
-      <c r="K22" s="19">
-        <f>(SUM(M14:M20))/(J22-2)</f>
-        <v>3.8333333333333335</v>
-      </c>
-      <c r="L22" s="20"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="16"/>
+      <c r="K22" s="34">
+        <f>(SUM(M14:M20))/(J22-1)</f>
+        <v>3.8589473684210525</v>
+      </c>
+      <c r="L22" s="35"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="13"/>
     </row>
     <row r="23" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
@@ -2409,49 +2448,49 @@
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="G23" s="16"/>
+      <c r="G23" s="13"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
-      <c r="N23" s="16"/>
+      <c r="N23" s="13"/>
     </row>
     <row r="24" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="18"/>
+      <c r="B24" s="33"/>
       <c r="C24" s="5">
         <f>SUM(C16:C23)</f>
         <v>18</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="34">
         <f>(SUM(F16:F23))/C24</f>
         <v>3.6483333333333325</v>
       </c>
-      <c r="E24" s="20"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="16"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="73" t="s">
+        <v>115</v>
+      </c>
+      <c r="I24" s="74"/>
+      <c r="J24" s="74"/>
+      <c r="K24" s="74"/>
+      <c r="L24" s="74"/>
+      <c r="M24" s="75"/>
+      <c r="N24" s="13"/>
     </row>
     <row r="25" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
       <c r="H25" s="1" t="s">
         <v>13</v>
       </c>
@@ -2470,18 +2509,18 @@
       <c r="M25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N25" s="16"/>
+      <c r="N25" s="13"/>
     </row>
     <row r="26" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="16"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="13"/>
       <c r="H26" s="6" t="s">
         <v>108</v>
       </c>
@@ -2497,7 +2536,7 @@
         <f>L26*J26</f>
         <v>0</v>
       </c>
-      <c r="N26" s="16"/>
+      <c r="N26" s="13"/>
     </row>
     <row r="27" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -2518,7 +2557,7 @@
       <c r="F27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G27" s="16"/>
+      <c r="G27" s="13"/>
       <c r="H27" s="8" t="s">
         <v>110</v>
       </c>
@@ -2534,7 +2573,7 @@
         <f t="shared" ref="M27:M31" si="4">L27*J27</f>
         <v>0</v>
       </c>
-      <c r="N27" s="16"/>
+      <c r="N27" s="13"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
@@ -2556,7 +2595,7 @@
         <f>C28*E28</f>
         <v>14.68</v>
       </c>
-      <c r="G28" s="16"/>
+      <c r="G28" s="13"/>
       <c r="H28" s="8" t="s">
         <v>112</v>
       </c>
@@ -2572,7 +2611,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N28" s="16"/>
+      <c r="N28" s="13"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
@@ -2594,21 +2633,23 @@
         <f t="shared" ref="F29:F33" si="5">C29*E29</f>
         <v>8</v>
       </c>
-      <c r="G29" s="16"/>
-      <c r="H29" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14">
+      <c r="G29" s="13"/>
+      <c r="H29" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I29" s="76" t="s">
+        <v>124</v>
+      </c>
+      <c r="J29" s="76">
         <v>3</v>
       </c>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="15">
+      <c r="K29" s="76"/>
+      <c r="L29" s="76"/>
+      <c r="M29" s="77">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N29" s="16"/>
+      <c r="N29" s="13"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
@@ -2630,21 +2671,23 @@
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="G30" s="16"/>
-      <c r="H30" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14">
+      <c r="G30" s="13"/>
+      <c r="H30" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="I30" s="76" t="s">
+        <v>127</v>
+      </c>
+      <c r="J30" s="76">
         <v>3</v>
       </c>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="15">
+      <c r="K30" s="76"/>
+      <c r="L30" s="76"/>
+      <c r="M30" s="77">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N30" s="16"/>
+      <c r="N30" s="13"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
@@ -2666,21 +2709,23 @@
         <f t="shared" si="5"/>
         <v>13.32</v>
       </c>
-      <c r="G31" s="16"/>
-      <c r="H31" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14">
+      <c r="G31" s="13"/>
+      <c r="H31" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="I31" s="76" t="s">
+        <v>128</v>
+      </c>
+      <c r="J31" s="76">
         <v>3</v>
       </c>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="15">
+      <c r="K31" s="76"/>
+      <c r="L31" s="76"/>
+      <c r="M31" s="77">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N31" s="16"/>
+      <c r="N31" s="13"/>
     </row>
     <row r="32" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
@@ -2702,11 +2747,13 @@
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="G32" s="16"/>
+      <c r="G32" s="13"/>
       <c r="H32" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="I32" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="J32" s="2">
         <v>0</v>
       </c>
@@ -2719,7 +2766,7 @@
       <c r="M32" s="7">
         <v>0</v>
       </c>
-      <c r="N32" s="16"/>
+      <c r="N32" s="13"/>
     </row>
     <row r="33" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
@@ -2741,69 +2788,69 @@
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="G33" s="16"/>
-      <c r="H33" s="17" t="s">
+      <c r="G33" s="13"/>
+      <c r="H33" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="I33" s="18"/>
+      <c r="I33" s="33"/>
       <c r="J33" s="5">
         <f>SUM(J26:J32)</f>
         <v>16</v>
       </c>
-      <c r="K33" s="19">
+      <c r="K33" s="34">
         <f>(SUM(M26:M31))/(J33-1)</f>
         <v>0</v>
       </c>
-      <c r="L33" s="20"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="16"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="13"/>
     </row>
     <row r="34" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="18"/>
+      <c r="B34" s="33"/>
       <c r="C34" s="5">
         <f>SUM(C28:C33)</f>
         <v>19</v>
       </c>
-      <c r="D34" s="19">
+      <c r="D34" s="34">
         <f>(SUM(F28:F33))/C34</f>
         <v>3.7894736842105261</v>
       </c>
-      <c r="E34" s="20"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="16"/>
-      <c r="N34" s="16"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="13"/>
+      <c r="N34" s="13"/>
     </row>
     <row r="35" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="16"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="73" t="s">
+        <v>115</v>
+      </c>
+      <c r="I35" s="74"/>
+      <c r="J35" s="74"/>
+      <c r="K35" s="74"/>
+      <c r="L35" s="74"/>
+      <c r="M35" s="75"/>
+      <c r="N35" s="13"/>
     </row>
     <row r="36" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="16"/>
+      <c r="B36" s="74"/>
+      <c r="C36" s="74"/>
+      <c r="D36" s="74"/>
+      <c r="E36" s="74"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="13"/>
       <c r="H36" s="1" t="s">
         <v>13</v>
       </c>
@@ -2822,7 +2869,7 @@
       <c r="M36" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N36" s="16"/>
+      <c r="N36" s="13"/>
     </row>
     <row r="37" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
@@ -2843,12 +2890,12 @@
       <c r="F37" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G37" s="16"/>
+      <c r="G37" s="13"/>
       <c r="H37" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J37" s="3">
         <v>3</v>
@@ -2859,7 +2906,7 @@
         <f>L37*J37</f>
         <v>0</v>
       </c>
-      <c r="N37" s="16"/>
+      <c r="N37" s="13"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
@@ -2881,21 +2928,23 @@
         <f>C38*E38</f>
         <v>12</v>
       </c>
-      <c r="G38" s="16"/>
-      <c r="H38" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14">
+      <c r="G38" s="13"/>
+      <c r="H38" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="I38" s="76" t="s">
+        <v>137</v>
+      </c>
+      <c r="J38" s="76">
         <v>3</v>
       </c>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="15">
+      <c r="K38" s="76"/>
+      <c r="L38" s="76"/>
+      <c r="M38" s="77">
         <f t="shared" ref="M38:M42" si="6">L38*J38</f>
         <v>0</v>
       </c>
-      <c r="N38" s="16"/>
+      <c r="N38" s="13"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
@@ -2917,21 +2966,23 @@
         <f t="shared" ref="F39:F43" si="7">C39*E39</f>
         <v>16</v>
       </c>
-      <c r="G39" s="16"/>
-      <c r="H39" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14">
+      <c r="G39" s="13"/>
+      <c r="H39" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I39" s="76" t="s">
+        <v>132</v>
+      </c>
+      <c r="J39" s="76">
         <v>3</v>
       </c>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="15">
+      <c r="K39" s="76"/>
+      <c r="L39" s="76"/>
+      <c r="M39" s="77">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N39" s="16"/>
+      <c r="N39" s="13"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
@@ -2953,21 +3004,27 @@
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="G40" s="16"/>
-      <c r="H40" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14">
+      <c r="G40" s="13"/>
+      <c r="H40" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="I40" s="76" t="s">
+        <v>134</v>
+      </c>
+      <c r="J40" s="76">
         <v>3</v>
       </c>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="15">
+      <c r="K40" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="L40" s="76">
+        <v>2</v>
+      </c>
+      <c r="M40" s="77">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N40" s="16"/>
+        <v>6</v>
+      </c>
+      <c r="N40" s="13"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
@@ -2989,21 +3046,23 @@
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="G41" s="16"/>
-      <c r="H41" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14">
+      <c r="G41" s="13"/>
+      <c r="H41" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="I41" s="76" t="s">
+        <v>136</v>
+      </c>
+      <c r="J41" s="76">
         <v>3</v>
       </c>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="15">
+      <c r="K41" s="76"/>
+      <c r="L41" s="76"/>
+      <c r="M41" s="77">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N41" s="16"/>
+      <c r="N41" s="13"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
@@ -3025,12 +3084,12 @@
         <f t="shared" si="7"/>
         <v>9.99</v>
       </c>
-      <c r="G42" s="16"/>
+      <c r="G42" s="13"/>
       <c r="H42" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J42" s="2">
         <v>1</v>
@@ -3041,7 +3100,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N42" s="16"/>
+      <c r="N42" s="13"/>
     </row>
     <row r="43" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
@@ -3063,9 +3122,9 @@
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="G43" s="16"/>
+      <c r="G43" s="13"/>
       <c r="H43" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2">
@@ -3080,289 +3139,293 @@
       <c r="M43" s="7">
         <v>0</v>
       </c>
-      <c r="N43" s="16"/>
+      <c r="N43" s="13"/>
     </row>
     <row r="44" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="18"/>
+      <c r="B44" s="33"/>
       <c r="C44" s="5">
         <f>SUM(C38:C43)</f>
         <v>19</v>
       </c>
-      <c r="D44" s="19">
+      <c r="D44" s="34">
         <f>(SUM(F38:F43))/C44</f>
         <v>3.7363157894736845</v>
       </c>
-      <c r="E44" s="20"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="17" t="s">
+      <c r="E44" s="35"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="I44" s="18"/>
+      <c r="I44" s="33"/>
       <c r="J44" s="5">
         <f>SUM(J37:J43)</f>
         <v>16</v>
       </c>
-      <c r="K44" s="19">
+      <c r="K44" s="34">
         <f>(SUM(M37:M42))/(J44-1)</f>
-        <v>0</v>
-      </c>
-      <c r="L44" s="20"/>
-      <c r="M44" s="21"/>
-      <c r="N44" s="16"/>
+        <v>0.4</v>
+      </c>
+      <c r="L44" s="35"/>
+      <c r="M44" s="36"/>
+      <c r="N44" s="13"/>
     </row>
     <row r="45" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="16"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="16"/>
-      <c r="M45" s="16"/>
-      <c r="N45" s="16"/>
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="13"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="B46" s="44"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="44"/>
-      <c r="G46" s="45"/>
-      <c r="H46" s="52">
+      <c r="A46" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="B46" s="38"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="46">
         <f>(((D12*C12)+(D24*C24)+(D34*C34)+(D44*C44)+(K10*J10)+(K22*J22))/(SUM(C12,C24,C34,C44,J10,J22)))+0.002</f>
-        <v>3.7184601934523807</v>
-      </c>
-      <c r="I46" s="53"/>
-      <c r="J46" s="53"/>
-      <c r="K46" s="53"/>
-      <c r="L46" s="53"/>
-      <c r="M46" s="54"/>
-      <c r="N46" s="16"/>
+        <v>3.7230341282894734</v>
+      </c>
+      <c r="I46" s="47"/>
+      <c r="J46" s="47"/>
+      <c r="K46" s="47"/>
+      <c r="L46" s="47"/>
+      <c r="M46" s="48"/>
+      <c r="N46" s="13"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="46"/>
-      <c r="B47" s="47"/>
-      <c r="C47" s="47"/>
-      <c r="D47" s="47"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="48"/>
-      <c r="H47" s="55"/>
-      <c r="I47" s="56"/>
-      <c r="J47" s="56"/>
-      <c r="K47" s="56"/>
-      <c r="L47" s="56"/>
-      <c r="M47" s="57"/>
-      <c r="N47" s="16"/>
+      <c r="A47" s="40"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="49"/>
+      <c r="I47" s="50"/>
+      <c r="J47" s="50"/>
+      <c r="K47" s="50"/>
+      <c r="L47" s="50"/>
+      <c r="M47" s="51"/>
+      <c r="N47" s="13"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="46"/>
-      <c r="B48" s="47"/>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="55"/>
-      <c r="I48" s="56"/>
-      <c r="J48" s="56"/>
-      <c r="K48" s="56"/>
-      <c r="L48" s="56"/>
-      <c r="M48" s="57"/>
-      <c r="N48" s="16"/>
+      <c r="A48" s="40"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="49"/>
+      <c r="I48" s="50"/>
+      <c r="J48" s="50"/>
+      <c r="K48" s="50"/>
+      <c r="L48" s="50"/>
+      <c r="M48" s="51"/>
+      <c r="N48" s="13"/>
     </row>
     <row r="49" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="49"/>
-      <c r="B49" s="50"/>
-      <c r="C49" s="50"/>
-      <c r="D49" s="50"/>
-      <c r="E49" s="50"/>
-      <c r="F49" s="50"/>
-      <c r="G49" s="51"/>
-      <c r="H49" s="58"/>
-      <c r="I49" s="59"/>
-      <c r="J49" s="59"/>
-      <c r="K49" s="59"/>
-      <c r="L49" s="59"/>
-      <c r="M49" s="60"/>
-      <c r="N49" s="16"/>
+      <c r="A49" s="43"/>
+      <c r="B49" s="44"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="52"/>
+      <c r="I49" s="53"/>
+      <c r="J49" s="53"/>
+      <c r="K49" s="53"/>
+      <c r="L49" s="53"/>
+      <c r="M49" s="54"/>
+      <c r="N49" s="13"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" s="61" t="s">
-        <v>123</v>
-      </c>
-      <c r="B50" s="62"/>
-      <c r="C50" s="62"/>
-      <c r="D50" s="62"/>
-      <c r="E50" s="62"/>
-      <c r="F50" s="62"/>
-      <c r="G50" s="63"/>
-      <c r="H50" s="70">
+      <c r="A50" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50" s="56"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="56"/>
+      <c r="G50" s="57"/>
+      <c r="H50" s="64">
         <f>SUM(C12,C24,C34,C44,J10,J22)</f>
         <v>112</v>
       </c>
-      <c r="I50" s="71"/>
-      <c r="J50" s="71"/>
-      <c r="K50" s="71"/>
-      <c r="L50" s="71"/>
-      <c r="M50" s="72"/>
-      <c r="N50" s="16"/>
+      <c r="I50" s="65"/>
+      <c r="J50" s="65"/>
+      <c r="K50" s="65"/>
+      <c r="L50" s="65"/>
+      <c r="M50" s="66"/>
+      <c r="N50" s="13"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51" s="64"/>
-      <c r="B51" s="65"/>
-      <c r="C51" s="65"/>
-      <c r="D51" s="65"/>
-      <c r="E51" s="65"/>
-      <c r="F51" s="65"/>
-      <c r="G51" s="66"/>
-      <c r="H51" s="73"/>
-      <c r="I51" s="74"/>
-      <c r="J51" s="74"/>
-      <c r="K51" s="74"/>
-      <c r="L51" s="74"/>
-      <c r="M51" s="75"/>
-      <c r="N51" s="16"/>
+      <c r="A51" s="58"/>
+      <c r="B51" s="59"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="60"/>
+      <c r="H51" s="67"/>
+      <c r="I51" s="68"/>
+      <c r="J51" s="68"/>
+      <c r="K51" s="68"/>
+      <c r="L51" s="68"/>
+      <c r="M51" s="69"/>
+      <c r="N51" s="13"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="64"/>
-      <c r="B52" s="65"/>
-      <c r="C52" s="65"/>
-      <c r="D52" s="65"/>
-      <c r="E52" s="65"/>
-      <c r="F52" s="65"/>
-      <c r="G52" s="66"/>
-      <c r="H52" s="73"/>
-      <c r="I52" s="74"/>
-      <c r="J52" s="74"/>
-      <c r="K52" s="74"/>
-      <c r="L52" s="74"/>
-      <c r="M52" s="75"/>
-      <c r="N52" s="16"/>
+      <c r="A52" s="58"/>
+      <c r="B52" s="59"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="59"/>
+      <c r="F52" s="59"/>
+      <c r="G52" s="60"/>
+      <c r="H52" s="67"/>
+      <c r="I52" s="68"/>
+      <c r="J52" s="68"/>
+      <c r="K52" s="68"/>
+      <c r="L52" s="68"/>
+      <c r="M52" s="69"/>
+      <c r="N52" s="13"/>
     </row>
     <row r="53" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="67"/>
-      <c r="B53" s="68"/>
-      <c r="C53" s="68"/>
-      <c r="D53" s="68"/>
-      <c r="E53" s="68"/>
-      <c r="F53" s="68"/>
-      <c r="G53" s="69"/>
-      <c r="H53" s="76"/>
-      <c r="I53" s="77"/>
-      <c r="J53" s="77"/>
-      <c r="K53" s="77"/>
-      <c r="L53" s="77"/>
-      <c r="M53" s="78"/>
-      <c r="N53" s="16"/>
+      <c r="A53" s="61"/>
+      <c r="B53" s="62"/>
+      <c r="C53" s="62"/>
+      <c r="D53" s="62"/>
+      <c r="E53" s="62"/>
+      <c r="F53" s="62"/>
+      <c r="G53" s="63"/>
+      <c r="H53" s="70"/>
+      <c r="I53" s="71"/>
+      <c r="J53" s="71"/>
+      <c r="K53" s="71"/>
+      <c r="L53" s="71"/>
+      <c r="M53" s="72"/>
+      <c r="N53" s="13"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="34">
+      <c r="A54" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="23">
         <f>H50/(SUM(C12,C24,C34,C44,J10,J22,J33,J44))</f>
         <v>0.77777777777777779</v>
       </c>
-      <c r="I54" s="35"/>
-      <c r="J54" s="35"/>
-      <c r="K54" s="35"/>
-      <c r="L54" s="35"/>
-      <c r="M54" s="36"/>
-      <c r="N54" s="16"/>
+      <c r="I54" s="24"/>
+      <c r="J54" s="24"/>
+      <c r="K54" s="24"/>
+      <c r="L54" s="24"/>
+      <c r="M54" s="25"/>
+      <c r="N54" s="13"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A55" s="28"/>
-      <c r="B55" s="29"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="37"/>
-      <c r="I55" s="38"/>
-      <c r="J55" s="38"/>
-      <c r="K55" s="38"/>
-      <c r="L55" s="38"/>
-      <c r="M55" s="39"/>
-      <c r="N55" s="16"/>
+      <c r="A55" s="17"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="27"/>
+      <c r="K55" s="27"/>
+      <c r="L55" s="27"/>
+      <c r="M55" s="28"/>
+      <c r="N55" s="13"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A56" s="28"/>
-      <c r="B56" s="29"/>
-      <c r="C56" s="29"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="29"/>
-      <c r="G56" s="30"/>
-      <c r="H56" s="37"/>
-      <c r="I56" s="38"/>
-      <c r="J56" s="38"/>
-      <c r="K56" s="38"/>
-      <c r="L56" s="38"/>
-      <c r="M56" s="39"/>
-      <c r="N56" s="16"/>
+      <c r="A56" s="17"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="27"/>
+      <c r="K56" s="27"/>
+      <c r="L56" s="27"/>
+      <c r="M56" s="28"/>
+      <c r="N56" s="13"/>
     </row>
     <row r="57" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="31"/>
-      <c r="B57" s="32"/>
-      <c r="C57" s="32"/>
-      <c r="D57" s="32"/>
-      <c r="E57" s="32"/>
-      <c r="F57" s="32"/>
-      <c r="G57" s="33"/>
-      <c r="H57" s="40"/>
-      <c r="I57" s="41"/>
-      <c r="J57" s="41"/>
-      <c r="K57" s="41"/>
-      <c r="L57" s="41"/>
-      <c r="M57" s="42"/>
-      <c r="N57" s="16"/>
+      <c r="A57" s="20"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="29"/>
+      <c r="I57" s="30"/>
+      <c r="J57" s="30"/>
+      <c r="K57" s="30"/>
+      <c r="L57" s="30"/>
+      <c r="M57" s="31"/>
+      <c r="N57" s="13"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A58" s="16"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="16"/>
-      <c r="K58" s="16"/>
-      <c r="L58" s="16"/>
-      <c r="M58" s="16"/>
-      <c r="N58" s="16"/>
+      <c r="A58" s="13"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="13"/>
+      <c r="K58" s="13"/>
+      <c r="L58" s="13"/>
+      <c r="M58" s="13"/>
+      <c r="N58" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A54:G57"/>
-    <mergeCell ref="H54:M57"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="A46:G49"/>
-    <mergeCell ref="H46:M49"/>
-    <mergeCell ref="A50:G53"/>
-    <mergeCell ref="H50:M53"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="D44:F44"/>
     <mergeCell ref="H35:M35"/>
     <mergeCell ref="H1:M1"/>
     <mergeCell ref="H10:I10"/>
@@ -3373,18 +3436,14 @@
     <mergeCell ref="H24:M24"/>
     <mergeCell ref="H33:I33"/>
     <mergeCell ref="K33:M33"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="A54:G57"/>
+    <mergeCell ref="H54:M57"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="A46:G49"/>
+    <mergeCell ref="H46:M49"/>
+    <mergeCell ref="A50:G53"/>
+    <mergeCell ref="H50:M53"/>
   </mergeCells>
   <conditionalFormatting sqref="D12:F12">
     <cfRule type="cellIs" dxfId="17" priority="19" operator="greaterThan">

--- a/Alex-Stevens.xlsx
+++ b/Alex-Stevens.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alex/Desktop/Stevens/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADF2556-689B-5644-A971-B0B44089EEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A09B34-2BC7-5D4B-9756-35277B584816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12000" yWindow="500" windowWidth="16800" windowHeight="16440" xr2:uid="{E04E897A-1522-45CD-BA08-DB652B3D3E2A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{E04E897A-1522-45CD-BA08-DB652B3D3E2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Alex" sheetId="1" r:id="rId1"/>
@@ -896,58 +896,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="11" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="11" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="11" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="11" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="11" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="11" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="11" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="11" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -963,114 +915,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1082,10 +926,166 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1586,8 +1586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35A90BD-4739-4B1D-9A53-29DA0BA70D0C}">
   <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q41" sqref="Q41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1597,23 +1597,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="75"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="23"/>
       <c r="G1" s="13"/>
-      <c r="H1" s="73" t="s">
+      <c r="H1" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="75"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="23"/>
       <c r="N1" s="13"/>
     </row>
     <row r="2" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -1970,20 +1970,20 @@
         <v>0.33374999999999999</v>
       </c>
       <c r="G10" s="13"/>
-      <c r="H10" s="32" t="s">
+      <c r="H10" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="33"/>
+      <c r="I10" s="17"/>
       <c r="J10" s="5">
         <f>SUM(J3:J9)</f>
         <v>19</v>
       </c>
-      <c r="K10" s="34">
+      <c r="K10" s="18">
         <f>(SUM(M3:M8))/(J10-1)</f>
         <v>3.9450000000000003</v>
       </c>
-      <c r="L10" s="35"/>
-      <c r="M10" s="36"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="20"/>
       <c r="N10" s="13"/>
     </row>
     <row r="11" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -2016,28 +2016,28 @@
       <c r="N11" s="13"/>
     </row>
     <row r="12" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="33"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="5">
         <v>17</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="18">
         <f>F3+F4+F6+F7+F8+F9+F10+F11</f>
         <v>3.2918750000000006</v>
       </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="36"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="20"/>
       <c r="G12" s="13"/>
-      <c r="H12" s="73" t="s">
+      <c r="H12" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="74"/>
-      <c r="M12" s="75"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="23"/>
       <c r="N12" s="13"/>
     </row>
     <row r="13" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -2069,14 +2069,14 @@
       <c r="N13" s="13"/>
     </row>
     <row r="14" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="73" t="s">
+      <c r="A14" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="74"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="75"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="23"/>
       <c r="G14" s="13"/>
       <c r="H14" s="6" t="s">
         <v>90</v>
@@ -2216,11 +2216,11 @@
         <v>92</v>
       </c>
       <c r="L17" s="2">
-        <v>3.33</v>
+        <v>3.67</v>
       </c>
       <c r="M17" s="7">
         <f t="shared" si="2"/>
-        <v>13.32</v>
+        <v>14.68</v>
       </c>
       <c r="N17" s="13"/>
     </row>
@@ -2412,20 +2412,20 @@
         <v>11.01</v>
       </c>
       <c r="G22" s="13"/>
-      <c r="H22" s="32" t="s">
+      <c r="H22" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I22" s="33"/>
+      <c r="I22" s="17"/>
       <c r="J22" s="5">
         <f>SUM(J14:J21)</f>
         <v>20</v>
       </c>
-      <c r="K22" s="34">
+      <c r="K22" s="18">
         <f>(SUM(M14:M20))/(J22-1)</f>
-        <v>3.8589473684210525</v>
-      </c>
-      <c r="L22" s="35"/>
-      <c r="M22" s="36"/>
+        <v>3.9305263157894741</v>
+      </c>
+      <c r="L22" s="19"/>
+      <c r="M22" s="20"/>
       <c r="N22" s="13"/>
     </row>
     <row r="23" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -2458,29 +2458,29 @@
       <c r="N23" s="13"/>
     </row>
     <row r="24" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="33"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="5">
         <f>SUM(C16:C23)</f>
         <v>18</v>
       </c>
-      <c r="D24" s="34">
+      <c r="D24" s="18">
         <f>(SUM(F16:F23))/C24</f>
         <v>3.6483333333333325</v>
       </c>
-      <c r="E24" s="35"/>
-      <c r="F24" s="36"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="20"/>
       <c r="G24" s="13"/>
-      <c r="H24" s="73" t="s">
+      <c r="H24" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="I24" s="74"/>
-      <c r="J24" s="74"/>
-      <c r="K24" s="74"/>
-      <c r="L24" s="74"/>
-      <c r="M24" s="75"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="23"/>
       <c r="N24" s="13"/>
     </row>
     <row r="25" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -2512,14 +2512,14 @@
       <c r="N25" s="13"/>
     </row>
     <row r="26" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="73" t="s">
+      <c r="A26" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="74"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="75"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="23"/>
       <c r="G26" s="13"/>
       <c r="H26" s="6" t="s">
         <v>108</v>
@@ -2637,15 +2637,15 @@
       <c r="H29" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="I29" s="76" t="s">
+      <c r="I29" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="J29" s="76">
+      <c r="J29" s="14">
         <v>3</v>
       </c>
-      <c r="K29" s="76"/>
-      <c r="L29" s="76"/>
-      <c r="M29" s="77">
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -2675,15 +2675,15 @@
       <c r="H30" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="I30" s="76" t="s">
+      <c r="I30" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="J30" s="76">
+      <c r="J30" s="14">
         <v>3</v>
       </c>
-      <c r="K30" s="76"/>
-      <c r="L30" s="76"/>
-      <c r="M30" s="77">
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -2713,15 +2713,15 @@
       <c r="H31" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="I31" s="76" t="s">
+      <c r="I31" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="J31" s="76">
+      <c r="J31" s="14">
         <v>3</v>
       </c>
-      <c r="K31" s="76"/>
-      <c r="L31" s="76"/>
-      <c r="M31" s="77">
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -2789,37 +2789,37 @@
         <v>12</v>
       </c>
       <c r="G33" s="13"/>
-      <c r="H33" s="32" t="s">
+      <c r="H33" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I33" s="33"/>
+      <c r="I33" s="17"/>
       <c r="J33" s="5">
         <f>SUM(J26:J32)</f>
         <v>16</v>
       </c>
-      <c r="K33" s="34">
+      <c r="K33" s="18">
         <f>(SUM(M26:M31))/(J33-1)</f>
         <v>0</v>
       </c>
-      <c r="L33" s="35"/>
-      <c r="M33" s="36"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="20"/>
       <c r="N33" s="13"/>
     </row>
     <row r="34" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="32" t="s">
+      <c r="A34" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="33"/>
+      <c r="B34" s="17"/>
       <c r="C34" s="5">
         <f>SUM(C28:C33)</f>
         <v>19</v>
       </c>
-      <c r="D34" s="34">
+      <c r="D34" s="18">
         <f>(SUM(F28:F33))/C34</f>
         <v>3.7894736842105261</v>
       </c>
-      <c r="E34" s="35"/>
-      <c r="F34" s="36"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="20"/>
       <c r="G34" s="13"/>
       <c r="N34" s="13"/>
     </row>
@@ -2831,25 +2831,25 @@
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
-      <c r="H35" s="73" t="s">
+      <c r="H35" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="I35" s="74"/>
-      <c r="J35" s="74"/>
-      <c r="K35" s="74"/>
-      <c r="L35" s="74"/>
-      <c r="M35" s="75"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="23"/>
       <c r="N35" s="13"/>
     </row>
     <row r="36" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="73" t="s">
+      <c r="A36" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="B36" s="74"/>
-      <c r="C36" s="74"/>
-      <c r="D36" s="74"/>
-      <c r="E36" s="74"/>
-      <c r="F36" s="75"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="23"/>
       <c r="G36" s="13"/>
       <c r="H36" s="1" t="s">
         <v>13</v>
@@ -2932,15 +2932,15 @@
       <c r="H38" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="I38" s="76" t="s">
+      <c r="I38" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="J38" s="76">
+      <c r="J38" s="14">
         <v>3</v>
       </c>
-      <c r="K38" s="76"/>
-      <c r="L38" s="76"/>
-      <c r="M38" s="77">
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="15">
         <f t="shared" ref="M38:M42" si="6">L38*J38</f>
         <v>0</v>
       </c>
@@ -2970,15 +2970,15 @@
       <c r="H39" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="I39" s="76" t="s">
+      <c r="I39" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="J39" s="76">
+      <c r="J39" s="14">
         <v>3</v>
       </c>
-      <c r="K39" s="76"/>
-      <c r="L39" s="76"/>
-      <c r="M39" s="77">
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="15">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -3008,19 +3008,19 @@
       <c r="H40" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="I40" s="76" t="s">
+      <c r="I40" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="J40" s="76">
+      <c r="J40" s="14">
         <v>3</v>
       </c>
-      <c r="K40" s="76" t="s">
+      <c r="K40" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="L40" s="76">
+      <c r="L40" s="14">
         <v>2</v>
       </c>
-      <c r="M40" s="77">
+      <c r="M40" s="15">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
@@ -3050,15 +3050,15 @@
       <c r="H41" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="I41" s="76" t="s">
+      <c r="I41" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="J41" s="76">
+      <c r="J41" s="14">
         <v>3</v>
       </c>
-      <c r="K41" s="76"/>
-      <c r="L41" s="76"/>
-      <c r="M41" s="77">
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="15">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -3142,35 +3142,35 @@
       <c r="N43" s="13"/>
     </row>
     <row r="44" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="32" t="s">
+      <c r="A44" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="33"/>
+      <c r="B44" s="17"/>
       <c r="C44" s="5">
         <f>SUM(C38:C43)</f>
         <v>19</v>
       </c>
-      <c r="D44" s="34">
+      <c r="D44" s="18">
         <f>(SUM(F38:F43))/C44</f>
         <v>3.7363157894736845</v>
       </c>
-      <c r="E44" s="35"/>
-      <c r="F44" s="36"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="20"/>
       <c r="G44" s="13"/>
-      <c r="H44" s="32" t="s">
+      <c r="H44" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I44" s="33"/>
+      <c r="I44" s="17"/>
       <c r="J44" s="5">
         <f>SUM(J37:J43)</f>
         <v>16</v>
       </c>
-      <c r="K44" s="34">
+      <c r="K44" s="18">
         <f>(SUM(M37:M42))/(J44-1)</f>
         <v>0.4</v>
       </c>
-      <c r="L44" s="35"/>
-      <c r="M44" s="36"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="20"/>
       <c r="N44" s="13"/>
     </row>
     <row r="45" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -3190,210 +3190,210 @@
       <c r="N45" s="13"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="37" t="s">
+      <c r="A46" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="B46" s="38"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="38"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="38"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="46">
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="51">
         <f>(((D12*C12)+(D24*C24)+(D34*C34)+(D44*C44)+(K10*J10)+(K22*J22))/(SUM(C12,C24,C34,C44,J10,J22)))+0.002</f>
-        <v>3.7230341282894734</v>
-      </c>
-      <c r="I46" s="47"/>
-      <c r="J46" s="47"/>
-      <c r="K46" s="47"/>
-      <c r="L46" s="47"/>
-      <c r="M46" s="48"/>
+        <v>3.7358160831766911</v>
+      </c>
+      <c r="I46" s="52"/>
+      <c r="J46" s="52"/>
+      <c r="K46" s="52"/>
+      <c r="L46" s="52"/>
+      <c r="M46" s="53"/>
       <c r="N46" s="13"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="40"/>
-      <c r="B47" s="41"/>
-      <c r="C47" s="41"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="49"/>
-      <c r="I47" s="50"/>
-      <c r="J47" s="50"/>
-      <c r="K47" s="50"/>
-      <c r="L47" s="50"/>
-      <c r="M47" s="51"/>
+      <c r="A47" s="45"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="54"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="55"/>
+      <c r="K47" s="55"/>
+      <c r="L47" s="55"/>
+      <c r="M47" s="56"/>
       <c r="N47" s="13"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="40"/>
-      <c r="B48" s="41"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="42"/>
-      <c r="H48" s="49"/>
-      <c r="I48" s="50"/>
-      <c r="J48" s="50"/>
-      <c r="K48" s="50"/>
-      <c r="L48" s="50"/>
-      <c r="M48" s="51"/>
+      <c r="A48" s="45"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="54"/>
+      <c r="I48" s="55"/>
+      <c r="J48" s="55"/>
+      <c r="K48" s="55"/>
+      <c r="L48" s="55"/>
+      <c r="M48" s="56"/>
       <c r="N48" s="13"/>
     </row>
     <row r="49" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="43"/>
-      <c r="B49" s="44"/>
-      <c r="C49" s="44"/>
-      <c r="D49" s="44"/>
-      <c r="E49" s="44"/>
-      <c r="F49" s="44"/>
-      <c r="G49" s="45"/>
-      <c r="H49" s="52"/>
-      <c r="I49" s="53"/>
-      <c r="J49" s="53"/>
-      <c r="K49" s="53"/>
-      <c r="L49" s="53"/>
-      <c r="M49" s="54"/>
+      <c r="A49" s="48"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="57"/>
+      <c r="I49" s="58"/>
+      <c r="J49" s="58"/>
+      <c r="K49" s="58"/>
+      <c r="L49" s="58"/>
+      <c r="M49" s="59"/>
       <c r="N49" s="13"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" s="55" t="s">
+      <c r="A50" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="B50" s="56"/>
-      <c r="C50" s="56"/>
-      <c r="D50" s="56"/>
-      <c r="E50" s="56"/>
-      <c r="F50" s="56"/>
-      <c r="G50" s="57"/>
-      <c r="H50" s="64">
+      <c r="B50" s="61"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="61"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="62"/>
+      <c r="H50" s="69">
         <f>SUM(C12,C24,C34,C44,J10,J22)</f>
         <v>112</v>
       </c>
-      <c r="I50" s="65"/>
-      <c r="J50" s="65"/>
-      <c r="K50" s="65"/>
-      <c r="L50" s="65"/>
-      <c r="M50" s="66"/>
+      <c r="I50" s="70"/>
+      <c r="J50" s="70"/>
+      <c r="K50" s="70"/>
+      <c r="L50" s="70"/>
+      <c r="M50" s="71"/>
       <c r="N50" s="13"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51" s="58"/>
-      <c r="B51" s="59"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="59"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="59"/>
-      <c r="G51" s="60"/>
-      <c r="H51" s="67"/>
-      <c r="I51" s="68"/>
-      <c r="J51" s="68"/>
-      <c r="K51" s="68"/>
-      <c r="L51" s="68"/>
-      <c r="M51" s="69"/>
+      <c r="A51" s="63"/>
+      <c r="B51" s="64"/>
+      <c r="C51" s="64"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="64"/>
+      <c r="F51" s="64"/>
+      <c r="G51" s="65"/>
+      <c r="H51" s="72"/>
+      <c r="I51" s="73"/>
+      <c r="J51" s="73"/>
+      <c r="K51" s="73"/>
+      <c r="L51" s="73"/>
+      <c r="M51" s="74"/>
       <c r="N51" s="13"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="58"/>
-      <c r="B52" s="59"/>
-      <c r="C52" s="59"/>
-      <c r="D52" s="59"/>
-      <c r="E52" s="59"/>
-      <c r="F52" s="59"/>
-      <c r="G52" s="60"/>
-      <c r="H52" s="67"/>
-      <c r="I52" s="68"/>
-      <c r="J52" s="68"/>
-      <c r="K52" s="68"/>
-      <c r="L52" s="68"/>
-      <c r="M52" s="69"/>
+      <c r="A52" s="63"/>
+      <c r="B52" s="64"/>
+      <c r="C52" s="64"/>
+      <c r="D52" s="64"/>
+      <c r="E52" s="64"/>
+      <c r="F52" s="64"/>
+      <c r="G52" s="65"/>
+      <c r="H52" s="72"/>
+      <c r="I52" s="73"/>
+      <c r="J52" s="73"/>
+      <c r="K52" s="73"/>
+      <c r="L52" s="73"/>
+      <c r="M52" s="74"/>
       <c r="N52" s="13"/>
     </row>
     <row r="53" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="61"/>
-      <c r="B53" s="62"/>
-      <c r="C53" s="62"/>
-      <c r="D53" s="62"/>
-      <c r="E53" s="62"/>
-      <c r="F53" s="62"/>
-      <c r="G53" s="63"/>
-      <c r="H53" s="70"/>
-      <c r="I53" s="71"/>
-      <c r="J53" s="71"/>
-      <c r="K53" s="71"/>
-      <c r="L53" s="71"/>
-      <c r="M53" s="72"/>
+      <c r="A53" s="66"/>
+      <c r="B53" s="67"/>
+      <c r="C53" s="67"/>
+      <c r="D53" s="67"/>
+      <c r="E53" s="67"/>
+      <c r="F53" s="67"/>
+      <c r="G53" s="68"/>
+      <c r="H53" s="75"/>
+      <c r="I53" s="76"/>
+      <c r="J53" s="76"/>
+      <c r="K53" s="76"/>
+      <c r="L53" s="76"/>
+      <c r="M53" s="77"/>
       <c r="N53" s="13"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54" s="14" t="s">
+      <c r="A54" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="23">
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="33">
         <f>H50/(SUM(C12,C24,C34,C44,J10,J22,J33,J44))</f>
         <v>0.77777777777777779</v>
       </c>
-      <c r="I54" s="24"/>
-      <c r="J54" s="24"/>
-      <c r="K54" s="24"/>
-      <c r="L54" s="24"/>
-      <c r="M54" s="25"/>
+      <c r="I54" s="34"/>
+      <c r="J54" s="34"/>
+      <c r="K54" s="34"/>
+      <c r="L54" s="34"/>
+      <c r="M54" s="35"/>
       <c r="N54" s="13"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A55" s="17"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="26"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="27"/>
-      <c r="K55" s="27"/>
-      <c r="L55" s="27"/>
-      <c r="M55" s="28"/>
+      <c r="A55" s="27"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="37"/>
+      <c r="J55" s="37"/>
+      <c r="K55" s="37"/>
+      <c r="L55" s="37"/>
+      <c r="M55" s="38"/>
       <c r="N55" s="13"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A56" s="17"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="26"/>
-      <c r="I56" s="27"/>
-      <c r="J56" s="27"/>
-      <c r="K56" s="27"/>
-      <c r="L56" s="27"/>
-      <c r="M56" s="28"/>
+      <c r="A56" s="27"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="37"/>
+      <c r="K56" s="37"/>
+      <c r="L56" s="37"/>
+      <c r="M56" s="38"/>
       <c r="N56" s="13"/>
     </row>
     <row r="57" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="20"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="29"/>
-      <c r="I57" s="30"/>
-      <c r="J57" s="30"/>
-      <c r="K57" s="30"/>
-      <c r="L57" s="30"/>
-      <c r="M57" s="31"/>
+      <c r="A57" s="30"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="39"/>
+      <c r="I57" s="40"/>
+      <c r="J57" s="40"/>
+      <c r="K57" s="40"/>
+      <c r="L57" s="40"/>
+      <c r="M57" s="41"/>
       <c r="N57" s="13"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
@@ -3414,18 +3414,14 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="A54:G57"/>
+    <mergeCell ref="H54:M57"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="A46:G49"/>
+    <mergeCell ref="H46:M49"/>
+    <mergeCell ref="A50:G53"/>
+    <mergeCell ref="H50:M53"/>
     <mergeCell ref="H35:M35"/>
     <mergeCell ref="H1:M1"/>
     <mergeCell ref="H10:I10"/>
@@ -3436,14 +3432,18 @@
     <mergeCell ref="H24:M24"/>
     <mergeCell ref="H33:I33"/>
     <mergeCell ref="K33:M33"/>
-    <mergeCell ref="A54:G57"/>
-    <mergeCell ref="H54:M57"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="A46:G49"/>
-    <mergeCell ref="H46:M49"/>
-    <mergeCell ref="A50:G53"/>
-    <mergeCell ref="H50:M53"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D24:F24"/>
   </mergeCells>
   <conditionalFormatting sqref="D12:F12">
     <cfRule type="cellIs" dxfId="17" priority="19" operator="greaterThan">

--- a/Alex-Stevens.xlsx
+++ b/Alex-Stevens.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alex/Desktop/Stevens/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A09B34-2BC7-5D4B-9756-35277B584816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F2AEAD-F5EC-BC4F-9152-C80837F00502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{E04E897A-1522-45CD-BA08-DB652B3D3E2A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E04E897A-1522-45CD-BA08-DB652B3D3E2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Alex" sheetId="1" r:id="rId1"/>
@@ -902,6 +902,60 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -915,6 +969,114 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -925,168 +1087,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="11" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="11" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="11" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="11" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="11" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="11" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="11" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="11" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1587,7 +1587,7 @@
   <dimension ref="A1:N58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q41" sqref="Q41"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1597,23 +1597,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="77"/>
       <c r="G1" s="13"/>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="23"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="77"/>
       <c r="N1" s="13"/>
     </row>
     <row r="2" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -1970,20 +1970,20 @@
         <v>0.33374999999999999</v>
       </c>
       <c r="G10" s="13"/>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="17"/>
+      <c r="I10" s="35"/>
       <c r="J10" s="5">
         <f>SUM(J3:J9)</f>
         <v>19</v>
       </c>
-      <c r="K10" s="18">
+      <c r="K10" s="36">
         <f>(SUM(M3:M8))/(J10-1)</f>
         <v>3.9450000000000003</v>
       </c>
-      <c r="L10" s="19"/>
-      <c r="M10" s="20"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="38"/>
       <c r="N10" s="13"/>
     </row>
     <row r="11" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -2016,28 +2016,28 @@
       <c r="N11" s="13"/>
     </row>
     <row r="12" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="17"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="5">
         <v>17</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="36">
         <f>F3+F4+F6+F7+F8+F9+F10+F11</f>
         <v>3.2918750000000006</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="20"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="38"/>
       <c r="G12" s="13"/>
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="23"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="76"/>
+      <c r="M12" s="77"/>
       <c r="N12" s="13"/>
     </row>
     <row r="13" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -2069,14 +2069,14 @@
       <c r="N13" s="13"/>
     </row>
     <row r="14" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="23"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="77"/>
       <c r="G14" s="13"/>
       <c r="H14" s="6" t="s">
         <v>90</v>
@@ -2088,7 +2088,7 @@
         <v>2</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="L14" s="3">
         <v>4</v>
@@ -2129,7 +2129,7 @@
         <v>3</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="L15" s="2">
         <v>4</v>
@@ -2213,7 +2213,7 @@
         <v>4</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="L17" s="2">
         <v>3.67</v>
@@ -2255,7 +2255,7 @@
         <v>3</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="L18" s="2">
         <v>4</v>
@@ -2339,7 +2339,7 @@
         <v>1</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="L20" s="2">
         <v>4</v>
@@ -2412,20 +2412,20 @@
         <v>11.01</v>
       </c>
       <c r="G22" s="13"/>
-      <c r="H22" s="16" t="s">
+      <c r="H22" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="I22" s="17"/>
+      <c r="I22" s="35"/>
       <c r="J22" s="5">
         <f>SUM(J14:J21)</f>
         <v>20</v>
       </c>
-      <c r="K22" s="18">
+      <c r="K22" s="36">
         <f>(SUM(M14:M20))/(J22-1)</f>
         <v>3.9305263157894741</v>
       </c>
-      <c r="L22" s="19"/>
-      <c r="M22" s="20"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="38"/>
       <c r="N22" s="13"/>
     </row>
     <row r="23" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -2458,29 +2458,29 @@
       <c r="N23" s="13"/>
     </row>
     <row r="24" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="17"/>
+      <c r="B24" s="35"/>
       <c r="C24" s="5">
         <f>SUM(C16:C23)</f>
         <v>18</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="36">
         <f>(SUM(F16:F23))/C24</f>
         <v>3.6483333333333325</v>
       </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="20"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="38"/>
       <c r="G24" s="13"/>
-      <c r="H24" s="21" t="s">
+      <c r="H24" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="23"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="77"/>
       <c r="N24" s="13"/>
     </row>
     <row r="25" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -2512,14 +2512,14 @@
       <c r="N25" s="13"/>
     </row>
     <row r="26" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="23"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="77"/>
       <c r="G26" s="13"/>
       <c r="H26" s="6" t="s">
         <v>108</v>
@@ -2789,37 +2789,37 @@
         <v>12</v>
       </c>
       <c r="G33" s="13"/>
-      <c r="H33" s="16" t="s">
+      <c r="H33" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="I33" s="17"/>
+      <c r="I33" s="35"/>
       <c r="J33" s="5">
         <f>SUM(J26:J32)</f>
         <v>16</v>
       </c>
-      <c r="K33" s="18">
+      <c r="K33" s="36">
         <f>(SUM(M26:M31))/(J33-1)</f>
         <v>0</v>
       </c>
-      <c r="L33" s="19"/>
-      <c r="M33" s="20"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="38"/>
       <c r="N33" s="13"/>
     </row>
     <row r="34" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="17"/>
+      <c r="B34" s="35"/>
       <c r="C34" s="5">
         <f>SUM(C28:C33)</f>
         <v>19</v>
       </c>
-      <c r="D34" s="18">
+      <c r="D34" s="36">
         <f>(SUM(F28:F33))/C34</f>
         <v>3.7894736842105261</v>
       </c>
-      <c r="E34" s="19"/>
-      <c r="F34" s="20"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="38"/>
       <c r="G34" s="13"/>
       <c r="N34" s="13"/>
     </row>
@@ -2831,25 +2831,25 @@
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
-      <c r="H35" s="21" t="s">
+      <c r="H35" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="23"/>
+      <c r="I35" s="76"/>
+      <c r="J35" s="76"/>
+      <c r="K35" s="76"/>
+      <c r="L35" s="76"/>
+      <c r="M35" s="77"/>
       <c r="N35" s="13"/>
     </row>
     <row r="36" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="23"/>
+      <c r="B36" s="76"/>
+      <c r="C36" s="76"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="76"/>
+      <c r="F36" s="77"/>
       <c r="G36" s="13"/>
       <c r="H36" s="1" t="s">
         <v>13</v>
@@ -3142,35 +3142,35 @@
       <c r="N43" s="13"/>
     </row>
     <row r="44" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="17"/>
+      <c r="B44" s="35"/>
       <c r="C44" s="5">
         <f>SUM(C38:C43)</f>
         <v>19</v>
       </c>
-      <c r="D44" s="18">
+      <c r="D44" s="36">
         <f>(SUM(F38:F43))/C44</f>
         <v>3.7363157894736845</v>
       </c>
-      <c r="E44" s="19"/>
-      <c r="F44" s="20"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="38"/>
       <c r="G44" s="13"/>
-      <c r="H44" s="16" t="s">
+      <c r="H44" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="I44" s="17"/>
+      <c r="I44" s="35"/>
       <c r="J44" s="5">
         <f>SUM(J37:J43)</f>
         <v>16</v>
       </c>
-      <c r="K44" s="18">
+      <c r="K44" s="36">
         <f>(SUM(M37:M42))/(J44-1)</f>
         <v>0.4</v>
       </c>
-      <c r="L44" s="19"/>
-      <c r="M44" s="20"/>
+      <c r="L44" s="37"/>
+      <c r="M44" s="38"/>
       <c r="N44" s="13"/>
     </row>
     <row r="45" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -3190,210 +3190,210 @@
       <c r="N45" s="13"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="42" t="s">
+      <c r="A46" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="44"/>
-      <c r="H46" s="51">
+      <c r="B46" s="40"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="48">
         <f>(((D12*C12)+(D24*C24)+(D34*C34)+(D44*C44)+(K10*J10)+(K22*J22))/(SUM(C12,C24,C34,C44,J10,J22)))+0.002</f>
         <v>3.7358160831766911</v>
       </c>
-      <c r="I46" s="52"/>
-      <c r="J46" s="52"/>
-      <c r="K46" s="52"/>
-      <c r="L46" s="52"/>
-      <c r="M46" s="53"/>
+      <c r="I46" s="49"/>
+      <c r="J46" s="49"/>
+      <c r="K46" s="49"/>
+      <c r="L46" s="49"/>
+      <c r="M46" s="50"/>
       <c r="N46" s="13"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="45"/>
-      <c r="B47" s="46"/>
-      <c r="C47" s="46"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="47"/>
-      <c r="H47" s="54"/>
-      <c r="I47" s="55"/>
-      <c r="J47" s="55"/>
-      <c r="K47" s="55"/>
-      <c r="L47" s="55"/>
-      <c r="M47" s="56"/>
+      <c r="A47" s="42"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="52"/>
+      <c r="J47" s="52"/>
+      <c r="K47" s="52"/>
+      <c r="L47" s="52"/>
+      <c r="M47" s="53"/>
       <c r="N47" s="13"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="45"/>
-      <c r="B48" s="46"/>
-      <c r="C48" s="46"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="54"/>
-      <c r="I48" s="55"/>
-      <c r="J48" s="55"/>
-      <c r="K48" s="55"/>
-      <c r="L48" s="55"/>
-      <c r="M48" s="56"/>
+      <c r="A48" s="42"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="51"/>
+      <c r="I48" s="52"/>
+      <c r="J48" s="52"/>
+      <c r="K48" s="52"/>
+      <c r="L48" s="52"/>
+      <c r="M48" s="53"/>
       <c r="N48" s="13"/>
     </row>
     <row r="49" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="48"/>
-      <c r="B49" s="49"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="49"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="50"/>
-      <c r="H49" s="57"/>
-      <c r="I49" s="58"/>
-      <c r="J49" s="58"/>
-      <c r="K49" s="58"/>
-      <c r="L49" s="58"/>
-      <c r="M49" s="59"/>
+      <c r="A49" s="45"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="46"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="55"/>
+      <c r="K49" s="55"/>
+      <c r="L49" s="55"/>
+      <c r="M49" s="56"/>
       <c r="N49" s="13"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" s="60" t="s">
+      <c r="A50" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="B50" s="61"/>
-      <c r="C50" s="61"/>
-      <c r="D50" s="61"/>
-      <c r="E50" s="61"/>
-      <c r="F50" s="61"/>
-      <c r="G50" s="62"/>
-      <c r="H50" s="69">
+      <c r="B50" s="58"/>
+      <c r="C50" s="58"/>
+      <c r="D50" s="58"/>
+      <c r="E50" s="58"/>
+      <c r="F50" s="58"/>
+      <c r="G50" s="59"/>
+      <c r="H50" s="66">
         <f>SUM(C12,C24,C34,C44,J10,J22)</f>
         <v>112</v>
       </c>
-      <c r="I50" s="70"/>
-      <c r="J50" s="70"/>
-      <c r="K50" s="70"/>
-      <c r="L50" s="70"/>
-      <c r="M50" s="71"/>
+      <c r="I50" s="67"/>
+      <c r="J50" s="67"/>
+      <c r="K50" s="67"/>
+      <c r="L50" s="67"/>
+      <c r="M50" s="68"/>
       <c r="N50" s="13"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51" s="63"/>
-      <c r="B51" s="64"/>
-      <c r="C51" s="64"/>
-      <c r="D51" s="64"/>
-      <c r="E51" s="64"/>
-      <c r="F51" s="64"/>
-      <c r="G51" s="65"/>
-      <c r="H51" s="72"/>
-      <c r="I51" s="73"/>
-      <c r="J51" s="73"/>
-      <c r="K51" s="73"/>
-      <c r="L51" s="73"/>
-      <c r="M51" s="74"/>
+      <c r="A51" s="60"/>
+      <c r="B51" s="61"/>
+      <c r="C51" s="61"/>
+      <c r="D51" s="61"/>
+      <c r="E51" s="61"/>
+      <c r="F51" s="61"/>
+      <c r="G51" s="62"/>
+      <c r="H51" s="69"/>
+      <c r="I51" s="70"/>
+      <c r="J51" s="70"/>
+      <c r="K51" s="70"/>
+      <c r="L51" s="70"/>
+      <c r="M51" s="71"/>
       <c r="N51" s="13"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="63"/>
-      <c r="B52" s="64"/>
-      <c r="C52" s="64"/>
-      <c r="D52" s="64"/>
-      <c r="E52" s="64"/>
-      <c r="F52" s="64"/>
-      <c r="G52" s="65"/>
-      <c r="H52" s="72"/>
-      <c r="I52" s="73"/>
-      <c r="J52" s="73"/>
-      <c r="K52" s="73"/>
-      <c r="L52" s="73"/>
-      <c r="M52" s="74"/>
+      <c r="A52" s="60"/>
+      <c r="B52" s="61"/>
+      <c r="C52" s="61"/>
+      <c r="D52" s="61"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="61"/>
+      <c r="G52" s="62"/>
+      <c r="H52" s="69"/>
+      <c r="I52" s="70"/>
+      <c r="J52" s="70"/>
+      <c r="K52" s="70"/>
+      <c r="L52" s="70"/>
+      <c r="M52" s="71"/>
       <c r="N52" s="13"/>
     </row>
     <row r="53" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="66"/>
-      <c r="B53" s="67"/>
-      <c r="C53" s="67"/>
-      <c r="D53" s="67"/>
-      <c r="E53" s="67"/>
-      <c r="F53" s="67"/>
-      <c r="G53" s="68"/>
-      <c r="H53" s="75"/>
-      <c r="I53" s="76"/>
-      <c r="J53" s="76"/>
-      <c r="K53" s="76"/>
-      <c r="L53" s="76"/>
-      <c r="M53" s="77"/>
+      <c r="A53" s="63"/>
+      <c r="B53" s="64"/>
+      <c r="C53" s="64"/>
+      <c r="D53" s="64"/>
+      <c r="E53" s="64"/>
+      <c r="F53" s="64"/>
+      <c r="G53" s="65"/>
+      <c r="H53" s="72"/>
+      <c r="I53" s="73"/>
+      <c r="J53" s="73"/>
+      <c r="K53" s="73"/>
+      <c r="L53" s="73"/>
+      <c r="M53" s="74"/>
       <c r="N53" s="13"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54" s="24" t="s">
+      <c r="A54" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="33">
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="25">
         <f>H50/(SUM(C12,C24,C34,C44,J10,J22,J33,J44))</f>
         <v>0.77777777777777779</v>
       </c>
-      <c r="I54" s="34"/>
-      <c r="J54" s="34"/>
-      <c r="K54" s="34"/>
-      <c r="L54" s="34"/>
-      <c r="M54" s="35"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="26"/>
+      <c r="K54" s="26"/>
+      <c r="L54" s="26"/>
+      <c r="M54" s="27"/>
       <c r="N54" s="13"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A55" s="27"/>
-      <c r="B55" s="28"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="36"/>
-      <c r="I55" s="37"/>
-      <c r="J55" s="37"/>
-      <c r="K55" s="37"/>
-      <c r="L55" s="37"/>
-      <c r="M55" s="38"/>
+      <c r="A55" s="19"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="29"/>
+      <c r="L55" s="29"/>
+      <c r="M55" s="30"/>
       <c r="N55" s="13"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A56" s="27"/>
-      <c r="B56" s="28"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="29"/>
-      <c r="H56" s="36"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="37"/>
-      <c r="K56" s="37"/>
-      <c r="L56" s="37"/>
-      <c r="M56" s="38"/>
+      <c r="A56" s="19"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="29"/>
+      <c r="J56" s="29"/>
+      <c r="K56" s="29"/>
+      <c r="L56" s="29"/>
+      <c r="M56" s="30"/>
       <c r="N56" s="13"/>
     </row>
     <row r="57" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="30"/>
-      <c r="B57" s="31"/>
-      <c r="C57" s="31"/>
-      <c r="D57" s="31"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="32"/>
-      <c r="H57" s="39"/>
-      <c r="I57" s="40"/>
-      <c r="J57" s="40"/>
-      <c r="K57" s="40"/>
-      <c r="L57" s="40"/>
-      <c r="M57" s="41"/>
+      <c r="A57" s="22"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="32"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="32"/>
+      <c r="L57" s="32"/>
+      <c r="M57" s="33"/>
       <c r="N57" s="13"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
@@ -3414,14 +3414,18 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A54:G57"/>
-    <mergeCell ref="H54:M57"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="A46:G49"/>
-    <mergeCell ref="H46:M49"/>
-    <mergeCell ref="A50:G53"/>
-    <mergeCell ref="H50:M53"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="D44:F44"/>
     <mergeCell ref="H35:M35"/>
     <mergeCell ref="H1:M1"/>
     <mergeCell ref="H10:I10"/>
@@ -3432,18 +3436,14 @@
     <mergeCell ref="H24:M24"/>
     <mergeCell ref="H33:I33"/>
     <mergeCell ref="K33:M33"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="A54:G57"/>
+    <mergeCell ref="H54:M57"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="A46:G49"/>
+    <mergeCell ref="H46:M49"/>
+    <mergeCell ref="A50:G53"/>
+    <mergeCell ref="H50:M53"/>
   </mergeCells>
   <conditionalFormatting sqref="D12:F12">
     <cfRule type="cellIs" dxfId="17" priority="19" operator="greaterThan">

--- a/Alex-Stevens.xlsx
+++ b/Alex-Stevens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alex/Desktop/Stevens/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F2AEAD-F5EC-BC4F-9152-C80837F00502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F391969-EEC3-9F43-B041-7023A03C14C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E04E897A-1522-45CD-BA08-DB652B3D3E2A}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="138">
   <si>
     <t>General Chemistry I</t>
   </si>
@@ -311,9 +311,6 @@
   </si>
   <si>
     <t>CPE-322</t>
-  </si>
-  <si>
-    <t>IP</t>
   </si>
   <si>
     <t>Modeling and Simulation</t>
@@ -902,60 +899,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="11" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="11" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="11" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="11" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="11" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="11" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="11" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="11" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -969,114 +912,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1087,6 +922,168 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1587,7 +1584,7 @@
   <dimension ref="A1:N58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1597,23 +1594,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="77"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="23"/>
       <c r="G1" s="13"/>
-      <c r="H1" s="75" t="s">
+      <c r="H1" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="77"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="23"/>
       <c r="N1" s="13"/>
     </row>
     <row r="2" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -1970,20 +1967,20 @@
         <v>0.33374999999999999</v>
       </c>
       <c r="G10" s="13"/>
-      <c r="H10" s="34" t="s">
+      <c r="H10" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="35"/>
+      <c r="I10" s="17"/>
       <c r="J10" s="5">
         <f>SUM(J3:J9)</f>
         <v>19</v>
       </c>
-      <c r="K10" s="36">
+      <c r="K10" s="18">
         <f>(SUM(M3:M8))/(J10-1)</f>
         <v>3.9450000000000003</v>
       </c>
-      <c r="L10" s="37"/>
-      <c r="M10" s="38"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="20"/>
       <c r="N10" s="13"/>
     </row>
     <row r="11" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -2016,28 +2013,28 @@
       <c r="N11" s="13"/>
     </row>
     <row r="12" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="35"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="5">
         <v>17</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D12" s="18">
         <f>F3+F4+F6+F7+F8+F9+F10+F11</f>
         <v>3.2918750000000006</v>
       </c>
-      <c r="E12" s="37"/>
-      <c r="F12" s="38"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="20"/>
       <c r="G12" s="13"/>
-      <c r="H12" s="75" t="s">
-        <v>107</v>
-      </c>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="76"/>
-      <c r="L12" s="76"/>
-      <c r="M12" s="77"/>
+      <c r="H12" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="23"/>
       <c r="N12" s="13"/>
     </row>
     <row r="13" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -2069,14 +2066,14 @@
       <c r="N13" s="13"/>
     </row>
     <row r="14" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="75" t="s">
+      <c r="A14" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="76"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="77"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="23"/>
       <c r="G14" s="13"/>
       <c r="H14" s="6" t="s">
         <v>90</v>
@@ -2120,10 +2117,10 @@
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="J15" s="2">
         <v>3</v>
@@ -2162,16 +2159,16 @@
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="J16" s="2">
         <v>3</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="L16" s="2">
         <v>4</v>
@@ -2204,10 +2201,10 @@
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="J17" s="2">
         <v>4</v>
@@ -2246,10 +2243,10 @@
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="J18" s="2">
         <v>3</v>
@@ -2288,23 +2285,23 @@
       </c>
       <c r="G19" s="13"/>
       <c r="H19" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="J19" s="2">
         <v>3</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="L19" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M19" s="7">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N19" s="13"/>
     </row>
@@ -2330,10 +2327,10 @@
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="J20" s="2">
         <v>1</v>
@@ -2372,10 +2369,10 @@
       </c>
       <c r="G21" s="13"/>
       <c r="H21" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="J21" s="2">
         <v>1</v>
@@ -2412,20 +2409,20 @@
         <v>11.01</v>
       </c>
       <c r="G22" s="13"/>
-      <c r="H22" s="34" t="s">
+      <c r="H22" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I22" s="35"/>
+      <c r="I22" s="17"/>
       <c r="J22" s="5">
         <f>SUM(J14:J21)</f>
         <v>20</v>
       </c>
-      <c r="K22" s="36">
+      <c r="K22" s="18">
         <f>(SUM(M14:M20))/(J22-1)</f>
-        <v>3.9305263157894741</v>
-      </c>
-      <c r="L22" s="37"/>
-      <c r="M22" s="38"/>
+        <v>3.7726315789473688</v>
+      </c>
+      <c r="L22" s="19"/>
+      <c r="M22" s="20"/>
       <c r="N22" s="13"/>
     </row>
     <row r="23" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -2458,29 +2455,29 @@
       <c r="N23" s="13"/>
     </row>
     <row r="24" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="35"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="5">
         <f>SUM(C16:C23)</f>
         <v>18</v>
       </c>
-      <c r="D24" s="36">
+      <c r="D24" s="18">
         <f>(SUM(F16:F23))/C24</f>
         <v>3.6483333333333325</v>
       </c>
-      <c r="E24" s="37"/>
-      <c r="F24" s="38"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="20"/>
       <c r="G24" s="13"/>
-      <c r="H24" s="75" t="s">
-        <v>115</v>
-      </c>
-      <c r="I24" s="76"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="76"/>
-      <c r="M24" s="77"/>
+      <c r="H24" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="23"/>
       <c r="N24" s="13"/>
     </row>
     <row r="25" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -2512,20 +2509,20 @@
       <c r="N25" s="13"/>
     </row>
     <row r="26" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="75" t="s">
+      <c r="A26" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="76"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="77"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="23"/>
       <c r="G26" s="13"/>
       <c r="H26" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I26" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="J26" s="3">
         <v>3</v>
@@ -2559,10 +2556,10 @@
       </c>
       <c r="G27" s="13"/>
       <c r="H27" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="I27" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="J27" s="2">
         <v>3</v>
@@ -2597,10 +2594,10 @@
       </c>
       <c r="G28" s="13"/>
       <c r="H28" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="I28" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="J28" s="2">
         <v>1</v>
@@ -2635,10 +2632,10 @@
       </c>
       <c r="G29" s="13"/>
       <c r="H29" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="I29" s="14" t="s">
         <v>123</v>
-      </c>
-      <c r="I29" s="14" t="s">
-        <v>124</v>
       </c>
       <c r="J29" s="14">
         <v>3</v>
@@ -2673,10 +2670,10 @@
       </c>
       <c r="G30" s="13"/>
       <c r="H30" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J30" s="14">
         <v>3</v>
@@ -2711,10 +2708,10 @@
       </c>
       <c r="G31" s="13"/>
       <c r="H31" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J31" s="14">
         <v>3</v>
@@ -2749,10 +2746,10 @@
       </c>
       <c r="G32" s="13"/>
       <c r="H32" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="I32" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="J32" s="2">
         <v>0</v>
@@ -2789,37 +2786,37 @@
         <v>12</v>
       </c>
       <c r="G33" s="13"/>
-      <c r="H33" s="34" t="s">
+      <c r="H33" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I33" s="35"/>
+      <c r="I33" s="17"/>
       <c r="J33" s="5">
         <f>SUM(J26:J32)</f>
         <v>16</v>
       </c>
-      <c r="K33" s="36">
+      <c r="K33" s="18">
         <f>(SUM(M26:M31))/(J33-1)</f>
         <v>0</v>
       </c>
-      <c r="L33" s="37"/>
-      <c r="M33" s="38"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="20"/>
       <c r="N33" s="13"/>
     </row>
     <row r="34" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="34" t="s">
+      <c r="A34" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="35"/>
+      <c r="B34" s="17"/>
       <c r="C34" s="5">
         <f>SUM(C28:C33)</f>
         <v>19</v>
       </c>
-      <c r="D34" s="36">
+      <c r="D34" s="18">
         <f>(SUM(F28:F33))/C34</f>
         <v>3.7894736842105261</v>
       </c>
-      <c r="E34" s="37"/>
-      <c r="F34" s="38"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="20"/>
       <c r="G34" s="13"/>
       <c r="N34" s="13"/>
     </row>
@@ -2831,25 +2828,25 @@
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
-      <c r="H35" s="75" t="s">
-        <v>115</v>
-      </c>
-      <c r="I35" s="76"/>
-      <c r="J35" s="76"/>
-      <c r="K35" s="76"/>
-      <c r="L35" s="76"/>
-      <c r="M35" s="77"/>
+      <c r="H35" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="23"/>
       <c r="N35" s="13"/>
     </row>
     <row r="36" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="75" t="s">
+      <c r="A36" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="B36" s="76"/>
-      <c r="C36" s="76"/>
-      <c r="D36" s="76"/>
-      <c r="E36" s="76"/>
-      <c r="F36" s="77"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="23"/>
       <c r="G36" s="13"/>
       <c r="H36" s="1" t="s">
         <v>13</v>
@@ -2892,10 +2889,10 @@
       </c>
       <c r="G37" s="13"/>
       <c r="H37" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="I37" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="J37" s="3">
         <v>3</v>
@@ -2930,10 +2927,10 @@
       </c>
       <c r="G38" s="13"/>
       <c r="H38" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I38" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J38" s="14">
         <v>3</v>
@@ -2968,10 +2965,10 @@
       </c>
       <c r="G39" s="13"/>
       <c r="H39" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J39" s="14">
         <v>3</v>
@@ -3006,10 +3003,10 @@
       </c>
       <c r="G40" s="13"/>
       <c r="H40" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="I40" s="14" t="s">
         <v>133</v>
-      </c>
-      <c r="I40" s="14" t="s">
-        <v>134</v>
       </c>
       <c r="J40" s="14">
         <v>3</v>
@@ -3048,10 +3045,10 @@
       </c>
       <c r="G41" s="13"/>
       <c r="H41" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="I41" s="14" t="s">
         <v>135</v>
-      </c>
-      <c r="I41" s="14" t="s">
-        <v>136</v>
       </c>
       <c r="J41" s="14">
         <v>3</v>
@@ -3086,10 +3083,10 @@
       </c>
       <c r="G42" s="13"/>
       <c r="H42" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="I42" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="J42" s="2">
         <v>1</v>
@@ -3124,7 +3121,7 @@
       </c>
       <c r="G43" s="13"/>
       <c r="H43" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2">
@@ -3142,35 +3139,35 @@
       <c r="N43" s="13"/>
     </row>
     <row r="44" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="34" t="s">
+      <c r="A44" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="35"/>
+      <c r="B44" s="17"/>
       <c r="C44" s="5">
         <f>SUM(C38:C43)</f>
         <v>19</v>
       </c>
-      <c r="D44" s="36">
+      <c r="D44" s="18">
         <f>(SUM(F38:F43))/C44</f>
         <v>3.7363157894736845</v>
       </c>
-      <c r="E44" s="37"/>
-      <c r="F44" s="38"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="20"/>
       <c r="G44" s="13"/>
-      <c r="H44" s="34" t="s">
+      <c r="H44" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I44" s="35"/>
+      <c r="I44" s="17"/>
       <c r="J44" s="5">
         <f>SUM(J37:J43)</f>
         <v>16</v>
       </c>
-      <c r="K44" s="36">
+      <c r="K44" s="18">
         <f>(SUM(M37:M42))/(J44-1)</f>
         <v>0.4</v>
       </c>
-      <c r="L44" s="37"/>
-      <c r="M44" s="38"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="20"/>
       <c r="N44" s="13"/>
     </row>
     <row r="45" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -3190,210 +3187,210 @@
       <c r="N45" s="13"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="39" t="s">
+      <c r="A46" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="51">
+        <f>(((D12*C12)+(D24*C24)+(D34*C34)+(D44*C44)+(K10*J10)+(K22*J22))/(SUM(C12,C24,C34,C44,J10,J22)))+0.002</f>
+        <v>3.707620594454887</v>
+      </c>
+      <c r="I46" s="52"/>
+      <c r="J46" s="52"/>
+      <c r="K46" s="52"/>
+      <c r="L46" s="52"/>
+      <c r="M46" s="53"/>
+      <c r="N46" s="13"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" s="45"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="54"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="55"/>
+      <c r="K47" s="55"/>
+      <c r="L47" s="55"/>
+      <c r="M47" s="56"/>
+      <c r="N47" s="13"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" s="45"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="54"/>
+      <c r="I48" s="55"/>
+      <c r="J48" s="55"/>
+      <c r="K48" s="55"/>
+      <c r="L48" s="55"/>
+      <c r="M48" s="56"/>
+      <c r="N48" s="13"/>
+    </row>
+    <row r="49" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="48"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="57"/>
+      <c r="I49" s="58"/>
+      <c r="J49" s="58"/>
+      <c r="K49" s="58"/>
+      <c r="L49" s="58"/>
+      <c r="M49" s="59"/>
+      <c r="N49" s="13"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="B46" s="40"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="40"/>
-      <c r="F46" s="40"/>
-      <c r="G46" s="41"/>
-      <c r="H46" s="48">
-        <f>(((D12*C12)+(D24*C24)+(D34*C34)+(D44*C44)+(K10*J10)+(K22*J22))/(SUM(C12,C24,C34,C44,J10,J22)))+0.002</f>
-        <v>3.7358160831766911</v>
-      </c>
-      <c r="I46" s="49"/>
-      <c r="J46" s="49"/>
-      <c r="K46" s="49"/>
-      <c r="L46" s="49"/>
-      <c r="M46" s="50"/>
-      <c r="N46" s="13"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="42"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="44"/>
-      <c r="H47" s="51"/>
-      <c r="I47" s="52"/>
-      <c r="J47" s="52"/>
-      <c r="K47" s="52"/>
-      <c r="L47" s="52"/>
-      <c r="M47" s="53"/>
-      <c r="N47" s="13"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="42"/>
-      <c r="B48" s="43"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="44"/>
-      <c r="H48" s="51"/>
-      <c r="I48" s="52"/>
-      <c r="J48" s="52"/>
-      <c r="K48" s="52"/>
-      <c r="L48" s="52"/>
-      <c r="M48" s="53"/>
-      <c r="N48" s="13"/>
-    </row>
-    <row r="49" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="45"/>
-      <c r="B49" s="46"/>
-      <c r="C49" s="46"/>
-      <c r="D49" s="46"/>
-      <c r="E49" s="46"/>
-      <c r="F49" s="46"/>
-      <c r="G49" s="47"/>
-      <c r="H49" s="54"/>
-      <c r="I49" s="55"/>
-      <c r="J49" s="55"/>
-      <c r="K49" s="55"/>
-      <c r="L49" s="55"/>
-      <c r="M49" s="56"/>
-      <c r="N49" s="13"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="B50" s="58"/>
-      <c r="C50" s="58"/>
-      <c r="D50" s="58"/>
-      <c r="E50" s="58"/>
-      <c r="F50" s="58"/>
-      <c r="G50" s="59"/>
-      <c r="H50" s="66">
+      <c r="B50" s="61"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="61"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="62"/>
+      <c r="H50" s="69">
         <f>SUM(C12,C24,C34,C44,J10,J22)</f>
         <v>112</v>
       </c>
-      <c r="I50" s="67"/>
-      <c r="J50" s="67"/>
-      <c r="K50" s="67"/>
-      <c r="L50" s="67"/>
-      <c r="M50" s="68"/>
+      <c r="I50" s="70"/>
+      <c r="J50" s="70"/>
+      <c r="K50" s="70"/>
+      <c r="L50" s="70"/>
+      <c r="M50" s="71"/>
       <c r="N50" s="13"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51" s="60"/>
-      <c r="B51" s="61"/>
-      <c r="C51" s="61"/>
-      <c r="D51" s="61"/>
-      <c r="E51" s="61"/>
-      <c r="F51" s="61"/>
-      <c r="G51" s="62"/>
-      <c r="H51" s="69"/>
-      <c r="I51" s="70"/>
-      <c r="J51" s="70"/>
-      <c r="K51" s="70"/>
-      <c r="L51" s="70"/>
-      <c r="M51" s="71"/>
+      <c r="A51" s="63"/>
+      <c r="B51" s="64"/>
+      <c r="C51" s="64"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="64"/>
+      <c r="F51" s="64"/>
+      <c r="G51" s="65"/>
+      <c r="H51" s="72"/>
+      <c r="I51" s="73"/>
+      <c r="J51" s="73"/>
+      <c r="K51" s="73"/>
+      <c r="L51" s="73"/>
+      <c r="M51" s="74"/>
       <c r="N51" s="13"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="60"/>
-      <c r="B52" s="61"/>
-      <c r="C52" s="61"/>
-      <c r="D52" s="61"/>
-      <c r="E52" s="61"/>
-      <c r="F52" s="61"/>
-      <c r="G52" s="62"/>
-      <c r="H52" s="69"/>
-      <c r="I52" s="70"/>
-      <c r="J52" s="70"/>
-      <c r="K52" s="70"/>
-      <c r="L52" s="70"/>
-      <c r="M52" s="71"/>
+      <c r="A52" s="63"/>
+      <c r="B52" s="64"/>
+      <c r="C52" s="64"/>
+      <c r="D52" s="64"/>
+      <c r="E52" s="64"/>
+      <c r="F52" s="64"/>
+      <c r="G52" s="65"/>
+      <c r="H52" s="72"/>
+      <c r="I52" s="73"/>
+      <c r="J52" s="73"/>
+      <c r="K52" s="73"/>
+      <c r="L52" s="73"/>
+      <c r="M52" s="74"/>
       <c r="N52" s="13"/>
     </row>
     <row r="53" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="63"/>
-      <c r="B53" s="64"/>
-      <c r="C53" s="64"/>
-      <c r="D53" s="64"/>
-      <c r="E53" s="64"/>
-      <c r="F53" s="64"/>
-      <c r="G53" s="65"/>
-      <c r="H53" s="72"/>
-      <c r="I53" s="73"/>
-      <c r="J53" s="73"/>
-      <c r="K53" s="73"/>
-      <c r="L53" s="73"/>
-      <c r="M53" s="74"/>
+      <c r="A53" s="66"/>
+      <c r="B53" s="67"/>
+      <c r="C53" s="67"/>
+      <c r="D53" s="67"/>
+      <c r="E53" s="67"/>
+      <c r="F53" s="67"/>
+      <c r="G53" s="68"/>
+      <c r="H53" s="75"/>
+      <c r="I53" s="76"/>
+      <c r="J53" s="76"/>
+      <c r="K53" s="76"/>
+      <c r="L53" s="76"/>
+      <c r="M53" s="77"/>
       <c r="N53" s="13"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="25">
+      <c r="A54" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="33">
         <f>H50/(SUM(C12,C24,C34,C44,J10,J22,J33,J44))</f>
         <v>0.77777777777777779</v>
       </c>
-      <c r="I54" s="26"/>
-      <c r="J54" s="26"/>
-      <c r="K54" s="26"/>
-      <c r="L54" s="26"/>
-      <c r="M54" s="27"/>
+      <c r="I54" s="34"/>
+      <c r="J54" s="34"/>
+      <c r="K54" s="34"/>
+      <c r="L54" s="34"/>
+      <c r="M54" s="35"/>
       <c r="N54" s="13"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A55" s="19"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="29"/>
-      <c r="J55" s="29"/>
-      <c r="K55" s="29"/>
-      <c r="L55" s="29"/>
-      <c r="M55" s="30"/>
+      <c r="A55" s="27"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="37"/>
+      <c r="J55" s="37"/>
+      <c r="K55" s="37"/>
+      <c r="L55" s="37"/>
+      <c r="M55" s="38"/>
       <c r="N55" s="13"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A56" s="19"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="29"/>
-      <c r="J56" s="29"/>
-      <c r="K56" s="29"/>
-      <c r="L56" s="29"/>
-      <c r="M56" s="30"/>
+      <c r="A56" s="27"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="37"/>
+      <c r="K56" s="37"/>
+      <c r="L56" s="37"/>
+      <c r="M56" s="38"/>
       <c r="N56" s="13"/>
     </row>
     <row r="57" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="22"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="31"/>
-      <c r="I57" s="32"/>
-      <c r="J57" s="32"/>
-      <c r="K57" s="32"/>
-      <c r="L57" s="32"/>
-      <c r="M57" s="33"/>
+      <c r="A57" s="30"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="39"/>
+      <c r="I57" s="40"/>
+      <c r="J57" s="40"/>
+      <c r="K57" s="40"/>
+      <c r="L57" s="40"/>
+      <c r="M57" s="41"/>
       <c r="N57" s="13"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
@@ -3414,18 +3411,14 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="A54:G57"/>
+    <mergeCell ref="H54:M57"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="A46:G49"/>
+    <mergeCell ref="H46:M49"/>
+    <mergeCell ref="A50:G53"/>
+    <mergeCell ref="H50:M53"/>
     <mergeCell ref="H35:M35"/>
     <mergeCell ref="H1:M1"/>
     <mergeCell ref="H10:I10"/>
@@ -3436,14 +3429,18 @@
     <mergeCell ref="H24:M24"/>
     <mergeCell ref="H33:I33"/>
     <mergeCell ref="K33:M33"/>
-    <mergeCell ref="A54:G57"/>
-    <mergeCell ref="H54:M57"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="A46:G49"/>
-    <mergeCell ref="H46:M49"/>
-    <mergeCell ref="A50:G53"/>
-    <mergeCell ref="H50:M53"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D24:F24"/>
   </mergeCells>
   <conditionalFormatting sqref="D12:F12">
     <cfRule type="cellIs" dxfId="17" priority="19" operator="greaterThan">

--- a/Alex-Stevens.xlsx
+++ b/Alex-Stevens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alex/Desktop/Stevens/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F391969-EEC3-9F43-B041-7023A03C14C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B545C3CC-0CF6-524D-8DC1-043760C7E064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E04E897A-1522-45CD-BA08-DB652B3D3E2A}"/>
   </bookViews>
@@ -899,6 +899,60 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -912,6 +966,114 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -922,168 +1084,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="11" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="11" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="11" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="11" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="11" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="11" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="11" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="11" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1584,7 +1584,7 @@
   <dimension ref="A1:N58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="H46" sqref="H46:M49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1594,23 +1594,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="77"/>
       <c r="G1" s="13"/>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="23"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="77"/>
       <c r="N1" s="13"/>
     </row>
     <row r="2" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -1967,20 +1967,20 @@
         <v>0.33374999999999999</v>
       </c>
       <c r="G10" s="13"/>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="17"/>
+      <c r="I10" s="35"/>
       <c r="J10" s="5">
         <f>SUM(J3:J9)</f>
         <v>19</v>
       </c>
-      <c r="K10" s="18">
+      <c r="K10" s="36">
         <f>(SUM(M3:M8))/(J10-1)</f>
         <v>3.9450000000000003</v>
       </c>
-      <c r="L10" s="19"/>
-      <c r="M10" s="20"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="38"/>
       <c r="N10" s="13"/>
     </row>
     <row r="11" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -2013,28 +2013,28 @@
       <c r="N11" s="13"/>
     </row>
     <row r="12" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="17"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="5">
         <v>17</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="36">
         <f>F3+F4+F6+F7+F8+F9+F10+F11</f>
         <v>3.2918750000000006</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="20"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="38"/>
       <c r="G12" s="13"/>
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="23"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="76"/>
+      <c r="M12" s="77"/>
       <c r="N12" s="13"/>
     </row>
     <row r="13" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -2066,14 +2066,14 @@
       <c r="N13" s="13"/>
     </row>
     <row r="14" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="23"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="77"/>
       <c r="G14" s="13"/>
       <c r="H14" s="6" t="s">
         <v>90</v>
@@ -2294,14 +2294,14 @@
         <v>3</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L19" s="2">
-        <v>3</v>
+        <v>3.33</v>
       </c>
       <c r="M19" s="7">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>9.99</v>
       </c>
       <c r="N19" s="13"/>
     </row>
@@ -2409,20 +2409,20 @@
         <v>11.01</v>
       </c>
       <c r="G22" s="13"/>
-      <c r="H22" s="16" t="s">
+      <c r="H22" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="I22" s="17"/>
+      <c r="I22" s="35"/>
       <c r="J22" s="5">
         <f>SUM(J14:J21)</f>
         <v>20</v>
       </c>
-      <c r="K22" s="18">
+      <c r="K22" s="36">
         <f>(SUM(M14:M20))/(J22-1)</f>
-        <v>3.7726315789473688</v>
-      </c>
-      <c r="L22" s="19"/>
-      <c r="M22" s="20"/>
+        <v>3.8247368421052634</v>
+      </c>
+      <c r="L22" s="37"/>
+      <c r="M22" s="38"/>
       <c r="N22" s="13"/>
     </row>
     <row r="23" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -2455,29 +2455,29 @@
       <c r="N23" s="13"/>
     </row>
     <row r="24" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="17"/>
+      <c r="B24" s="35"/>
       <c r="C24" s="5">
         <f>SUM(C16:C23)</f>
         <v>18</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="36">
         <f>(SUM(F16:F23))/C24</f>
         <v>3.6483333333333325</v>
       </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="20"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="38"/>
       <c r="G24" s="13"/>
-      <c r="H24" s="21" t="s">
+      <c r="H24" s="75" t="s">
         <v>114</v>
       </c>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="23"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="77"/>
       <c r="N24" s="13"/>
     </row>
     <row r="25" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -2509,14 +2509,14 @@
       <c r="N25" s="13"/>
     </row>
     <row r="26" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="23"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="77"/>
       <c r="G26" s="13"/>
       <c r="H26" s="6" t="s">
         <v>107</v>
@@ -2786,37 +2786,37 @@
         <v>12</v>
       </c>
       <c r="G33" s="13"/>
-      <c r="H33" s="16" t="s">
+      <c r="H33" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="I33" s="17"/>
+      <c r="I33" s="35"/>
       <c r="J33" s="5">
         <f>SUM(J26:J32)</f>
         <v>16</v>
       </c>
-      <c r="K33" s="18">
+      <c r="K33" s="36">
         <f>(SUM(M26:M31))/(J33-1)</f>
         <v>0</v>
       </c>
-      <c r="L33" s="19"/>
-      <c r="M33" s="20"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="38"/>
       <c r="N33" s="13"/>
     </row>
     <row r="34" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="17"/>
+      <c r="B34" s="35"/>
       <c r="C34" s="5">
         <f>SUM(C28:C33)</f>
         <v>19</v>
       </c>
-      <c r="D34" s="18">
+      <c r="D34" s="36">
         <f>(SUM(F28:F33))/C34</f>
         <v>3.7894736842105261</v>
       </c>
-      <c r="E34" s="19"/>
-      <c r="F34" s="20"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="38"/>
       <c r="G34" s="13"/>
       <c r="N34" s="13"/>
     </row>
@@ -2828,25 +2828,25 @@
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
-      <c r="H35" s="21" t="s">
+      <c r="H35" s="75" t="s">
         <v>114</v>
       </c>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="23"/>
+      <c r="I35" s="76"/>
+      <c r="J35" s="76"/>
+      <c r="K35" s="76"/>
+      <c r="L35" s="76"/>
+      <c r="M35" s="77"/>
       <c r="N35" s="13"/>
     </row>
     <row r="36" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="23"/>
+      <c r="B36" s="76"/>
+      <c r="C36" s="76"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="76"/>
+      <c r="F36" s="77"/>
       <c r="G36" s="13"/>
       <c r="H36" s="1" t="s">
         <v>13</v>
@@ -3139,35 +3139,35 @@
       <c r="N43" s="13"/>
     </row>
     <row r="44" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="17"/>
+      <c r="B44" s="35"/>
       <c r="C44" s="5">
         <f>SUM(C38:C43)</f>
         <v>19</v>
       </c>
-      <c r="D44" s="18">
+      <c r="D44" s="36">
         <f>(SUM(F38:F43))/C44</f>
         <v>3.7363157894736845</v>
       </c>
-      <c r="E44" s="19"/>
-      <c r="F44" s="20"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="38"/>
       <c r="G44" s="13"/>
-      <c r="H44" s="16" t="s">
+      <c r="H44" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="I44" s="17"/>
+      <c r="I44" s="35"/>
       <c r="J44" s="5">
         <f>SUM(J37:J43)</f>
         <v>16</v>
       </c>
-      <c r="K44" s="18">
+      <c r="K44" s="36">
         <f>(SUM(M37:M42))/(J44-1)</f>
         <v>0.4</v>
       </c>
-      <c r="L44" s="19"/>
-      <c r="M44" s="20"/>
+      <c r="L44" s="37"/>
+      <c r="M44" s="38"/>
       <c r="N44" s="13"/>
     </row>
     <row r="45" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -3187,210 +3187,210 @@
       <c r="N45" s="13"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="42" t="s">
+      <c r="A46" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="44"/>
-      <c r="H46" s="51">
+      <c r="B46" s="40"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="48">
         <f>(((D12*C12)+(D24*C24)+(D34*C34)+(D44*C44)+(K10*J10)+(K22*J22))/(SUM(C12,C24,C34,C44,J10,J22)))+0.002</f>
-        <v>3.707620594454887</v>
-      </c>
-      <c r="I46" s="52"/>
-      <c r="J46" s="52"/>
-      <c r="K46" s="52"/>
-      <c r="L46" s="52"/>
-      <c r="M46" s="53"/>
+        <v>3.7169251057330825</v>
+      </c>
+      <c r="I46" s="49"/>
+      <c r="J46" s="49"/>
+      <c r="K46" s="49"/>
+      <c r="L46" s="49"/>
+      <c r="M46" s="50"/>
       <c r="N46" s="13"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="45"/>
-      <c r="B47" s="46"/>
-      <c r="C47" s="46"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="47"/>
-      <c r="H47" s="54"/>
-      <c r="I47" s="55"/>
-      <c r="J47" s="55"/>
-      <c r="K47" s="55"/>
-      <c r="L47" s="55"/>
-      <c r="M47" s="56"/>
+      <c r="A47" s="42"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="52"/>
+      <c r="J47" s="52"/>
+      <c r="K47" s="52"/>
+      <c r="L47" s="52"/>
+      <c r="M47" s="53"/>
       <c r="N47" s="13"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="45"/>
-      <c r="B48" s="46"/>
-      <c r="C48" s="46"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="54"/>
-      <c r="I48" s="55"/>
-      <c r="J48" s="55"/>
-      <c r="K48" s="55"/>
-      <c r="L48" s="55"/>
-      <c r="M48" s="56"/>
+      <c r="A48" s="42"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="51"/>
+      <c r="I48" s="52"/>
+      <c r="J48" s="52"/>
+      <c r="K48" s="52"/>
+      <c r="L48" s="52"/>
+      <c r="M48" s="53"/>
       <c r="N48" s="13"/>
     </row>
     <row r="49" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="48"/>
-      <c r="B49" s="49"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="49"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="50"/>
-      <c r="H49" s="57"/>
-      <c r="I49" s="58"/>
-      <c r="J49" s="58"/>
-      <c r="K49" s="58"/>
-      <c r="L49" s="58"/>
-      <c r="M49" s="59"/>
+      <c r="A49" s="45"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="46"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="55"/>
+      <c r="K49" s="55"/>
+      <c r="L49" s="55"/>
+      <c r="M49" s="56"/>
       <c r="N49" s="13"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" s="60" t="s">
+      <c r="A50" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="B50" s="61"/>
-      <c r="C50" s="61"/>
-      <c r="D50" s="61"/>
-      <c r="E50" s="61"/>
-      <c r="F50" s="61"/>
-      <c r="G50" s="62"/>
-      <c r="H50" s="69">
-        <f>SUM(C12,C24,C34,C44,J10,J22)</f>
-        <v>112</v>
-      </c>
-      <c r="I50" s="70"/>
-      <c r="J50" s="70"/>
-      <c r="K50" s="70"/>
-      <c r="L50" s="70"/>
-      <c r="M50" s="71"/>
+      <c r="B50" s="58"/>
+      <c r="C50" s="58"/>
+      <c r="D50" s="58"/>
+      <c r="E50" s="58"/>
+      <c r="F50" s="58"/>
+      <c r="G50" s="59"/>
+      <c r="H50" s="66">
+        <f>SUM(C12,C24,C34,C44,J10,J22)-2</f>
+        <v>110</v>
+      </c>
+      <c r="I50" s="67"/>
+      <c r="J50" s="67"/>
+      <c r="K50" s="67"/>
+      <c r="L50" s="67"/>
+      <c r="M50" s="68"/>
       <c r="N50" s="13"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51" s="63"/>
-      <c r="B51" s="64"/>
-      <c r="C51" s="64"/>
-      <c r="D51" s="64"/>
-      <c r="E51" s="64"/>
-      <c r="F51" s="64"/>
-      <c r="G51" s="65"/>
-      <c r="H51" s="72"/>
-      <c r="I51" s="73"/>
-      <c r="J51" s="73"/>
-      <c r="K51" s="73"/>
-      <c r="L51" s="73"/>
-      <c r="M51" s="74"/>
+      <c r="A51" s="60"/>
+      <c r="B51" s="61"/>
+      <c r="C51" s="61"/>
+      <c r="D51" s="61"/>
+      <c r="E51" s="61"/>
+      <c r="F51" s="61"/>
+      <c r="G51" s="62"/>
+      <c r="H51" s="69"/>
+      <c r="I51" s="70"/>
+      <c r="J51" s="70"/>
+      <c r="K51" s="70"/>
+      <c r="L51" s="70"/>
+      <c r="M51" s="71"/>
       <c r="N51" s="13"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="63"/>
-      <c r="B52" s="64"/>
-      <c r="C52" s="64"/>
-      <c r="D52" s="64"/>
-      <c r="E52" s="64"/>
-      <c r="F52" s="64"/>
-      <c r="G52" s="65"/>
-      <c r="H52" s="72"/>
-      <c r="I52" s="73"/>
-      <c r="J52" s="73"/>
-      <c r="K52" s="73"/>
-      <c r="L52" s="73"/>
-      <c r="M52" s="74"/>
+      <c r="A52" s="60"/>
+      <c r="B52" s="61"/>
+      <c r="C52" s="61"/>
+      <c r="D52" s="61"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="61"/>
+      <c r="G52" s="62"/>
+      <c r="H52" s="69"/>
+      <c r="I52" s="70"/>
+      <c r="J52" s="70"/>
+      <c r="K52" s="70"/>
+      <c r="L52" s="70"/>
+      <c r="M52" s="71"/>
       <c r="N52" s="13"/>
     </row>
     <row r="53" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="66"/>
-      <c r="B53" s="67"/>
-      <c r="C53" s="67"/>
-      <c r="D53" s="67"/>
-      <c r="E53" s="67"/>
-      <c r="F53" s="67"/>
-      <c r="G53" s="68"/>
-      <c r="H53" s="75"/>
-      <c r="I53" s="76"/>
-      <c r="J53" s="76"/>
-      <c r="K53" s="76"/>
-      <c r="L53" s="76"/>
-      <c r="M53" s="77"/>
+      <c r="A53" s="63"/>
+      <c r="B53" s="64"/>
+      <c r="C53" s="64"/>
+      <c r="D53" s="64"/>
+      <c r="E53" s="64"/>
+      <c r="F53" s="64"/>
+      <c r="G53" s="65"/>
+      <c r="H53" s="72"/>
+      <c r="I53" s="73"/>
+      <c r="J53" s="73"/>
+      <c r="K53" s="73"/>
+      <c r="L53" s="73"/>
+      <c r="M53" s="74"/>
       <c r="N53" s="13"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54" s="24" t="s">
+      <c r="A54" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="33">
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="25">
         <f>H50/(SUM(C12,C24,C34,C44,J10,J22,J33,J44))</f>
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="I54" s="34"/>
-      <c r="J54" s="34"/>
-      <c r="K54" s="34"/>
-      <c r="L54" s="34"/>
-      <c r="M54" s="35"/>
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="I54" s="26"/>
+      <c r="J54" s="26"/>
+      <c r="K54" s="26"/>
+      <c r="L54" s="26"/>
+      <c r="M54" s="27"/>
       <c r="N54" s="13"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A55" s="27"/>
-      <c r="B55" s="28"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="36"/>
-      <c r="I55" s="37"/>
-      <c r="J55" s="37"/>
-      <c r="K55" s="37"/>
-      <c r="L55" s="37"/>
-      <c r="M55" s="38"/>
+      <c r="A55" s="19"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="29"/>
+      <c r="L55" s="29"/>
+      <c r="M55" s="30"/>
       <c r="N55" s="13"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A56" s="27"/>
-      <c r="B56" s="28"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="29"/>
-      <c r="H56" s="36"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="37"/>
-      <c r="K56" s="37"/>
-      <c r="L56" s="37"/>
-      <c r="M56" s="38"/>
+      <c r="A56" s="19"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="29"/>
+      <c r="J56" s="29"/>
+      <c r="K56" s="29"/>
+      <c r="L56" s="29"/>
+      <c r="M56" s="30"/>
       <c r="N56" s="13"/>
     </row>
     <row r="57" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="30"/>
-      <c r="B57" s="31"/>
-      <c r="C57" s="31"/>
-      <c r="D57" s="31"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="32"/>
-      <c r="H57" s="39"/>
-      <c r="I57" s="40"/>
-      <c r="J57" s="40"/>
-      <c r="K57" s="40"/>
-      <c r="L57" s="40"/>
-      <c r="M57" s="41"/>
+      <c r="A57" s="22"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="32"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="32"/>
+      <c r="L57" s="32"/>
+      <c r="M57" s="33"/>
       <c r="N57" s="13"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
@@ -3411,14 +3411,18 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A54:G57"/>
-    <mergeCell ref="H54:M57"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="A46:G49"/>
-    <mergeCell ref="H46:M49"/>
-    <mergeCell ref="A50:G53"/>
-    <mergeCell ref="H50:M53"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="D44:F44"/>
     <mergeCell ref="H35:M35"/>
     <mergeCell ref="H1:M1"/>
     <mergeCell ref="H10:I10"/>
@@ -3429,18 +3433,14 @@
     <mergeCell ref="H24:M24"/>
     <mergeCell ref="H33:I33"/>
     <mergeCell ref="K33:M33"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="A54:G57"/>
+    <mergeCell ref="H54:M57"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="A46:G49"/>
+    <mergeCell ref="H46:M49"/>
+    <mergeCell ref="A50:G53"/>
+    <mergeCell ref="H50:M53"/>
   </mergeCells>
   <conditionalFormatting sqref="D12:F12">
     <cfRule type="cellIs" dxfId="17" priority="19" operator="greaterThan">

--- a/Alex-Stevens.xlsx
+++ b/Alex-Stevens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alex/Desktop/Stevens/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B545C3CC-0CF6-524D-8DC1-043760C7E064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C62175A-3EF0-D441-B51A-2702FE192D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E04E897A-1522-45CD-BA08-DB652B3D3E2A}"/>
   </bookViews>
@@ -899,60 +899,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="11" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="11" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="11" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="11" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="11" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="11" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="11" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="11" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -966,114 +912,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1084,6 +922,168 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1584,7 +1584,7 @@
   <dimension ref="A1:N58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46:M49"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1594,23 +1594,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="77"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="23"/>
       <c r="G1" s="13"/>
-      <c r="H1" s="75" t="s">
+      <c r="H1" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="77"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="23"/>
       <c r="N1" s="13"/>
     </row>
     <row r="2" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -1967,20 +1967,20 @@
         <v>0.33374999999999999</v>
       </c>
       <c r="G10" s="13"/>
-      <c r="H10" s="34" t="s">
+      <c r="H10" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="35"/>
+      <c r="I10" s="17"/>
       <c r="J10" s="5">
         <f>SUM(J3:J9)</f>
         <v>19</v>
       </c>
-      <c r="K10" s="36">
+      <c r="K10" s="18">
         <f>(SUM(M3:M8))/(J10-1)</f>
         <v>3.9450000000000003</v>
       </c>
-      <c r="L10" s="37"/>
-      <c r="M10" s="38"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="20"/>
       <c r="N10" s="13"/>
     </row>
     <row r="11" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -2013,28 +2013,28 @@
       <c r="N11" s="13"/>
     </row>
     <row r="12" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="35"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="5">
         <v>17</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D12" s="18">
         <f>F3+F4+F6+F7+F8+F9+F10+F11</f>
         <v>3.2918750000000006</v>
       </c>
-      <c r="E12" s="37"/>
-      <c r="F12" s="38"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="20"/>
       <c r="G12" s="13"/>
-      <c r="H12" s="75" t="s">
+      <c r="H12" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="76"/>
-      <c r="L12" s="76"/>
-      <c r="M12" s="77"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="23"/>
       <c r="N12" s="13"/>
     </row>
     <row r="13" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -2066,14 +2066,14 @@
       <c r="N13" s="13"/>
     </row>
     <row r="14" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="75" t="s">
+      <c r="A14" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="76"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="77"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="23"/>
       <c r="G14" s="13"/>
       <c r="H14" s="6" t="s">
         <v>90</v>
@@ -2409,20 +2409,20 @@
         <v>11.01</v>
       </c>
       <c r="G22" s="13"/>
-      <c r="H22" s="34" t="s">
+      <c r="H22" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I22" s="35"/>
+      <c r="I22" s="17"/>
       <c r="J22" s="5">
         <f>SUM(J14:J21)</f>
         <v>20</v>
       </c>
-      <c r="K22" s="36">
+      <c r="K22" s="18">
         <f>(SUM(M14:M20))/(J22-1)</f>
         <v>3.8247368421052634</v>
       </c>
-      <c r="L22" s="37"/>
-      <c r="M22" s="38"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="20"/>
       <c r="N22" s="13"/>
     </row>
     <row r="23" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -2455,29 +2455,29 @@
       <c r="N23" s="13"/>
     </row>
     <row r="24" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="35"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="5">
         <f>SUM(C16:C23)</f>
         <v>18</v>
       </c>
-      <c r="D24" s="36">
+      <c r="D24" s="18">
         <f>(SUM(F16:F23))/C24</f>
         <v>3.6483333333333325</v>
       </c>
-      <c r="E24" s="37"/>
-      <c r="F24" s="38"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="20"/>
       <c r="G24" s="13"/>
-      <c r="H24" s="75" t="s">
+      <c r="H24" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="I24" s="76"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="76"/>
-      <c r="M24" s="77"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="23"/>
       <c r="N24" s="13"/>
     </row>
     <row r="25" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -2509,14 +2509,14 @@
       <c r="N25" s="13"/>
     </row>
     <row r="26" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="75" t="s">
+      <c r="A26" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="76"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="77"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="23"/>
       <c r="G26" s="13"/>
       <c r="H26" s="6" t="s">
         <v>107</v>
@@ -2786,37 +2786,37 @@
         <v>12</v>
       </c>
       <c r="G33" s="13"/>
-      <c r="H33" s="34" t="s">
+      <c r="H33" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I33" s="35"/>
+      <c r="I33" s="17"/>
       <c r="J33" s="5">
         <f>SUM(J26:J32)</f>
         <v>16</v>
       </c>
-      <c r="K33" s="36">
+      <c r="K33" s="18">
         <f>(SUM(M26:M31))/(J33-1)</f>
         <v>0</v>
       </c>
-      <c r="L33" s="37"/>
-      <c r="M33" s="38"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="20"/>
       <c r="N33" s="13"/>
     </row>
     <row r="34" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="34" t="s">
+      <c r="A34" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="35"/>
+      <c r="B34" s="17"/>
       <c r="C34" s="5">
         <f>SUM(C28:C33)</f>
         <v>19</v>
       </c>
-      <c r="D34" s="36">
+      <c r="D34" s="18">
         <f>(SUM(F28:F33))/C34</f>
         <v>3.7894736842105261</v>
       </c>
-      <c r="E34" s="37"/>
-      <c r="F34" s="38"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="20"/>
       <c r="G34" s="13"/>
       <c r="N34" s="13"/>
     </row>
@@ -2828,25 +2828,25 @@
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
-      <c r="H35" s="75" t="s">
+      <c r="H35" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="I35" s="76"/>
-      <c r="J35" s="76"/>
-      <c r="K35" s="76"/>
-      <c r="L35" s="76"/>
-      <c r="M35" s="77"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="23"/>
       <c r="N35" s="13"/>
     </row>
     <row r="36" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="75" t="s">
+      <c r="A36" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="B36" s="76"/>
-      <c r="C36" s="76"/>
-      <c r="D36" s="76"/>
-      <c r="E36" s="76"/>
-      <c r="F36" s="77"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="23"/>
       <c r="G36" s="13"/>
       <c r="H36" s="1" t="s">
         <v>13</v>
@@ -3139,35 +3139,35 @@
       <c r="N43" s="13"/>
     </row>
     <row r="44" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="34" t="s">
+      <c r="A44" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="35"/>
+      <c r="B44" s="17"/>
       <c r="C44" s="5">
         <f>SUM(C38:C43)</f>
         <v>19</v>
       </c>
-      <c r="D44" s="36">
+      <c r="D44" s="18">
         <f>(SUM(F38:F43))/C44</f>
         <v>3.7363157894736845</v>
       </c>
-      <c r="E44" s="37"/>
-      <c r="F44" s="38"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="20"/>
       <c r="G44" s="13"/>
-      <c r="H44" s="34" t="s">
+      <c r="H44" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I44" s="35"/>
+      <c r="I44" s="17"/>
       <c r="J44" s="5">
         <f>SUM(J37:J43)</f>
         <v>16</v>
       </c>
-      <c r="K44" s="36">
+      <c r="K44" s="18">
         <f>(SUM(M37:M42))/(J44-1)</f>
         <v>0.4</v>
       </c>
-      <c r="L44" s="37"/>
-      <c r="M44" s="38"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="20"/>
       <c r="N44" s="13"/>
     </row>
     <row r="45" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -3187,210 +3187,210 @@
       <c r="N45" s="13"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="39" t="s">
+      <c r="A46" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="B46" s="40"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="40"/>
-      <c r="F46" s="40"/>
-      <c r="G46" s="41"/>
-      <c r="H46" s="48">
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="51">
         <f>(((D12*C12)+(D24*C24)+(D34*C34)+(D44*C44)+(K10*J10)+(K22*J22))/(SUM(C12,C24,C34,C44,J10,J22)))+0.002</f>
         <v>3.7169251057330825</v>
       </c>
-      <c r="I46" s="49"/>
-      <c r="J46" s="49"/>
-      <c r="K46" s="49"/>
-      <c r="L46" s="49"/>
-      <c r="M46" s="50"/>
+      <c r="I46" s="52"/>
+      <c r="J46" s="52"/>
+      <c r="K46" s="52"/>
+      <c r="L46" s="52"/>
+      <c r="M46" s="53"/>
       <c r="N46" s="13"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="42"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="44"/>
-      <c r="H47" s="51"/>
-      <c r="I47" s="52"/>
-      <c r="J47" s="52"/>
-      <c r="K47" s="52"/>
-      <c r="L47" s="52"/>
-      <c r="M47" s="53"/>
+      <c r="A47" s="45"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="54"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="55"/>
+      <c r="K47" s="55"/>
+      <c r="L47" s="55"/>
+      <c r="M47" s="56"/>
       <c r="N47" s="13"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="42"/>
-      <c r="B48" s="43"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="44"/>
-      <c r="H48" s="51"/>
-      <c r="I48" s="52"/>
-      <c r="J48" s="52"/>
-      <c r="K48" s="52"/>
-      <c r="L48" s="52"/>
-      <c r="M48" s="53"/>
+      <c r="A48" s="45"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="54"/>
+      <c r="I48" s="55"/>
+      <c r="J48" s="55"/>
+      <c r="K48" s="55"/>
+      <c r="L48" s="55"/>
+      <c r="M48" s="56"/>
       <c r="N48" s="13"/>
     </row>
     <row r="49" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="45"/>
-      <c r="B49" s="46"/>
-      <c r="C49" s="46"/>
-      <c r="D49" s="46"/>
-      <c r="E49" s="46"/>
-      <c r="F49" s="46"/>
-      <c r="G49" s="47"/>
-      <c r="H49" s="54"/>
-      <c r="I49" s="55"/>
-      <c r="J49" s="55"/>
-      <c r="K49" s="55"/>
-      <c r="L49" s="55"/>
-      <c r="M49" s="56"/>
+      <c r="A49" s="48"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="57"/>
+      <c r="I49" s="58"/>
+      <c r="J49" s="58"/>
+      <c r="K49" s="58"/>
+      <c r="L49" s="58"/>
+      <c r="M49" s="59"/>
       <c r="N49" s="13"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" s="57" t="s">
+      <c r="A50" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="B50" s="58"/>
-      <c r="C50" s="58"/>
-      <c r="D50" s="58"/>
-      <c r="E50" s="58"/>
-      <c r="F50" s="58"/>
-      <c r="G50" s="59"/>
-      <c r="H50" s="66">
+      <c r="B50" s="61"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="61"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="62"/>
+      <c r="H50" s="69">
         <f>SUM(C12,C24,C34,C44,J10,J22)-2</f>
         <v>110</v>
       </c>
-      <c r="I50" s="67"/>
-      <c r="J50" s="67"/>
-      <c r="K50" s="67"/>
-      <c r="L50" s="67"/>
-      <c r="M50" s="68"/>
+      <c r="I50" s="70"/>
+      <c r="J50" s="70"/>
+      <c r="K50" s="70"/>
+      <c r="L50" s="70"/>
+      <c r="M50" s="71"/>
       <c r="N50" s="13"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51" s="60"/>
-      <c r="B51" s="61"/>
-      <c r="C51" s="61"/>
-      <c r="D51" s="61"/>
-      <c r="E51" s="61"/>
-      <c r="F51" s="61"/>
-      <c r="G51" s="62"/>
-      <c r="H51" s="69"/>
-      <c r="I51" s="70"/>
-      <c r="J51" s="70"/>
-      <c r="K51" s="70"/>
-      <c r="L51" s="70"/>
-      <c r="M51" s="71"/>
+      <c r="A51" s="63"/>
+      <c r="B51" s="64"/>
+      <c r="C51" s="64"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="64"/>
+      <c r="F51" s="64"/>
+      <c r="G51" s="65"/>
+      <c r="H51" s="72"/>
+      <c r="I51" s="73"/>
+      <c r="J51" s="73"/>
+      <c r="K51" s="73"/>
+      <c r="L51" s="73"/>
+      <c r="M51" s="74"/>
       <c r="N51" s="13"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="60"/>
-      <c r="B52" s="61"/>
-      <c r="C52" s="61"/>
-      <c r="D52" s="61"/>
-      <c r="E52" s="61"/>
-      <c r="F52" s="61"/>
-      <c r="G52" s="62"/>
-      <c r="H52" s="69"/>
-      <c r="I52" s="70"/>
-      <c r="J52" s="70"/>
-      <c r="K52" s="70"/>
-      <c r="L52" s="70"/>
-      <c r="M52" s="71"/>
+      <c r="A52" s="63"/>
+      <c r="B52" s="64"/>
+      <c r="C52" s="64"/>
+      <c r="D52" s="64"/>
+      <c r="E52" s="64"/>
+      <c r="F52" s="64"/>
+      <c r="G52" s="65"/>
+      <c r="H52" s="72"/>
+      <c r="I52" s="73"/>
+      <c r="J52" s="73"/>
+      <c r="K52" s="73"/>
+      <c r="L52" s="73"/>
+      <c r="M52" s="74"/>
       <c r="N52" s="13"/>
     </row>
     <row r="53" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="63"/>
-      <c r="B53" s="64"/>
-      <c r="C53" s="64"/>
-      <c r="D53" s="64"/>
-      <c r="E53" s="64"/>
-      <c r="F53" s="64"/>
-      <c r="G53" s="65"/>
-      <c r="H53" s="72"/>
-      <c r="I53" s="73"/>
-      <c r="J53" s="73"/>
-      <c r="K53" s="73"/>
-      <c r="L53" s="73"/>
-      <c r="M53" s="74"/>
+      <c r="A53" s="66"/>
+      <c r="B53" s="67"/>
+      <c r="C53" s="67"/>
+      <c r="D53" s="67"/>
+      <c r="E53" s="67"/>
+      <c r="F53" s="67"/>
+      <c r="G53" s="68"/>
+      <c r="H53" s="75"/>
+      <c r="I53" s="76"/>
+      <c r="J53" s="76"/>
+      <c r="K53" s="76"/>
+      <c r="L53" s="76"/>
+      <c r="M53" s="77"/>
       <c r="N53" s="13"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54" s="16" t="s">
+      <c r="A54" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="25">
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="33">
         <f>H50/(SUM(C12,C24,C34,C44,J10,J22,J33,J44))</f>
         <v>0.76388888888888884</v>
       </c>
-      <c r="I54" s="26"/>
-      <c r="J54" s="26"/>
-      <c r="K54" s="26"/>
-      <c r="L54" s="26"/>
-      <c r="M54" s="27"/>
+      <c r="I54" s="34"/>
+      <c r="J54" s="34"/>
+      <c r="K54" s="34"/>
+      <c r="L54" s="34"/>
+      <c r="M54" s="35"/>
       <c r="N54" s="13"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A55" s="19"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="29"/>
-      <c r="J55" s="29"/>
-      <c r="K55" s="29"/>
-      <c r="L55" s="29"/>
-      <c r="M55" s="30"/>
+      <c r="A55" s="27"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="37"/>
+      <c r="J55" s="37"/>
+      <c r="K55" s="37"/>
+      <c r="L55" s="37"/>
+      <c r="M55" s="38"/>
       <c r="N55" s="13"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A56" s="19"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="29"/>
-      <c r="J56" s="29"/>
-      <c r="K56" s="29"/>
-      <c r="L56" s="29"/>
-      <c r="M56" s="30"/>
+      <c r="A56" s="27"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="37"/>
+      <c r="K56" s="37"/>
+      <c r="L56" s="37"/>
+      <c r="M56" s="38"/>
       <c r="N56" s="13"/>
     </row>
     <row r="57" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="22"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="31"/>
-      <c r="I57" s="32"/>
-      <c r="J57" s="32"/>
-      <c r="K57" s="32"/>
-      <c r="L57" s="32"/>
-      <c r="M57" s="33"/>
+      <c r="A57" s="30"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="39"/>
+      <c r="I57" s="40"/>
+      <c r="J57" s="40"/>
+      <c r="K57" s="40"/>
+      <c r="L57" s="40"/>
+      <c r="M57" s="41"/>
       <c r="N57" s="13"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
@@ -3411,18 +3411,14 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="A54:G57"/>
+    <mergeCell ref="H54:M57"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="A46:G49"/>
+    <mergeCell ref="H46:M49"/>
+    <mergeCell ref="A50:G53"/>
+    <mergeCell ref="H50:M53"/>
     <mergeCell ref="H35:M35"/>
     <mergeCell ref="H1:M1"/>
     <mergeCell ref="H10:I10"/>
@@ -3433,14 +3429,18 @@
     <mergeCell ref="H24:M24"/>
     <mergeCell ref="H33:I33"/>
     <mergeCell ref="K33:M33"/>
-    <mergeCell ref="A54:G57"/>
-    <mergeCell ref="H54:M57"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="A46:G49"/>
-    <mergeCell ref="H46:M49"/>
-    <mergeCell ref="A50:G53"/>
-    <mergeCell ref="H50:M53"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D24:F24"/>
   </mergeCells>
   <conditionalFormatting sqref="D12:F12">
     <cfRule type="cellIs" dxfId="17" priority="19" operator="greaterThan">

--- a/Alex-Stevens.xlsx
+++ b/Alex-Stevens.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alex/Desktop/Stevens/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jadyn\Desktop\Stevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C62175A-3EF0-D441-B51A-2702FE192D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D452239D-EEF9-499D-90D3-0FF66BBA27A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E04E897A-1522-45CD-BA08-DB652B3D3E2A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E04E897A-1522-45CD-BA08-DB652B3D3E2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Alex" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="140">
   <si>
     <t>General Chemistry I</t>
   </si>
@@ -376,9 +377,6 @@
     <t>IDE-401</t>
   </si>
   <si>
-    <t>PE</t>
-  </si>
-  <si>
     <t>Term VII (Fall 2022)</t>
   </si>
   <si>
@@ -427,28 +425,37 @@
     <t>PE-199</t>
   </si>
   <si>
-    <t>Introduction to Autonomous Robots</t>
-  </si>
-  <si>
-    <t>EE-359</t>
-  </si>
-  <si>
     <t>International Experience</t>
   </si>
   <si>
     <t>SA-425</t>
   </si>
   <si>
-    <t>Music Appreciation I</t>
-  </si>
-  <si>
     <t>HMU-192</t>
   </si>
   <si>
-    <t>CPE-521</t>
-  </si>
-  <si>
-    <t>Electronic Circuits</t>
+    <t>History of Film</t>
+  </si>
+  <si>
+    <t>Spanish I</t>
+  </si>
+  <si>
+    <t>Introduction to Python</t>
+  </si>
+  <si>
+    <t>EE-551</t>
+  </si>
+  <si>
+    <t>LSP-101</t>
+  </si>
+  <si>
+    <t>CPE-488</t>
+  </si>
+  <si>
+    <t>Computer Architecture</t>
+  </si>
+  <si>
+    <t>Term VIII (Spring 2023)</t>
   </si>
 </sst>
 </file>
@@ -854,7 +861,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -889,9 +896,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -935,7 +939,7 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -989,7 +993,7 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1016,7 +1020,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1043,7 +1047,7 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1070,7 +1074,7 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1084,6 +1088,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1573,7 +1583,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1583,37 +1593,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35A90BD-4739-4B1D-9A53-29DA0BA70D0C}">
   <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="94" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.83203125" customWidth="1"/>
-    <col min="8" max="8" width="42.33203125" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" customWidth="1"/>
+    <col min="8" max="8" width="42.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="21" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="13"/>
-    </row>
-    <row r="2" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="12"/>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1632,7 +1642,7 @@
       <c r="F2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="13"/>
+      <c r="G2" s="12"/>
       <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1651,9 +1661,9 @@
       <c r="M2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="13"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N2" s="12"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -1673,7 +1683,7 @@
         <f>(E3/16)*C3</f>
         <v>0.50062499999999999</v>
       </c>
-      <c r="G3" s="13"/>
+      <c r="G3" s="12"/>
       <c r="H3" s="6" t="s">
         <v>76</v>
       </c>
@@ -1693,9 +1703,9 @@
         <f>L3*J3</f>
         <v>16</v>
       </c>
-      <c r="N3" s="13"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N3" s="12"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>33</v>
       </c>
@@ -1715,7 +1725,7 @@
         <f t="shared" ref="F4:F11" si="0">(E4/16)*C4</f>
         <v>0.208125</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="8" t="s">
         <v>78</v>
       </c>
@@ -1735,9 +1745,9 @@
         <f t="shared" ref="M4:M8" si="1">L4*J4</f>
         <v>12</v>
       </c>
-      <c r="N4" s="13"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N4" s="12"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
@@ -1757,7 +1767,7 @@
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="G5" s="13"/>
+      <c r="G5" s="12"/>
       <c r="H5" s="8" t="s">
         <v>80</v>
       </c>
@@ -1777,9 +1787,9 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="N5" s="13"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N5" s="12"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
@@ -1799,7 +1809,7 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="G6" s="13"/>
+      <c r="G6" s="12"/>
       <c r="H6" s="8" t="s">
         <v>82</v>
       </c>
@@ -1819,9 +1829,9 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="N6" s="13"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N6" s="12"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
@@ -1841,7 +1851,7 @@
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="G7" s="13"/>
+      <c r="G7" s="12"/>
       <c r="H7" s="8" t="s">
         <v>84</v>
       </c>
@@ -1861,9 +1871,9 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="N7" s="13"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N7" s="12"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
@@ -1883,7 +1893,7 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="G8" s="13"/>
+      <c r="G8" s="12"/>
       <c r="H8" s="8" t="s">
         <v>85</v>
       </c>
@@ -1903,9 +1913,9 @@
         <f t="shared" si="1"/>
         <v>11.01</v>
       </c>
-      <c r="N8" s="13"/>
-    </row>
-    <row r="9" spans="1:14" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N8" s="12"/>
+    </row>
+    <row r="9" spans="1:14" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
@@ -1925,7 +1935,7 @@
         <f t="shared" si="0"/>
         <v>0.375</v>
       </c>
-      <c r="G9" s="13"/>
+      <c r="G9" s="12"/>
       <c r="H9" s="8" t="s">
         <v>86</v>
       </c>
@@ -1944,9 +1954,9 @@
       <c r="M9" s="7">
         <v>0</v>
       </c>
-      <c r="N9" s="13"/>
-    </row>
-    <row r="10" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N9" s="12"/>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>17</v>
       </c>
@@ -1966,24 +1976,24 @@
         <f t="shared" si="0"/>
         <v>0.33374999999999999</v>
       </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="16" t="s">
+      <c r="G10" s="12"/>
+      <c r="H10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="17"/>
+      <c r="I10" s="16"/>
       <c r="J10" s="5">
         <f>SUM(J3:J9)</f>
         <v>19</v>
       </c>
-      <c r="K10" s="18">
+      <c r="K10" s="17">
         <f>(SUM(M3:M8))/(J10-1)</f>
         <v>3.9450000000000003</v>
       </c>
-      <c r="L10" s="19"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="13"/>
-    </row>
-    <row r="11" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L10" s="18"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="12"/>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>11</v>
       </c>
@@ -2003,48 +2013,48 @@
         <f t="shared" si="0"/>
         <v>0.62437500000000001</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-    </row>
-    <row r="12" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="17"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="5">
         <v>17</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="17">
         <f>F3+F4+F6+F7+F8+F9+F10+F11</f>
         <v>3.2918750000000006</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="21" t="s">
+      <c r="E12" s="18"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="13"/>
-    </row>
-    <row r="13" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="12"/>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
       <c r="H13" s="1" t="s">
         <v>13</v>
       </c>
@@ -2063,18 +2073,18 @@
       <c r="M13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N13" s="13"/>
-    </row>
-    <row r="14" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="N13" s="12"/>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="13"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="12"/>
       <c r="H14" s="6" t="s">
         <v>90</v>
       </c>
@@ -2094,9 +2104,9 @@
         <f>L14*J14</f>
         <v>8</v>
       </c>
-      <c r="N14" s="13"/>
-    </row>
-    <row r="15" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N14" s="12"/>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -2115,7 +2125,7 @@
       <c r="F15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="13"/>
+      <c r="G15" s="12"/>
       <c r="H15" s="8" t="s">
         <v>92</v>
       </c>
@@ -2135,9 +2145,9 @@
         <f t="shared" ref="M15:M19" si="2">L15*J15</f>
         <v>12</v>
       </c>
-      <c r="N15" s="13"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="12"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>31</v>
       </c>
@@ -2157,7 +2167,7 @@
         <f>C16*E16</f>
         <v>9.99</v>
       </c>
-      <c r="G16" s="13"/>
+      <c r="G16" s="12"/>
       <c r="H16" s="8" t="s">
         <v>94</v>
       </c>
@@ -2177,9 +2187,9 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="N16" s="13"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N16" s="12"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>34</v>
       </c>
@@ -2199,7 +2209,7 @@
         <f t="shared" ref="F17:F23" si="3">C17*E17</f>
         <v>3.33</v>
       </c>
-      <c r="G17" s="13"/>
+      <c r="G17" s="12"/>
       <c r="H17" s="8" t="s">
         <v>96</v>
       </c>
@@ -2219,9 +2229,9 @@
         <f t="shared" si="2"/>
         <v>14.68</v>
       </c>
-      <c r="N17" s="13"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N17" s="12"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>36</v>
       </c>
@@ -2241,7 +2251,7 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="G18" s="13"/>
+      <c r="G18" s="12"/>
       <c r="H18" s="8" t="s">
         <v>98</v>
       </c>
@@ -2261,9 +2271,9 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="N18" s="13"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N18" s="12"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>38</v>
       </c>
@@ -2283,7 +2293,7 @@
         <f t="shared" si="3"/>
         <v>5.34</v>
       </c>
-      <c r="G19" s="13"/>
+      <c r="G19" s="12"/>
       <c r="H19" s="8" t="s">
         <v>100</v>
       </c>
@@ -2303,9 +2313,9 @@
         <f t="shared" si="2"/>
         <v>9.99</v>
       </c>
-      <c r="N19" s="13"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N19" s="12"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>40</v>
       </c>
@@ -2325,7 +2335,7 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="G20" s="13"/>
+      <c r="G20" s="12"/>
       <c r="H20" s="8" t="s">
         <v>102</v>
       </c>
@@ -2345,9 +2355,9 @@
         <f>J20*L20</f>
         <v>4</v>
       </c>
-      <c r="N20" s="13"/>
-    </row>
-    <row r="21" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N20" s="12"/>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>42</v>
       </c>
@@ -2367,7 +2377,7 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="G21" s="13"/>
+      <c r="G21" s="12"/>
       <c r="H21" s="8" t="s">
         <v>104</v>
       </c>
@@ -2386,9 +2396,9 @@
       <c r="M21" s="7">
         <v>0</v>
       </c>
-      <c r="N21" s="13"/>
-    </row>
-    <row r="22" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N21" s="12"/>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>44</v>
       </c>
@@ -2408,24 +2418,24 @@
         <f t="shared" si="3"/>
         <v>11.01</v>
       </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="16" t="s">
+      <c r="G22" s="12"/>
+      <c r="H22" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I22" s="17"/>
+      <c r="I22" s="16"/>
       <c r="J22" s="5">
         <f>SUM(J14:J21)</f>
         <v>20</v>
       </c>
-      <c r="K22" s="18">
+      <c r="K22" s="17">
         <f>(SUM(M14:M20))/(J22-1)</f>
         <v>3.8247368421052634</v>
       </c>
-      <c r="L22" s="19"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="13"/>
-    </row>
-    <row r="23" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L22" s="18"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="12"/>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>47</v>
       </c>
@@ -2445,49 +2455,49 @@
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="13"/>
-    </row>
-    <row r="24" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
+      <c r="G23" s="12"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="77"/>
+      <c r="K23" s="77"/>
+      <c r="L23" s="77"/>
+      <c r="M23" s="77"/>
+      <c r="N23" s="12"/>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="17"/>
+      <c r="B24" s="16"/>
       <c r="C24" s="5">
         <f>SUM(C16:C23)</f>
         <v>18</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="17">
         <f>(SUM(F16:F23))/C24</f>
         <v>3.6483333333333325</v>
       </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="13"/>
-    </row>
-    <row r="25" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="12"/>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
       <c r="H25" s="1" t="s">
         <v>13</v>
       </c>
@@ -2506,18 +2516,18 @@
       <c r="M25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N25" s="13"/>
-    </row>
-    <row r="26" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
+      <c r="N25" s="12"/>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="13"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="12"/>
       <c r="H26" s="6" t="s">
         <v>107</v>
       </c>
@@ -2527,15 +2537,19 @@
       <c r="J26" s="3">
         <v>3</v>
       </c>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
+      <c r="K26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L26" s="3">
+        <v>3.67</v>
+      </c>
       <c r="M26" s="7">
         <f>L26*J26</f>
-        <v>0</v>
-      </c>
-      <c r="N26" s="13"/>
-    </row>
-    <row r="27" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>11.01</v>
+      </c>
+      <c r="N26" s="12"/>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>13</v>
       </c>
@@ -2554,7 +2568,7 @@
       <c r="F27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G27" s="13"/>
+      <c r="G27" s="12"/>
       <c r="H27" s="8" t="s">
         <v>109</v>
       </c>
@@ -2564,15 +2578,19 @@
       <c r="J27" s="2">
         <v>3</v>
       </c>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
+      <c r="K27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L27" s="2">
+        <v>4</v>
+      </c>
       <c r="M27" s="7">
         <f t="shared" ref="M27:M31" si="4">L27*J27</f>
-        <v>0</v>
-      </c>
-      <c r="N27" s="13"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="N27" s="12"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>50</v>
       </c>
@@ -2592,7 +2610,7 @@
         <f>C28*E28</f>
         <v>14.68</v>
       </c>
-      <c r="G28" s="13"/>
+      <c r="G28" s="12"/>
       <c r="H28" s="8" t="s">
         <v>111</v>
       </c>
@@ -2602,15 +2620,19 @@
       <c r="J28" s="2">
         <v>1</v>
       </c>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
+      <c r="K28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L28" s="2">
+        <v>4</v>
+      </c>
       <c r="M28" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N28" s="13"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="N28" s="12"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>52</v>
       </c>
@@ -2630,25 +2652,29 @@
         <f t="shared" ref="F29:F33" si="5">C29*E29</f>
         <v>8</v>
       </c>
-      <c r="G29" s="13"/>
+      <c r="G29" s="12"/>
       <c r="H29" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="I29" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="I29" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="J29" s="14">
+      <c r="J29" s="13">
         <v>3</v>
       </c>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="15">
+      <c r="K29" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L29" s="13">
+        <v>3.33</v>
+      </c>
+      <c r="M29" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N29" s="13"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+        <v>9.99</v>
+      </c>
+      <c r="N29" s="12"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>54</v>
       </c>
@@ -2668,25 +2694,29 @@
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="G30" s="13"/>
+      <c r="G30" s="12"/>
       <c r="H30" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="I30" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="J30" s="14">
+        <v>123</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="J30" s="13">
         <v>3</v>
       </c>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="15">
+      <c r="K30" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="L30" s="13">
+        <v>3.67</v>
+      </c>
+      <c r="M30" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N30" s="13"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+        <v>11.01</v>
+      </c>
+      <c r="N30" s="12"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>56</v>
       </c>
@@ -2706,25 +2736,29 @@
         <f t="shared" si="5"/>
         <v>13.32</v>
       </c>
-      <c r="G31" s="13"/>
+      <c r="G31" s="12"/>
       <c r="H31" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="I31" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="J31" s="14">
+        <v>124</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="J31" s="13">
         <v>3</v>
       </c>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="15">
+      <c r="K31" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="L31" s="13">
+        <v>4</v>
+      </c>
+      <c r="M31" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N31" s="13"/>
-    </row>
-    <row r="32" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N31" s="12"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>58</v>
       </c>
@@ -2744,12 +2778,12 @@
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="G32" s="13"/>
+      <c r="G32" s="12"/>
       <c r="H32" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="I32" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="J32" s="2">
         <v>0</v>
@@ -2763,9 +2797,9 @@
       <c r="M32" s="7">
         <v>0</v>
       </c>
-      <c r="N32" s="13"/>
-    </row>
-    <row r="33" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N32" s="12"/>
+    </row>
+    <row r="33" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>60</v>
       </c>
@@ -2785,69 +2819,75 @@
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="G33" s="13"/>
-      <c r="H33" s="16" t="s">
+      <c r="G33" s="12"/>
+      <c r="H33" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I33" s="17"/>
+      <c r="I33" s="16"/>
       <c r="J33" s="5">
         <f>SUM(J26:J32)</f>
         <v>16</v>
       </c>
-      <c r="K33" s="18">
-        <f>(SUM(M26:M31))/(J33-1)</f>
-        <v>0</v>
-      </c>
-      <c r="L33" s="19"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="13"/>
-    </row>
-    <row r="34" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
+      <c r="K33" s="17">
+        <f>(SUM(M26:M31))/(J33)</f>
+        <v>3.7506249999999999</v>
+      </c>
+      <c r="L33" s="18"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="12"/>
+    </row>
+    <row r="34" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="17"/>
+      <c r="B34" s="16"/>
       <c r="C34" s="5">
         <f>SUM(C28:C33)</f>
         <v>19</v>
       </c>
-      <c r="D34" s="18">
+      <c r="D34" s="17">
         <f>(SUM(F28:F33))/C34</f>
         <v>3.7894736842105261</v>
       </c>
-      <c r="E34" s="19"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="13"/>
-      <c r="N34" s="13"/>
-    </row>
-    <row r="35" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="13"/>
-    </row>
-    <row r="36" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
+      <c r="E34" s="18"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="78"/>
+      <c r="I34" s="78"/>
+      <c r="J34" s="78"/>
+      <c r="K34" s="78"/>
+      <c r="L34" s="78"/>
+      <c r="M34" s="78"/>
+      <c r="N34" s="12"/>
+    </row>
+    <row r="35" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="12"/>
+    </row>
+    <row r="36" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="13"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="12"/>
       <c r="H36" s="1" t="s">
         <v>13</v>
       </c>
@@ -2866,9 +2906,9 @@
       <c r="M36" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N36" s="13"/>
-    </row>
-    <row r="37" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N36" s="12"/>
+    </row>
+    <row r="37" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>13</v>
       </c>
@@ -2887,12 +2927,12 @@
       <c r="F37" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G37" s="13"/>
+      <c r="G37" s="12"/>
       <c r="H37" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="I37" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="J37" s="3">
         <v>3</v>
@@ -2903,9 +2943,9 @@
         <f>L37*J37</f>
         <v>0</v>
       </c>
-      <c r="N37" s="13"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N37" s="12"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>63</v>
       </c>
@@ -2925,25 +2965,25 @@
         <f>C38*E38</f>
         <v>12</v>
       </c>
-      <c r="G38" s="13"/>
+      <c r="G38" s="12"/>
       <c r="H38" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="I38" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="J38" s="14">
+        <v>134</v>
+      </c>
+      <c r="I38" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="J38" s="13">
         <v>3</v>
       </c>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="15">
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="14">
         <f t="shared" ref="M38:M42" si="6">L38*J38</f>
         <v>0</v>
       </c>
-      <c r="N38" s="13"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N38" s="12"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>65</v>
       </c>
@@ -2963,25 +3003,25 @@
         <f t="shared" ref="F39:F43" si="7">C39*E39</f>
         <v>16</v>
       </c>
-      <c r="G39" s="13"/>
+      <c r="G39" s="12"/>
       <c r="H39" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I39" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="I39" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="J39" s="14">
+      <c r="J39" s="13">
         <v>3</v>
       </c>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="15">
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N39" s="13"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N39" s="12"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>67</v>
       </c>
@@ -3001,29 +3041,29 @@
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="G40" s="13"/>
+      <c r="G40" s="12"/>
       <c r="H40" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="I40" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="J40" s="14">
+        <v>129</v>
+      </c>
+      <c r="I40" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="J40" s="13">
         <v>3</v>
       </c>
-      <c r="K40" s="14" t="s">
+      <c r="K40" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="L40" s="14">
+      <c r="L40" s="13">
         <v>2</v>
       </c>
-      <c r="M40" s="15">
+      <c r="M40" s="14">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="N40" s="13"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N40" s="12"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>71</v>
       </c>
@@ -3043,25 +3083,25 @@
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="G41" s="13"/>
+      <c r="G41" s="12"/>
       <c r="H41" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="I41" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="J41" s="14">
+        <v>132</v>
+      </c>
+      <c r="I41" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="J41" s="13">
         <v>3</v>
       </c>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="15">
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N41" s="13"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N41" s="12"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>69</v>
       </c>
@@ -3081,12 +3121,12 @@
         <f t="shared" si="7"/>
         <v>9.99</v>
       </c>
-      <c r="G42" s="13"/>
+      <c r="G42" s="12"/>
       <c r="H42" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="I42" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="J42" s="2">
         <v>1</v>
@@ -3097,9 +3137,9 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N42" s="13"/>
-    </row>
-    <row r="43" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N42" s="12"/>
+    </row>
+    <row r="43" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
         <v>73</v>
       </c>
@@ -3119,298 +3159,296 @@
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="G43" s="13"/>
+      <c r="G43" s="12"/>
       <c r="H43" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="I43" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>136</v>
+      </c>
       <c r="J43" s="2">
-        <v>0</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L43" s="2">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
       <c r="M43" s="7">
         <v>0</v>
       </c>
-      <c r="N43" s="13"/>
-    </row>
-    <row r="44" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="16" t="s">
+      <c r="N43" s="12"/>
+    </row>
+    <row r="44" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="17"/>
+      <c r="B44" s="16"/>
       <c r="C44" s="5">
         <f>SUM(C38:C43)</f>
         <v>19</v>
       </c>
-      <c r="D44" s="18">
+      <c r="D44" s="17">
         <f>(SUM(F38:F43))/C44</f>
         <v>3.7363157894736845</v>
       </c>
-      <c r="E44" s="19"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="16" t="s">
+      <c r="E44" s="18"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I44" s="17"/>
+      <c r="I44" s="16"/>
       <c r="J44" s="5">
-        <f>SUM(J37:J43)</f>
+        <f>SUM(J37:J43)-J40</f>
         <v>16</v>
       </c>
-      <c r="K44" s="18">
-        <f>(SUM(M37:M42))/(J44-1)</f>
-        <v>0.4</v>
-      </c>
-      <c r="L44" s="19"/>
-      <c r="M44" s="20"/>
-      <c r="N44" s="13"/>
-    </row>
-    <row r="45" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="13"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="42" t="s">
+      <c r="K44" s="17">
+        <f>(SUM(M37:M39)+SUM(M41:M43))/(J44)</f>
+        <v>0</v>
+      </c>
+      <c r="L44" s="18"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="12"/>
+    </row>
+    <row r="45" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="50">
+        <f>(((D12*C12)+(D24*C24)+(D34*C34)+(D44*C44)+(K10*J10)+(K22*J22)+(K33*J33))/(SUM(C12,C24,C34,C44,J10,J22,J33)))+0.001</f>
+        <v>3.7203875925164471</v>
+      </c>
+      <c r="I46" s="51"/>
+      <c r="J46" s="51"/>
+      <c r="K46" s="51"/>
+      <c r="L46" s="51"/>
+      <c r="M46" s="52"/>
+      <c r="N46" s="12"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="44"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="53"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="54"/>
+      <c r="K47" s="54"/>
+      <c r="L47" s="54"/>
+      <c r="M47" s="55"/>
+      <c r="N47" s="12"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="44"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="53"/>
+      <c r="I48" s="54"/>
+      <c r="J48" s="54"/>
+      <c r="K48" s="54"/>
+      <c r="L48" s="54"/>
+      <c r="M48" s="55"/>
+      <c r="N48" s="12"/>
+    </row>
+    <row r="49" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="47"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="56"/>
+      <c r="I49" s="57"/>
+      <c r="J49" s="57"/>
+      <c r="K49" s="57"/>
+      <c r="L49" s="57"/>
+      <c r="M49" s="58"/>
+      <c r="N49" s="12"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="44"/>
-      <c r="H46" s="51">
-        <f>(((D12*C12)+(D24*C24)+(D34*C34)+(D44*C44)+(K10*J10)+(K22*J22))/(SUM(C12,C24,C34,C44,J10,J22)))+0.002</f>
-        <v>3.7169251057330825</v>
-      </c>
-      <c r="I46" s="52"/>
-      <c r="J46" s="52"/>
-      <c r="K46" s="52"/>
-      <c r="L46" s="52"/>
-      <c r="M46" s="53"/>
-      <c r="N46" s="13"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="45"/>
-      <c r="B47" s="46"/>
-      <c r="C47" s="46"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="47"/>
-      <c r="H47" s="54"/>
-      <c r="I47" s="55"/>
-      <c r="J47" s="55"/>
-      <c r="K47" s="55"/>
-      <c r="L47" s="55"/>
-      <c r="M47" s="56"/>
-      <c r="N47" s="13"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="45"/>
-      <c r="B48" s="46"/>
-      <c r="C48" s="46"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="54"/>
-      <c r="I48" s="55"/>
-      <c r="J48" s="55"/>
-      <c r="K48" s="55"/>
-      <c r="L48" s="55"/>
-      <c r="M48" s="56"/>
-      <c r="N48" s="13"/>
-    </row>
-    <row r="49" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="48"/>
-      <c r="B49" s="49"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="49"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="50"/>
-      <c r="H49" s="57"/>
-      <c r="I49" s="58"/>
-      <c r="J49" s="58"/>
-      <c r="K49" s="58"/>
-      <c r="L49" s="58"/>
-      <c r="M49" s="59"/>
-      <c r="N49" s="13"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" s="60" t="s">
+      <c r="B50" s="60"/>
+      <c r="C50" s="60"/>
+      <c r="D50" s="60"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="60"/>
+      <c r="G50" s="61"/>
+      <c r="H50" s="68">
+        <f>SUM(C12,C24,C34,C44,J10,J22,J33)</f>
+        <v>128</v>
+      </c>
+      <c r="I50" s="69"/>
+      <c r="J50" s="69"/>
+      <c r="K50" s="69"/>
+      <c r="L50" s="69"/>
+      <c r="M50" s="70"/>
+      <c r="N50" s="12"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="62"/>
+      <c r="B51" s="63"/>
+      <c r="C51" s="63"/>
+      <c r="D51" s="63"/>
+      <c r="E51" s="63"/>
+      <c r="F51" s="63"/>
+      <c r="G51" s="64"/>
+      <c r="H51" s="71"/>
+      <c r="I51" s="72"/>
+      <c r="J51" s="72"/>
+      <c r="K51" s="72"/>
+      <c r="L51" s="72"/>
+      <c r="M51" s="73"/>
+      <c r="N51" s="12"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="62"/>
+      <c r="B52" s="63"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="63"/>
+      <c r="E52" s="63"/>
+      <c r="F52" s="63"/>
+      <c r="G52" s="64"/>
+      <c r="H52" s="71"/>
+      <c r="I52" s="72"/>
+      <c r="J52" s="72"/>
+      <c r="K52" s="72"/>
+      <c r="L52" s="72"/>
+      <c r="M52" s="73"/>
+      <c r="N52" s="12"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="65"/>
+      <c r="B53" s="66"/>
+      <c r="C53" s="66"/>
+      <c r="D53" s="66"/>
+      <c r="E53" s="66"/>
+      <c r="F53" s="66"/>
+      <c r="G53" s="67"/>
+      <c r="H53" s="74"/>
+      <c r="I53" s="75"/>
+      <c r="J53" s="75"/>
+      <c r="K53" s="75"/>
+      <c r="L53" s="75"/>
+      <c r="M53" s="76"/>
+      <c r="N53" s="12"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="B50" s="61"/>
-      <c r="C50" s="61"/>
-      <c r="D50" s="61"/>
-      <c r="E50" s="61"/>
-      <c r="F50" s="61"/>
-      <c r="G50" s="62"/>
-      <c r="H50" s="69">
-        <f>SUM(C12,C24,C34,C44,J10,J22)-2</f>
-        <v>110</v>
-      </c>
-      <c r="I50" s="70"/>
-      <c r="J50" s="70"/>
-      <c r="K50" s="70"/>
-      <c r="L50" s="70"/>
-      <c r="M50" s="71"/>
-      <c r="N50" s="13"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51" s="63"/>
-      <c r="B51" s="64"/>
-      <c r="C51" s="64"/>
-      <c r="D51" s="64"/>
-      <c r="E51" s="64"/>
-      <c r="F51" s="64"/>
-      <c r="G51" s="65"/>
-      <c r="H51" s="72"/>
-      <c r="I51" s="73"/>
-      <c r="J51" s="73"/>
-      <c r="K51" s="73"/>
-      <c r="L51" s="73"/>
-      <c r="M51" s="74"/>
-      <c r="N51" s="13"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="63"/>
-      <c r="B52" s="64"/>
-      <c r="C52" s="64"/>
-      <c r="D52" s="64"/>
-      <c r="E52" s="64"/>
-      <c r="F52" s="64"/>
-      <c r="G52" s="65"/>
-      <c r="H52" s="72"/>
-      <c r="I52" s="73"/>
-      <c r="J52" s="73"/>
-      <c r="K52" s="73"/>
-      <c r="L52" s="73"/>
-      <c r="M52" s="74"/>
-      <c r="N52" s="13"/>
-    </row>
-    <row r="53" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="66"/>
-      <c r="B53" s="67"/>
-      <c r="C53" s="67"/>
-      <c r="D53" s="67"/>
-      <c r="E53" s="67"/>
-      <c r="F53" s="67"/>
-      <c r="G53" s="68"/>
-      <c r="H53" s="75"/>
-      <c r="I53" s="76"/>
-      <c r="J53" s="76"/>
-      <c r="K53" s="76"/>
-      <c r="L53" s="76"/>
-      <c r="M53" s="77"/>
-      <c r="N53" s="13"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="33">
+      <c r="B54" s="24"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="32">
         <f>H50/(SUM(C12,C24,C34,C44,J10,J22,J33,J44))</f>
-        <v>0.76388888888888884</v>
-      </c>
-      <c r="I54" s="34"/>
-      <c r="J54" s="34"/>
-      <c r="K54" s="34"/>
-      <c r="L54" s="34"/>
-      <c r="M54" s="35"/>
-      <c r="N54" s="13"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A55" s="27"/>
-      <c r="B55" s="28"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="36"/>
-      <c r="I55" s="37"/>
-      <c r="J55" s="37"/>
-      <c r="K55" s="37"/>
-      <c r="L55" s="37"/>
-      <c r="M55" s="38"/>
-      <c r="N55" s="13"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A56" s="27"/>
-      <c r="B56" s="28"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="29"/>
-      <c r="H56" s="36"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="37"/>
-      <c r="K56" s="37"/>
-      <c r="L56" s="37"/>
-      <c r="M56" s="38"/>
-      <c r="N56" s="13"/>
-    </row>
-    <row r="57" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="30"/>
-      <c r="B57" s="31"/>
-      <c r="C57" s="31"/>
-      <c r="D57" s="31"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="32"/>
-      <c r="H57" s="39"/>
-      <c r="I57" s="40"/>
-      <c r="J57" s="40"/>
-      <c r="K57" s="40"/>
-      <c r="L57" s="40"/>
-      <c r="M57" s="41"/>
-      <c r="N57" s="13"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A58" s="13"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="13"/>
-      <c r="J58" s="13"/>
-      <c r="K58" s="13"/>
-      <c r="L58" s="13"/>
-      <c r="M58" s="13"/>
-      <c r="N58" s="13"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="I54" s="33"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="33"/>
+      <c r="M54" s="34"/>
+      <c r="N54" s="12"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="26"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="36"/>
+      <c r="K55" s="36"/>
+      <c r="L55" s="36"/>
+      <c r="M55" s="37"/>
+      <c r="N55" s="12"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" s="26"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="36"/>
+      <c r="K56" s="36"/>
+      <c r="L56" s="36"/>
+      <c r="M56" s="37"/>
+      <c r="N56" s="12"/>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="29"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="38"/>
+      <c r="I57" s="39"/>
+      <c r="J57" s="39"/>
+      <c r="K57" s="39"/>
+      <c r="L57" s="39"/>
+      <c r="M57" s="40"/>
+      <c r="N57" s="12"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="12"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="12"/>
+      <c r="N58" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="32">
     <mergeCell ref="A54:G57"/>
     <mergeCell ref="H54:M57"/>
     <mergeCell ref="H44:I44"/>
@@ -3429,6 +3467,8 @@
     <mergeCell ref="H24:M24"/>
     <mergeCell ref="H33:I33"/>
     <mergeCell ref="K33:M33"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="H34:M34"/>
     <mergeCell ref="A26:F26"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="D34:F34"/>

--- a/Alex-Stevens.xlsx
+++ b/Alex-Stevens.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jadyn\Desktop\Stevens\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Stevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D452239D-EEF9-499D-90D3-0FF66BBA27A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F91FC3B-807A-4706-9AC5-D4CF9C025CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E04E897A-1522-45CD-BA08-DB652B3D3E2A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E04E897A-1522-45CD-BA08-DB652B3D3E2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Alex" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="140">
   <si>
     <t>General Chemistry I</t>
   </si>
@@ -903,6 +903,60 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -916,6 +970,114 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -926,168 +1088,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="11" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="11" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="11" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="11" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="11" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="11" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="11" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="11" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1583,7 +1583,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1593,37 +1593,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35A90BD-4739-4B1D-9A53-29DA0BA70D0C}">
   <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="94" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O38" sqref="O38"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="94" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" customWidth="1"/>
-    <col min="8" max="8" width="42.28515625" customWidth="1"/>
+    <col min="1" max="1" width="39.88671875" customWidth="1"/>
+    <col min="8" max="8" width="42.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="22"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="76"/>
       <c r="G1" s="12"/>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="22"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="76"/>
       <c r="N1" s="12"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="N2" s="12"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="N3" s="12"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>33</v>
       </c>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="N4" s="12"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="N5" s="12"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N6" s="12"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
@@ -1873,7 +1873,7 @@
       </c>
       <c r="N7" s="12"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
@@ -1915,7 +1915,7 @@
       </c>
       <c r="N8" s="12"/>
     </row>
-    <row r="9" spans="1:14" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="N9" s="12"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>17</v>
       </c>
@@ -1977,23 +1977,23 @@
         <v>0.33374999999999999</v>
       </c>
       <c r="G10" s="12"/>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="16"/>
+      <c r="I10" s="34"/>
       <c r="J10" s="5">
         <f>SUM(J3:J9)</f>
         <v>19</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="35">
         <f>(SUM(M3:M8))/(J10-1)</f>
         <v>3.9450000000000003</v>
       </c>
-      <c r="L10" s="18"/>
-      <c r="M10" s="19"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="37"/>
       <c r="N10" s="12"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>11</v>
       </c>
@@ -2022,32 +2022,32 @@
       <c r="M11" s="12"/>
       <c r="N11" s="12"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
+    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="16"/>
+      <c r="B12" s="34"/>
       <c r="C12" s="5">
         <v>17</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="35">
         <f>F3+F4+F6+F7+F8+F9+F10+F11</f>
         <v>3.2918750000000006</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="19"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="37"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="20" t="s">
+      <c r="H12" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="22"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="76"/>
       <c r="N12" s="12"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -2075,15 +2075,15 @@
       </c>
       <c r="N13" s="12"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="20" t="s">
+    <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="22"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="76"/>
       <c r="G14" s="12"/>
       <c r="H14" s="6" t="s">
         <v>90</v>
@@ -2106,7 +2106,7 @@
       </c>
       <c r="N14" s="12"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="N15" s="12"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>31</v>
       </c>
@@ -2189,7 +2189,7 @@
       </c>
       <c r="N16" s="12"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>34</v>
       </c>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="N17" s="12"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>36</v>
       </c>
@@ -2273,7 +2273,7 @@
       </c>
       <c r="N18" s="12"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>38</v>
       </c>
@@ -2315,7 +2315,7 @@
       </c>
       <c r="N19" s="12"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>40</v>
       </c>
@@ -2357,7 +2357,7 @@
       </c>
       <c r="N20" s="12"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
         <v>42</v>
       </c>
@@ -2398,7 +2398,7 @@
       </c>
       <c r="N21" s="12"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>44</v>
       </c>
@@ -2419,23 +2419,23 @@
         <v>11.01</v>
       </c>
       <c r="G22" s="12"/>
-      <c r="H22" s="15" t="s">
+      <c r="H22" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="I22" s="16"/>
+      <c r="I22" s="34"/>
       <c r="J22" s="5">
         <f>SUM(J14:J21)</f>
         <v>20</v>
       </c>
-      <c r="K22" s="17">
+      <c r="K22" s="35">
         <f>(SUM(M14:M20))/(J22-1)</f>
         <v>3.8247368421052634</v>
       </c>
-      <c r="L22" s="18"/>
-      <c r="M22" s="19"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="37"/>
       <c r="N22" s="12"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
         <v>47</v>
       </c>
@@ -2464,33 +2464,33 @@
       <c r="M23" s="77"/>
       <c r="N23" s="12"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="15" t="s">
+    <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="16"/>
+      <c r="B24" s="34"/>
       <c r="C24" s="5">
         <f>SUM(C16:C23)</f>
         <v>18</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="35">
         <f>(SUM(F16:F23))/C24</f>
         <v>3.6483333333333325</v>
       </c>
-      <c r="E24" s="18"/>
-      <c r="F24" s="19"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="37"/>
       <c r="G24" s="12"/>
-      <c r="H24" s="20" t="s">
+      <c r="H24" s="74" t="s">
         <v>113</v>
       </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="22"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="75"/>
+      <c r="K24" s="75"/>
+      <c r="L24" s="75"/>
+      <c r="M24" s="76"/>
       <c r="N24" s="12"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -2518,15 +2518,15 @@
       </c>
       <c r="N25" s="12"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="20" t="s">
+    <row r="26" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="22"/>
+      <c r="B26" s="75"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="76"/>
       <c r="G26" s="12"/>
       <c r="H26" s="6" t="s">
         <v>107</v>
@@ -2549,7 +2549,7 @@
       </c>
       <c r="N26" s="12"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>13</v>
       </c>
@@ -2590,7 +2590,7 @@
       </c>
       <c r="N27" s="12"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>50</v>
       </c>
@@ -2632,7 +2632,7 @@
       </c>
       <c r="N28" s="12"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>52</v>
       </c>
@@ -2674,7 +2674,7 @@
       </c>
       <c r="N29" s="12"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>54</v>
       </c>
@@ -2716,7 +2716,7 @@
       </c>
       <c r="N30" s="12"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>56</v>
       </c>
@@ -2758,7 +2758,7 @@
       </c>
       <c r="N31" s="12"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
         <v>58</v>
       </c>
@@ -2799,7 +2799,7 @@
       </c>
       <c r="N32" s="12"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
         <v>60</v>
       </c>
@@ -2820,37 +2820,37 @@
         <v>12</v>
       </c>
       <c r="G33" s="12"/>
-      <c r="H33" s="15" t="s">
+      <c r="H33" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="I33" s="16"/>
+      <c r="I33" s="34"/>
       <c r="J33" s="5">
         <f>SUM(J26:J32)</f>
         <v>16</v>
       </c>
-      <c r="K33" s="17">
+      <c r="K33" s="35">
         <f>(SUM(M26:M31))/(J33)</f>
         <v>3.7506249999999999</v>
       </c>
-      <c r="L33" s="18"/>
-      <c r="M33" s="19"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="37"/>
       <c r="N33" s="12"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="15" t="s">
+    <row r="34" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="16"/>
+      <c r="B34" s="34"/>
       <c r="C34" s="5">
         <f>SUM(C28:C33)</f>
         <v>19</v>
       </c>
-      <c r="D34" s="17">
+      <c r="D34" s="35">
         <f>(SUM(F28:F33))/C34</f>
         <v>3.7894736842105261</v>
       </c>
-      <c r="E34" s="18"/>
-      <c r="F34" s="19"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="37"/>
       <c r="G34" s="12"/>
       <c r="H34" s="78"/>
       <c r="I34" s="78"/>
@@ -2860,7 +2860,7 @@
       <c r="M34" s="78"/>
       <c r="N34" s="12"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -2868,25 +2868,25 @@
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
-      <c r="H35" s="20" t="s">
+      <c r="H35" s="74" t="s">
         <v>139</v>
       </c>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="22"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="75"/>
+      <c r="K35" s="75"/>
+      <c r="L35" s="75"/>
+      <c r="M35" s="76"/>
       <c r="N35" s="12"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="20" t="s">
+    <row r="36" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="22"/>
+      <c r="B36" s="75"/>
+      <c r="C36" s="75"/>
+      <c r="D36" s="75"/>
+      <c r="E36" s="75"/>
+      <c r="F36" s="76"/>
       <c r="G36" s="12"/>
       <c r="H36" s="1" t="s">
         <v>13</v>
@@ -2908,7 +2908,7 @@
       </c>
       <c r="N36" s="12"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>13</v>
       </c>
@@ -2937,15 +2937,19 @@
       <c r="J37" s="3">
         <v>3</v>
       </c>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
+      <c r="K37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L37" s="3">
+        <v>4</v>
+      </c>
       <c r="M37" s="7">
         <f>L37*J37</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N37" s="12"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>63</v>
       </c>
@@ -2975,15 +2979,19 @@
       <c r="J38" s="13">
         <v>3</v>
       </c>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
+      <c r="K38" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="L38" s="13">
+        <v>4</v>
+      </c>
       <c r="M38" s="14">
         <f t="shared" ref="M38:M42" si="6">L38*J38</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N38" s="12"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
         <v>65</v>
       </c>
@@ -3013,15 +3021,19 @@
       <c r="J39" s="13">
         <v>3</v>
       </c>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
+      <c r="K39" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L39" s="13">
+        <v>3.33</v>
+      </c>
       <c r="M39" s="14">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>9.99</v>
       </c>
       <c r="N39" s="12"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
         <v>67</v>
       </c>
@@ -3063,7 +3075,7 @@
       </c>
       <c r="N40" s="12"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>71</v>
       </c>
@@ -3093,15 +3105,19 @@
       <c r="J41" s="13">
         <v>3</v>
       </c>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
+      <c r="K41" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L41" s="13">
+        <v>3.33</v>
+      </c>
       <c r="M41" s="14">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>9.99</v>
       </c>
       <c r="N41" s="12"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>69</v>
       </c>
@@ -3131,15 +3147,19 @@
       <c r="J42" s="2">
         <v>1</v>
       </c>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
+      <c r="K42" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L42" s="2">
+        <v>3.33</v>
+      </c>
       <c r="M42" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.33</v>
       </c>
       <c r="N42" s="12"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="8" t="s">
         <v>73</v>
       </c>
@@ -3169,46 +3189,51 @@
       <c r="J43" s="2">
         <v>3</v>
       </c>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
+      <c r="K43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L43" s="2">
+        <v>4</v>
+      </c>
       <c r="M43" s="7">
-        <v>0</v>
+        <f>J43*L43</f>
+        <v>12</v>
       </c>
       <c r="N43" s="12"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="15" t="s">
+    <row r="44" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="16"/>
+      <c r="B44" s="34"/>
       <c r="C44" s="5">
         <f>SUM(C38:C43)</f>
         <v>19</v>
       </c>
-      <c r="D44" s="17">
+      <c r="D44" s="35">
         <f>(SUM(F38:F43))/C44</f>
         <v>3.7363157894736845</v>
       </c>
-      <c r="E44" s="18"/>
-      <c r="F44" s="19"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="37"/>
       <c r="G44" s="12"/>
-      <c r="H44" s="15" t="s">
+      <c r="H44" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="I44" s="16"/>
+      <c r="I44" s="34"/>
       <c r="J44" s="5">
         <f>SUM(J37:J43)-J40</f>
         <v>16</v>
       </c>
-      <c r="K44" s="17">
+      <c r="K44" s="35">
         <f>(SUM(M37:M39)+SUM(M41:M43))/(J44)</f>
-        <v>0</v>
-      </c>
-      <c r="L44" s="18"/>
-      <c r="M44" s="19"/>
+        <v>3.7068750000000001</v>
+      </c>
+      <c r="L44" s="36"/>
+      <c r="M44" s="37"/>
       <c r="N44" s="12"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
@@ -3224,214 +3249,214 @@
       <c r="M45" s="12"/>
       <c r="N45" s="12"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="41" t="s">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="B46" s="42"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="43"/>
-      <c r="H46" s="50">
-        <f>(((D12*C12)+(D24*C24)+(D34*C34)+(D44*C44)+(K10*J10)+(K22*J22)+(K33*J33))/(SUM(C12,C24,C34,C44,J10,J22,J33)))+0.001</f>
-        <v>3.7203875925164471</v>
-      </c>
-      <c r="I46" s="51"/>
-      <c r="J46" s="51"/>
-      <c r="K46" s="51"/>
-      <c r="L46" s="51"/>
-      <c r="M46" s="52"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="47">
+        <f>(((D12*C12)+(D24*C24)+(D34*C34)+(D44*C44)+(K10*J10)+(K22*J22)+(K33*J33)+(K44*J44)))/(SUM(C12,C24,C34,C44,J10,J22,J33,J44))+0.001</f>
+        <v>3.7189973044590641</v>
+      </c>
+      <c r="I46" s="48"/>
+      <c r="J46" s="48"/>
+      <c r="K46" s="48"/>
+      <c r="L46" s="48"/>
+      <c r="M46" s="49"/>
       <c r="N46" s="12"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="44"/>
-      <c r="B47" s="45"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="46"/>
-      <c r="H47" s="53"/>
-      <c r="I47" s="54"/>
-      <c r="J47" s="54"/>
-      <c r="K47" s="54"/>
-      <c r="L47" s="54"/>
-      <c r="M47" s="55"/>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47" s="41"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="50"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="51"/>
+      <c r="K47" s="51"/>
+      <c r="L47" s="51"/>
+      <c r="M47" s="52"/>
       <c r="N47" s="12"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="44"/>
-      <c r="B48" s="45"/>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="45"/>
-      <c r="F48" s="45"/>
-      <c r="G48" s="46"/>
-      <c r="H48" s="53"/>
-      <c r="I48" s="54"/>
-      <c r="J48" s="54"/>
-      <c r="K48" s="54"/>
-      <c r="L48" s="54"/>
-      <c r="M48" s="55"/>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48" s="41"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="50"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="51"/>
+      <c r="K48" s="51"/>
+      <c r="L48" s="51"/>
+      <c r="M48" s="52"/>
       <c r="N48" s="12"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="47"/>
-      <c r="B49" s="48"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="49"/>
-      <c r="H49" s="56"/>
-      <c r="I49" s="57"/>
-      <c r="J49" s="57"/>
-      <c r="K49" s="57"/>
-      <c r="L49" s="57"/>
-      <c r="M49" s="58"/>
+    <row r="49" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="44"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="45"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="46"/>
+      <c r="H49" s="53"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="54"/>
+      <c r="K49" s="54"/>
+      <c r="L49" s="54"/>
+      <c r="M49" s="55"/>
       <c r="N49" s="12"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="59" t="s">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="B50" s="60"/>
-      <c r="C50" s="60"/>
-      <c r="D50" s="60"/>
-      <c r="E50" s="60"/>
-      <c r="F50" s="60"/>
-      <c r="G50" s="61"/>
-      <c r="H50" s="68">
-        <f>SUM(C12,C24,C34,C44,J10,J22,J33)</f>
-        <v>128</v>
-      </c>
-      <c r="I50" s="69"/>
-      <c r="J50" s="69"/>
-      <c r="K50" s="69"/>
-      <c r="L50" s="69"/>
-      <c r="M50" s="70"/>
+      <c r="B50" s="57"/>
+      <c r="C50" s="57"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="57"/>
+      <c r="G50" s="58"/>
+      <c r="H50" s="65">
+        <f>SUM(C12,C24,C34,C44,J10,J22,J33,J44)</f>
+        <v>144</v>
+      </c>
+      <c r="I50" s="66"/>
+      <c r="J50" s="66"/>
+      <c r="K50" s="66"/>
+      <c r="L50" s="66"/>
+      <c r="M50" s="67"/>
       <c r="N50" s="12"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="62"/>
-      <c r="B51" s="63"/>
-      <c r="C51" s="63"/>
-      <c r="D51" s="63"/>
-      <c r="E51" s="63"/>
-      <c r="F51" s="63"/>
-      <c r="G51" s="64"/>
-      <c r="H51" s="71"/>
-      <c r="I51" s="72"/>
-      <c r="J51" s="72"/>
-      <c r="K51" s="72"/>
-      <c r="L51" s="72"/>
-      <c r="M51" s="73"/>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51" s="59"/>
+      <c r="B51" s="60"/>
+      <c r="C51" s="60"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="60"/>
+      <c r="F51" s="60"/>
+      <c r="G51" s="61"/>
+      <c r="H51" s="68"/>
+      <c r="I51" s="69"/>
+      <c r="J51" s="69"/>
+      <c r="K51" s="69"/>
+      <c r="L51" s="69"/>
+      <c r="M51" s="70"/>
       <c r="N51" s="12"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="62"/>
-      <c r="B52" s="63"/>
-      <c r="C52" s="63"/>
-      <c r="D52" s="63"/>
-      <c r="E52" s="63"/>
-      <c r="F52" s="63"/>
-      <c r="G52" s="64"/>
-      <c r="H52" s="71"/>
-      <c r="I52" s="72"/>
-      <c r="J52" s="72"/>
-      <c r="K52" s="72"/>
-      <c r="L52" s="72"/>
-      <c r="M52" s="73"/>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A52" s="59"/>
+      <c r="B52" s="60"/>
+      <c r="C52" s="60"/>
+      <c r="D52" s="60"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="60"/>
+      <c r="G52" s="61"/>
+      <c r="H52" s="68"/>
+      <c r="I52" s="69"/>
+      <c r="J52" s="69"/>
+      <c r="K52" s="69"/>
+      <c r="L52" s="69"/>
+      <c r="M52" s="70"/>
       <c r="N52" s="12"/>
     </row>
-    <row r="53" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="65"/>
-      <c r="B53" s="66"/>
-      <c r="C53" s="66"/>
-      <c r="D53" s="66"/>
-      <c r="E53" s="66"/>
-      <c r="F53" s="66"/>
-      <c r="G53" s="67"/>
-      <c r="H53" s="74"/>
-      <c r="I53" s="75"/>
-      <c r="J53" s="75"/>
-      <c r="K53" s="75"/>
-      <c r="L53" s="75"/>
-      <c r="M53" s="76"/>
+    <row r="53" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="62"/>
+      <c r="B53" s="63"/>
+      <c r="C53" s="63"/>
+      <c r="D53" s="63"/>
+      <c r="E53" s="63"/>
+      <c r="F53" s="63"/>
+      <c r="G53" s="64"/>
+      <c r="H53" s="71"/>
+      <c r="I53" s="72"/>
+      <c r="J53" s="72"/>
+      <c r="K53" s="72"/>
+      <c r="L53" s="72"/>
+      <c r="M53" s="73"/>
       <c r="N53" s="12"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="23" t="s">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A54" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="B54" s="24"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="25"/>
-      <c r="H54" s="32">
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="24">
         <f>H50/(SUM(C12,C24,C34,C44,J10,J22,J33,J44))</f>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="I54" s="33"/>
-      <c r="J54" s="33"/>
-      <c r="K54" s="33"/>
-      <c r="L54" s="33"/>
-      <c r="M54" s="34"/>
+        <v>1</v>
+      </c>
+      <c r="I54" s="25"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="25"/>
+      <c r="M54" s="26"/>
       <c r="N54" s="12"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="26"/>
-      <c r="B55" s="27"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="35"/>
-      <c r="I55" s="36"/>
-      <c r="J55" s="36"/>
-      <c r="K55" s="36"/>
-      <c r="L55" s="36"/>
-      <c r="M55" s="37"/>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A55" s="18"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="28"/>
+      <c r="M55" s="29"/>
       <c r="N55" s="12"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="26"/>
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="35"/>
-      <c r="I56" s="36"/>
-      <c r="J56" s="36"/>
-      <c r="K56" s="36"/>
-      <c r="L56" s="36"/>
-      <c r="M56" s="37"/>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A56" s="18"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="28"/>
+      <c r="K56" s="28"/>
+      <c r="L56" s="28"/>
+      <c r="M56" s="29"/>
       <c r="N56" s="12"/>
     </row>
-    <row r="57" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="29"/>
-      <c r="B57" s="30"/>
-      <c r="C57" s="30"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="31"/>
-      <c r="H57" s="38"/>
-      <c r="I57" s="39"/>
-      <c r="J57" s="39"/>
-      <c r="K57" s="39"/>
-      <c r="L57" s="39"/>
-      <c r="M57" s="40"/>
+    <row r="57" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="21"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="31"/>
+      <c r="K57" s="31"/>
+      <c r="L57" s="31"/>
+      <c r="M57" s="32"/>
       <c r="N57" s="12"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="12"/>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
@@ -3449,14 +3474,18 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A54:G57"/>
-    <mergeCell ref="H54:M57"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="A46:G49"/>
-    <mergeCell ref="H46:M49"/>
-    <mergeCell ref="A50:G53"/>
-    <mergeCell ref="H50:M53"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="D44:F44"/>
     <mergeCell ref="H35:M35"/>
     <mergeCell ref="H1:M1"/>
     <mergeCell ref="H10:I10"/>
@@ -3469,18 +3498,14 @@
     <mergeCell ref="K33:M33"/>
     <mergeCell ref="H23:M23"/>
     <mergeCell ref="H34:M34"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="A54:G57"/>
+    <mergeCell ref="H54:M57"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="A46:G49"/>
+    <mergeCell ref="H46:M49"/>
+    <mergeCell ref="A50:G53"/>
+    <mergeCell ref="H50:M53"/>
   </mergeCells>
   <conditionalFormatting sqref="D12:F12">
     <cfRule type="cellIs" dxfId="17" priority="19" operator="greaterThan">

--- a/Alex-Stevens.xlsx
+++ b/Alex-Stevens.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Stevens\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jadyn\Desktop\Stevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F91FC3B-807A-4706-9AC5-D4CF9C025CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1014454-825F-42A6-A217-508AD0E6DF04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E04E897A-1522-45CD-BA08-DB652B3D3E2A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E04E897A-1522-45CD-BA08-DB652B3D3E2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Alex" sheetId="1" r:id="rId1"/>
@@ -903,60 +903,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="11" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="11" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="11" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="11" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="11" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="11" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="11" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="11" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -970,114 +916,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1094,6 +932,168 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="11" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1183,21 +1183,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1593,37 +1593,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35A90BD-4739-4B1D-9A53-29DA0BA70D0C}">
   <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="94" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q38" sqref="Q38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.88671875" customWidth="1"/>
-    <col min="8" max="8" width="42.33203125" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" customWidth="1"/>
+    <col min="8" max="8" width="42.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="74" t="s">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="76"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="22"/>
       <c r="G1" s="12"/>
-      <c r="H1" s="74" t="s">
+      <c r="H1" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="76"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="22"/>
       <c r="N1" s="12"/>
     </row>
-    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="N2" s="12"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="N3" s="12"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>33</v>
       </c>
@@ -1747,7 +1747,7 @@
       </c>
       <c r="N4" s="12"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="N5" s="12"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N6" s="12"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
@@ -1873,7 +1873,7 @@
       </c>
       <c r="N7" s="12"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
@@ -1915,7 +1915,7 @@
       </c>
       <c r="N8" s="12"/>
     </row>
-    <row r="9" spans="1:14" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="N9" s="12"/>
     </row>
-    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>17</v>
       </c>
@@ -1977,23 +1977,23 @@
         <v>0.33374999999999999</v>
       </c>
       <c r="G10" s="12"/>
-      <c r="H10" s="33" t="s">
+      <c r="H10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="34"/>
+      <c r="I10" s="16"/>
       <c r="J10" s="5">
         <f>SUM(J3:J9)</f>
         <v>19</v>
       </c>
-      <c r="K10" s="35">
+      <c r="K10" s="17">
         <f>(SUM(M3:M8))/(J10-1)</f>
         <v>3.9450000000000003</v>
       </c>
-      <c r="L10" s="36"/>
-      <c r="M10" s="37"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="19"/>
       <c r="N10" s="12"/>
     </row>
-    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>11</v>
       </c>
@@ -2022,32 +2022,32 @@
       <c r="M11" s="12"/>
       <c r="N11" s="12"/>
     </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="33" t="s">
+    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="34"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="5">
         <v>17</v>
       </c>
-      <c r="D12" s="35">
+      <c r="D12" s="17">
         <f>F3+F4+F6+F7+F8+F9+F10+F11</f>
         <v>3.2918750000000006</v>
       </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="37"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="19"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="74" t="s">
+      <c r="H12" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="75"/>
-      <c r="L12" s="75"/>
-      <c r="M12" s="76"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="22"/>
       <c r="N12" s="12"/>
     </row>
-    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -2075,15 +2075,15 @@
       </c>
       <c r="N13" s="12"/>
     </row>
-    <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="74" t="s">
+    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="75"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="76"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="22"/>
       <c r="G14" s="12"/>
       <c r="H14" s="6" t="s">
         <v>90</v>
@@ -2106,7 +2106,7 @@
       </c>
       <c r="N14" s="12"/>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="N15" s="12"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>31</v>
       </c>
@@ -2189,7 +2189,7 @@
       </c>
       <c r="N16" s="12"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>34</v>
       </c>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="N17" s="12"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>36</v>
       </c>
@@ -2273,7 +2273,7 @@
       </c>
       <c r="N18" s="12"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>38</v>
       </c>
@@ -2315,7 +2315,7 @@
       </c>
       <c r="N19" s="12"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>40</v>
       </c>
@@ -2357,7 +2357,7 @@
       </c>
       <c r="N20" s="12"/>
     </row>
-    <row r="21" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>42</v>
       </c>
@@ -2398,7 +2398,7 @@
       </c>
       <c r="N21" s="12"/>
     </row>
-    <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>44</v>
       </c>
@@ -2419,23 +2419,23 @@
         <v>11.01</v>
       </c>
       <c r="G22" s="12"/>
-      <c r="H22" s="33" t="s">
+      <c r="H22" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I22" s="34"/>
+      <c r="I22" s="16"/>
       <c r="J22" s="5">
         <f>SUM(J14:J21)</f>
         <v>20</v>
       </c>
-      <c r="K22" s="35">
+      <c r="K22" s="17">
         <f>(SUM(M14:M20))/(J22-1)</f>
         <v>3.8247368421052634</v>
       </c>
-      <c r="L22" s="36"/>
-      <c r="M22" s="37"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="19"/>
       <c r="N22" s="12"/>
     </row>
-    <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>47</v>
       </c>
@@ -2456,41 +2456,41 @@
         <v>12</v>
       </c>
       <c r="G23" s="12"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="77"/>
-      <c r="J23" s="77"/>
-      <c r="K23" s="77"/>
-      <c r="L23" s="77"/>
-      <c r="M23" s="77"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
       <c r="N23" s="12"/>
     </row>
-    <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="33" t="s">
+    <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="34"/>
+      <c r="B24" s="16"/>
       <c r="C24" s="5">
         <f>SUM(C16:C23)</f>
         <v>18</v>
       </c>
-      <c r="D24" s="35">
+      <c r="D24" s="17">
         <f>(SUM(F16:F23))/C24</f>
         <v>3.6483333333333325</v>
       </c>
-      <c r="E24" s="36"/>
-      <c r="F24" s="37"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="19"/>
       <c r="G24" s="12"/>
-      <c r="H24" s="74" t="s">
+      <c r="H24" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="I24" s="75"/>
-      <c r="J24" s="75"/>
-      <c r="K24" s="75"/>
-      <c r="L24" s="75"/>
-      <c r="M24" s="76"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="22"/>
       <c r="N24" s="12"/>
     </row>
-    <row r="25" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -2518,15 +2518,15 @@
       </c>
       <c r="N25" s="12"/>
     </row>
-    <row r="26" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="74" t="s">
+    <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="75"/>
-      <c r="C26" s="75"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="76"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="22"/>
       <c r="G26" s="12"/>
       <c r="H26" s="6" t="s">
         <v>107</v>
@@ -2549,7 +2549,7 @@
       </c>
       <c r="N26" s="12"/>
     </row>
-    <row r="27" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>13</v>
       </c>
@@ -2590,7 +2590,7 @@
       </c>
       <c r="N27" s="12"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>50</v>
       </c>
@@ -2632,7 +2632,7 @@
       </c>
       <c r="N28" s="12"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>52</v>
       </c>
@@ -2674,7 +2674,7 @@
       </c>
       <c r="N29" s="12"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>54</v>
       </c>
@@ -2716,7 +2716,7 @@
       </c>
       <c r="N30" s="12"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>56</v>
       </c>
@@ -2758,7 +2758,7 @@
       </c>
       <c r="N31" s="12"/>
     </row>
-    <row r="32" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>58</v>
       </c>
@@ -2799,7 +2799,7 @@
       </c>
       <c r="N32" s="12"/>
     </row>
-    <row r="33" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>60</v>
       </c>
@@ -2820,47 +2820,47 @@
         <v>12</v>
       </c>
       <c r="G33" s="12"/>
-      <c r="H33" s="33" t="s">
+      <c r="H33" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I33" s="34"/>
+      <c r="I33" s="16"/>
       <c r="J33" s="5">
         <f>SUM(J26:J32)</f>
         <v>16</v>
       </c>
-      <c r="K33" s="35">
+      <c r="K33" s="17">
         <f>(SUM(M26:M31))/(J33)</f>
         <v>3.7506249999999999</v>
       </c>
-      <c r="L33" s="36"/>
-      <c r="M33" s="37"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="19"/>
       <c r="N33" s="12"/>
     </row>
-    <row r="34" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="33" t="s">
+    <row r="34" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="34"/>
+      <c r="B34" s="16"/>
       <c r="C34" s="5">
         <f>SUM(C28:C33)</f>
         <v>19</v>
       </c>
-      <c r="D34" s="35">
+      <c r="D34" s="17">
         <f>(SUM(F28:F33))/C34</f>
         <v>3.7894736842105261</v>
       </c>
-      <c r="E34" s="36"/>
-      <c r="F34" s="37"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="19"/>
       <c r="G34" s="12"/>
-      <c r="H34" s="78"/>
-      <c r="I34" s="78"/>
-      <c r="J34" s="78"/>
-      <c r="K34" s="78"/>
-      <c r="L34" s="78"/>
-      <c r="M34" s="78"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
       <c r="N34" s="12"/>
     </row>
-    <row r="35" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -2868,25 +2868,25 @@
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
-      <c r="H35" s="74" t="s">
+      <c r="H35" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="I35" s="75"/>
-      <c r="J35" s="75"/>
-      <c r="K35" s="75"/>
-      <c r="L35" s="75"/>
-      <c r="M35" s="76"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="22"/>
       <c r="N35" s="12"/>
     </row>
-    <row r="36" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="74" t="s">
+    <row r="36" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B36" s="75"/>
-      <c r="C36" s="75"/>
-      <c r="D36" s="75"/>
-      <c r="E36" s="75"/>
-      <c r="F36" s="76"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="22"/>
       <c r="G36" s="12"/>
       <c r="H36" s="1" t="s">
         <v>13</v>
@@ -2908,7 +2908,7 @@
       </c>
       <c r="N36" s="12"/>
     </row>
-    <row r="37" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>13</v>
       </c>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="N37" s="12"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>63</v>
       </c>
@@ -2991,7 +2991,7 @@
       </c>
       <c r="N38" s="12"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>65</v>
       </c>
@@ -3033,7 +3033,7 @@
       </c>
       <c r="N39" s="12"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>67</v>
       </c>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="N40" s="12"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>71</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>3</v>
       </c>
       <c r="K41" s="13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L41" s="13">
         <v>3.33</v>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="N41" s="12"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>69</v>
       </c>
@@ -3159,7 +3159,7 @@
       </c>
       <c r="N42" s="12"/>
     </row>
-    <row r="43" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
         <v>73</v>
       </c>
@@ -3201,39 +3201,39 @@
       </c>
       <c r="N43" s="12"/>
     </row>
-    <row r="44" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="33" t="s">
+    <row r="44" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="34"/>
+      <c r="B44" s="16"/>
       <c r="C44" s="5">
         <f>SUM(C38:C43)</f>
         <v>19</v>
       </c>
-      <c r="D44" s="35">
+      <c r="D44" s="17">
         <f>(SUM(F38:F43))/C44</f>
         <v>3.7363157894736845</v>
       </c>
-      <c r="E44" s="36"/>
-      <c r="F44" s="37"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="19"/>
       <c r="G44" s="12"/>
-      <c r="H44" s="33" t="s">
+      <c r="H44" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I44" s="34"/>
+      <c r="I44" s="16"/>
       <c r="J44" s="5">
         <f>SUM(J37:J43)-J40</f>
         <v>16</v>
       </c>
-      <c r="K44" s="35">
+      <c r="K44" s="17">
         <f>(SUM(M37:M39)+SUM(M41:M43))/(J44)</f>
         <v>3.7068750000000001</v>
       </c>
-      <c r="L44" s="36"/>
-      <c r="M44" s="37"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="19"/>
       <c r="N44" s="12"/>
     </row>
-    <row r="45" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
@@ -3249,214 +3249,214 @@
       <c r="M45" s="12"/>
       <c r="N45" s="12"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="38" t="s">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="B46" s="39"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="40"/>
-      <c r="H46" s="47">
+      <c r="B46" s="44"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="52">
         <f>(((D12*C12)+(D24*C24)+(D34*C34)+(D44*C44)+(K10*J10)+(K22*J22)+(K33*J33)+(K44*J44)))/(SUM(C12,C24,C34,C44,J10,J22,J33,J44))+0.001</f>
         <v>3.7189973044590641</v>
       </c>
-      <c r="I46" s="48"/>
-      <c r="J46" s="48"/>
-      <c r="K46" s="48"/>
-      <c r="L46" s="48"/>
-      <c r="M46" s="49"/>
+      <c r="I46" s="53"/>
+      <c r="J46" s="53"/>
+      <c r="K46" s="53"/>
+      <c r="L46" s="53"/>
+      <c r="M46" s="54"/>
       <c r="N46" s="12"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" s="41"/>
-      <c r="B47" s="42"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="50"/>
-      <c r="I47" s="51"/>
-      <c r="J47" s="51"/>
-      <c r="K47" s="51"/>
-      <c r="L47" s="51"/>
-      <c r="M47" s="52"/>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="46"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="56"/>
+      <c r="J47" s="56"/>
+      <c r="K47" s="56"/>
+      <c r="L47" s="56"/>
+      <c r="M47" s="57"/>
       <c r="N47" s="12"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" s="41"/>
-      <c r="B48" s="42"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="42"/>
-      <c r="E48" s="42"/>
-      <c r="F48" s="42"/>
-      <c r="G48" s="43"/>
-      <c r="H48" s="50"/>
-      <c r="I48" s="51"/>
-      <c r="J48" s="51"/>
-      <c r="K48" s="51"/>
-      <c r="L48" s="51"/>
-      <c r="M48" s="52"/>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="46"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="56"/>
+      <c r="J48" s="56"/>
+      <c r="K48" s="56"/>
+      <c r="L48" s="56"/>
+      <c r="M48" s="57"/>
       <c r="N48" s="12"/>
     </row>
-    <row r="49" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="44"/>
-      <c r="B49" s="45"/>
-      <c r="C49" s="45"/>
-      <c r="D49" s="45"/>
-      <c r="E49" s="45"/>
-      <c r="F49" s="45"/>
-      <c r="G49" s="46"/>
-      <c r="H49" s="53"/>
-      <c r="I49" s="54"/>
-      <c r="J49" s="54"/>
-      <c r="K49" s="54"/>
-      <c r="L49" s="54"/>
-      <c r="M49" s="55"/>
+    <row r="49" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="49"/>
+      <c r="B49" s="50"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="51"/>
+      <c r="H49" s="58"/>
+      <c r="I49" s="59"/>
+      <c r="J49" s="59"/>
+      <c r="K49" s="59"/>
+      <c r="L49" s="59"/>
+      <c r="M49" s="60"/>
       <c r="N49" s="12"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A50" s="56" t="s">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="61" t="s">
         <v>119</v>
       </c>
-      <c r="B50" s="57"/>
-      <c r="C50" s="57"/>
-      <c r="D50" s="57"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="57"/>
-      <c r="G50" s="58"/>
-      <c r="H50" s="65">
+      <c r="B50" s="62"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="62"/>
+      <c r="E50" s="62"/>
+      <c r="F50" s="62"/>
+      <c r="G50" s="63"/>
+      <c r="H50" s="70">
         <f>SUM(C12,C24,C34,C44,J10,J22,J33,J44)</f>
         <v>144</v>
       </c>
-      <c r="I50" s="66"/>
-      <c r="J50" s="66"/>
-      <c r="K50" s="66"/>
-      <c r="L50" s="66"/>
-      <c r="M50" s="67"/>
+      <c r="I50" s="71"/>
+      <c r="J50" s="71"/>
+      <c r="K50" s="71"/>
+      <c r="L50" s="71"/>
+      <c r="M50" s="72"/>
       <c r="N50" s="12"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A51" s="59"/>
-      <c r="B51" s="60"/>
-      <c r="C51" s="60"/>
-      <c r="D51" s="60"/>
-      <c r="E51" s="60"/>
-      <c r="F51" s="60"/>
-      <c r="G51" s="61"/>
-      <c r="H51" s="68"/>
-      <c r="I51" s="69"/>
-      <c r="J51" s="69"/>
-      <c r="K51" s="69"/>
-      <c r="L51" s="69"/>
-      <c r="M51" s="70"/>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="64"/>
+      <c r="B51" s="65"/>
+      <c r="C51" s="65"/>
+      <c r="D51" s="65"/>
+      <c r="E51" s="65"/>
+      <c r="F51" s="65"/>
+      <c r="G51" s="66"/>
+      <c r="H51" s="73"/>
+      <c r="I51" s="74"/>
+      <c r="J51" s="74"/>
+      <c r="K51" s="74"/>
+      <c r="L51" s="74"/>
+      <c r="M51" s="75"/>
       <c r="N51" s="12"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A52" s="59"/>
-      <c r="B52" s="60"/>
-      <c r="C52" s="60"/>
-      <c r="D52" s="60"/>
-      <c r="E52" s="60"/>
-      <c r="F52" s="60"/>
-      <c r="G52" s="61"/>
-      <c r="H52" s="68"/>
-      <c r="I52" s="69"/>
-      <c r="J52" s="69"/>
-      <c r="K52" s="69"/>
-      <c r="L52" s="69"/>
-      <c r="M52" s="70"/>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="64"/>
+      <c r="B52" s="65"/>
+      <c r="C52" s="65"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="65"/>
+      <c r="F52" s="65"/>
+      <c r="G52" s="66"/>
+      <c r="H52" s="73"/>
+      <c r="I52" s="74"/>
+      <c r="J52" s="74"/>
+      <c r="K52" s="74"/>
+      <c r="L52" s="74"/>
+      <c r="M52" s="75"/>
       <c r="N52" s="12"/>
     </row>
-    <row r="53" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="62"/>
-      <c r="B53" s="63"/>
-      <c r="C53" s="63"/>
-      <c r="D53" s="63"/>
-      <c r="E53" s="63"/>
-      <c r="F53" s="63"/>
-      <c r="G53" s="64"/>
-      <c r="H53" s="71"/>
-      <c r="I53" s="72"/>
-      <c r="J53" s="72"/>
-      <c r="K53" s="72"/>
-      <c r="L53" s="72"/>
-      <c r="M53" s="73"/>
+    <row r="53" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="67"/>
+      <c r="B53" s="68"/>
+      <c r="C53" s="68"/>
+      <c r="D53" s="68"/>
+      <c r="E53" s="68"/>
+      <c r="F53" s="68"/>
+      <c r="G53" s="69"/>
+      <c r="H53" s="76"/>
+      <c r="I53" s="77"/>
+      <c r="J53" s="77"/>
+      <c r="K53" s="77"/>
+      <c r="L53" s="77"/>
+      <c r="M53" s="78"/>
       <c r="N53" s="12"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A54" s="15" t="s">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="24">
+      <c r="B54" s="26"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="34">
         <f>H50/(SUM(C12,C24,C34,C44,J10,J22,J33,J44))</f>
         <v>1</v>
       </c>
-      <c r="I54" s="25"/>
-      <c r="J54" s="25"/>
-      <c r="K54" s="25"/>
-      <c r="L54" s="25"/>
-      <c r="M54" s="26"/>
+      <c r="I54" s="35"/>
+      <c r="J54" s="35"/>
+      <c r="K54" s="35"/>
+      <c r="L54" s="35"/>
+      <c r="M54" s="36"/>
       <c r="N54" s="12"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A55" s="18"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="28"/>
-      <c r="J55" s="28"/>
-      <c r="K55" s="28"/>
-      <c r="L55" s="28"/>
-      <c r="M55" s="29"/>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="28"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="37"/>
+      <c r="I55" s="38"/>
+      <c r="J55" s="38"/>
+      <c r="K55" s="38"/>
+      <c r="L55" s="38"/>
+      <c r="M55" s="39"/>
       <c r="N55" s="12"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A56" s="18"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="27"/>
-      <c r="I56" s="28"/>
-      <c r="J56" s="28"/>
-      <c r="K56" s="28"/>
-      <c r="L56" s="28"/>
-      <c r="M56" s="29"/>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" s="28"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="38"/>
+      <c r="J56" s="38"/>
+      <c r="K56" s="38"/>
+      <c r="L56" s="38"/>
+      <c r="M56" s="39"/>
       <c r="N56" s="12"/>
     </row>
-    <row r="57" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="21"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="30"/>
-      <c r="I57" s="31"/>
-      <c r="J57" s="31"/>
-      <c r="K57" s="31"/>
-      <c r="L57" s="31"/>
-      <c r="M57" s="32"/>
+    <row r="57" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="31"/>
+      <c r="B57" s="32"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="40"/>
+      <c r="I57" s="41"/>
+      <c r="J57" s="41"/>
+      <c r="K57" s="41"/>
+      <c r="L57" s="41"/>
+      <c r="M57" s="42"/>
       <c r="N57" s="12"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="12"/>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
@@ -3474,18 +3474,14 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="A54:G57"/>
+    <mergeCell ref="H54:M57"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="A46:G49"/>
+    <mergeCell ref="H46:M49"/>
+    <mergeCell ref="A50:G53"/>
+    <mergeCell ref="H50:M53"/>
     <mergeCell ref="H35:M35"/>
     <mergeCell ref="H1:M1"/>
     <mergeCell ref="H10:I10"/>
@@ -3498,14 +3494,18 @@
     <mergeCell ref="K33:M33"/>
     <mergeCell ref="H23:M23"/>
     <mergeCell ref="H34:M34"/>
-    <mergeCell ref="A54:G57"/>
-    <mergeCell ref="H54:M57"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="A46:G49"/>
-    <mergeCell ref="H46:M49"/>
-    <mergeCell ref="A50:G53"/>
-    <mergeCell ref="H50:M53"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D24:F24"/>
   </mergeCells>
   <conditionalFormatting sqref="D12:F12">
     <cfRule type="cellIs" dxfId="17" priority="19" operator="greaterThan">
@@ -3539,43 +3539,43 @@
       <formula>3.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10:M10">
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="greaterThan">
+  <conditionalFormatting sqref="H46:M49">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
       <formula>3.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="greaterThan">
+      <formula>3.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10:M10">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="greaterThan">
+      <formula>3.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="12" operator="lessThan">
       <formula>3.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22:M22">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="greaterThan">
       <formula>3.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="lessThan">
       <formula>3.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:M33">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThan">
       <formula>3.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="lessThan">
       <formula>3.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K44:M44">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
       <formula>3.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
-      <formula>3.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H46:M49">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
-      <formula>3.5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="lessThan">
       <formula>3.5</formula>
     </cfRule>
   </conditionalFormatting>
